--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cjame\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8836AA1-29B7-437B-A530-1D3D0B5EEB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D00A9D0-B9E0-418B-BA75-2DC154E7E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="38280" yWindow="2700" windowWidth="29040" windowHeight="15840" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
   <si>
     <t>Section</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Yard-63, 62-63</t>
+  </si>
+  <si>
+    <t>Speed Limit (MPH)</t>
+  </si>
+  <si>
+    <t>Block Length (y)</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="74" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,9 +662,11 @@
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -713,8 +721,14 @@
       <c r="R1" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -742,26 +756,38 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
       <c r="N2" s="4">
         <v>1</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
       <c r="P2" s="5">
         <v>8</v>
       </c>
-      <c r="Q2" t="s">
-        <v>4</v>
+      <c r="Q2">
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S2">
+        <f>_xlfn.FLOOR.MATH(F2*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T2">
+        <f>D2 * 1.09361</f>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -791,23 +817,35 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
       <c r="P3" s="5">
         <v>8</v>
       </c>
-      <c r="Q3" t="s">
-        <v>4</v>
+      <c r="Q3">
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S3">
+        <f>_xlfn.FLOOR.MATH(F3*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="0">D3 * 1.09361</f>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -833,25 +871,35 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
       <c r="P4" s="5">
         <v>8</v>
       </c>
-      <c r="Q4" t="s">
-        <v>4</v>
+      <c r="Q4">
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S4">
+        <f>_xlfn.FLOOR.MATH(F4*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -877,23 +925,35 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
       <c r="P5" s="5">
         <v>8</v>
       </c>
-      <c r="Q5" t="s">
-        <v>4</v>
+      <c r="Q5">
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S5">
+        <f>_xlfn.FLOOR.MATH(F5*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -919,23 +979,35 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
       <c r="P6" s="5">
         <v>8</v>
       </c>
-      <c r="Q6" t="s">
-        <v>4</v>
+      <c r="Q6">
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S6">
+        <f>_xlfn.FLOOR.MATH(F6*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -961,23 +1033,35 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
       <c r="P7" s="5">
         <v>8</v>
       </c>
-      <c r="Q7" t="s">
-        <v>4</v>
+      <c r="Q7">
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S7">
+        <f>_xlfn.FLOOR.MATH(F7*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1003,23 +1087,35 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
       <c r="P8" s="5">
         <v>8</v>
       </c>
-      <c r="Q8" t="s">
-        <v>4</v>
+      <c r="Q8">
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S8">
+        <f>_xlfn.FLOOR.MATH(F8*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1045,25 +1141,35 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
       <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
       <c r="P9" s="5">
         <v>8</v>
       </c>
-      <c r="Q9" t="s">
-        <v>4</v>
+      <c r="Q9">
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S9">
+        <f>_xlfn.FLOOR.MATH(F9*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1093,23 +1199,35 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
       <c r="P10" s="5">
         <v>8</v>
       </c>
-      <c r="Q10" t="s">
-        <v>4</v>
+      <c r="Q10">
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S10">
+        <f>_xlfn.FLOOR.MATH(F10*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1135,25 +1253,35 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
       <c r="N11" s="4">
         <v>1</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
       <c r="P11" s="5">
         <v>8</v>
       </c>
-      <c r="Q11" t="s">
-        <v>4</v>
+      <c r="Q11">
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S11">
+        <f>_xlfn.FLOOR.MATH(F11*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1179,23 +1307,35 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
       <c r="P12" s="5">
         <v>8</v>
       </c>
-      <c r="Q12" t="s">
-        <v>4</v>
+      <c r="Q12">
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S12">
+        <f>_xlfn.FLOOR.MATH(F12*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1222,24 +1362,38 @@
       <c r="K13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
       <c r="P13" s="5">
         <v>8</v>
       </c>
-      <c r="Q13" t="s">
-        <v>4</v>
+      <c r="Q13">
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S13">
+        <f>_xlfn.FLOOR.MATH(F13*0.621371)</f>
+        <v>27</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1265,23 +1419,35 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
       <c r="P14" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q14" t="s">
-        <v>4</v>
+      <c r="Q14">
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S14">
+        <f>_xlfn.FLOOR.MATH(F14*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>164.04149999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1307,23 +1473,35 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
       <c r="P15" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q15" t="s">
-        <v>4</v>
+      <c r="Q15">
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S15">
+        <f>_xlfn.FLOOR.MATH(F15*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>164.04149999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1349,25 +1527,35 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
       <c r="N16" s="4">
         <v>1</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
       <c r="P16" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q16" t="s">
-        <v>4</v>
+      <c r="Q16">
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S16">
+        <f>_xlfn.FLOOR.MATH(F16*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>164.04149999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1397,23 +1585,35 @@
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
       <c r="P17" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q17" t="s">
-        <v>4</v>
+      <c r="Q17">
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S17">
+        <f>_xlfn.FLOOR.MATH(F17*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>164.04149999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1439,25 +1639,35 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
       <c r="N18" s="4">
         <v>1</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
       <c r="P18" s="5">
         <v>9</v>
       </c>
-      <c r="Q18" t="s">
-        <v>4</v>
+      <c r="Q18">
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S18">
+        <f>_xlfn.FLOOR.MATH(F18*0.621371)</f>
+        <v>37</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>164.04149999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1483,23 +1693,35 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
       <c r="P19" s="5">
         <v>9</v>
       </c>
-      <c r="Q19" t="s">
-        <v>4</v>
+      <c r="Q19">
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S19">
+        <f>_xlfn.FLOOR.MATH(F19*0.621371)</f>
+        <v>37</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>164.04149999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1528,22 +1750,32 @@
       <c r="M20" s="4">
         <v>1</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
       <c r="P20" s="5">
         <v>9</v>
       </c>
-      <c r="Q20" t="s">
-        <v>4</v>
+      <c r="Q20">
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S20">
+        <f>_xlfn.FLOOR.MATH(F20*0.621371)</f>
+        <v>37</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>164.04149999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1569,23 +1801,35 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
       <c r="P21" s="5">
         <v>9</v>
       </c>
-      <c r="Q21" t="s">
-        <v>4</v>
+      <c r="Q21">
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S21">
+        <f>_xlfn.FLOOR.MATH(F21*0.621371)</f>
+        <v>37</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>164.04149999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1611,25 +1855,35 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
       <c r="N22" s="4">
         <v>1</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
       <c r="P22" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q22" t="s">
-        <v>4</v>
+      <c r="Q22">
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S22">
+        <f>_xlfn.FLOOR.MATH(F22*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1659,23 +1913,35 @@
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
       <c r="P23" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q23" t="s">
-        <v>4</v>
+      <c r="Q23">
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S23">
+        <f>_xlfn.FLOOR.MATH(F23*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1701,25 +1967,35 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
       <c r="N24" s="4">
         <v>1</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
       <c r="P24" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q24" t="s">
-        <v>4</v>
+      <c r="Q24">
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S24">
+        <f>_xlfn.FLOOR.MATH(F24*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1745,23 +2021,35 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
       <c r="P25" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q25" t="s">
-        <v>4</v>
+      <c r="Q25">
+        <v>1</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S25">
+        <f>_xlfn.FLOOR.MATH(F25*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1787,23 +2075,35 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
       <c r="P26" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q26" t="s">
-        <v>4</v>
+      <c r="Q26">
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S26">
+        <f>_xlfn.FLOOR.MATH(F26*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>218.72199999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1829,23 +2129,35 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
       <c r="P27" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q27" t="s">
-        <v>4</v>
+      <c r="Q27">
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S27">
+        <f>_xlfn.FLOOR.MATH(F27*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1871,23 +2183,35 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
       <c r="P28" s="5">
         <v>6</v>
       </c>
-      <c r="Q28" t="s">
-        <v>4</v>
+      <c r="Q28">
+        <v>1</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S28">
+        <f>_xlfn.FLOOR.MATH(F28*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
@@ -1915,23 +2239,35 @@
         <v>57</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
       <c r="P29" s="5">
         <v>6</v>
       </c>
-      <c r="Q29" t="s">
-        <v>4</v>
+      <c r="Q29">
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S29">
+        <f>_xlfn.FLOOR.MATH(F29*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
@@ -1956,24 +2292,38 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
       <c r="P30" s="5">
         <v>6</v>
       </c>
-      <c r="Q30" t="s">
-        <v>4</v>
+      <c r="Q30">
+        <v>1</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S30">
+        <f>_xlfn.FLOOR.MATH(F30*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>21</v>
       </c>
@@ -1999,25 +2349,35 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
       <c r="N31" s="4">
         <v>1</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
       <c r="P31" s="5">
         <v>6</v>
       </c>
-      <c r="Q31" t="s">
-        <v>4</v>
+      <c r="Q31">
+        <v>1</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S31">
+        <f>_xlfn.FLOOR.MATH(F31*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
@@ -2047,23 +2407,35 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
       <c r="P32" s="5">
         <v>6</v>
       </c>
-      <c r="Q32" t="s">
-        <v>4</v>
+      <c r="Q32">
+        <v>1</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S32">
+        <f>_xlfn.FLOOR.MATH(F32*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2089,25 +2461,35 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
       <c r="N33" s="4">
         <v>1</v>
       </c>
-      <c r="O33" s="4"/>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
       <c r="P33" s="5">
         <v>6</v>
       </c>
-      <c r="Q33" t="s">
-        <v>4</v>
+      <c r="Q33">
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S33">
+        <f>_xlfn.FLOOR.MATH(F33*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2133,23 +2515,35 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
       <c r="P34" s="5">
         <v>6</v>
       </c>
-      <c r="Q34" t="s">
-        <v>4</v>
+      <c r="Q34">
+        <v>1</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S34">
+        <f>_xlfn.FLOOR.MATH(F34*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2175,23 +2569,35 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
       <c r="P35" s="5">
         <v>6</v>
       </c>
-      <c r="Q35" t="s">
-        <v>4</v>
+      <c r="Q35">
+        <v>1</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S35">
+        <f>_xlfn.FLOOR.MATH(F35*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
@@ -2217,23 +2623,35 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
       <c r="P36" s="5">
         <v>6</v>
       </c>
-      <c r="Q36" t="s">
-        <v>4</v>
+      <c r="Q36">
+        <v>1</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S36">
+        <f>_xlfn.FLOOR.MATH(F36*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
@@ -2259,25 +2677,35 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
       <c r="O37" s="4">
         <v>1</v>
       </c>
       <c r="P37" s="5">
         <v>6</v>
       </c>
-      <c r="Q37" t="s">
-        <v>10</v>
+      <c r="Q37">
+        <v>2</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S37">
+        <f>_xlfn.FLOOR.MATH(F37*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
@@ -2303,25 +2731,35 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
       <c r="O38" s="4">
         <v>1</v>
       </c>
       <c r="P38" s="5">
         <v>6</v>
       </c>
-      <c r="Q38" t="s">
-        <v>10</v>
+      <c r="Q38">
+        <v>2</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S38">
+        <f>_xlfn.FLOOR.MATH(F38*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>23</v>
       </c>
@@ -2347,7 +2785,9 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
       <c r="N39" s="4">
         <v>1</v>
       </c>
@@ -2357,17 +2797,23 @@
       <c r="P39" s="5">
         <v>6</v>
       </c>
-      <c r="Q39" t="s">
-        <v>10</v>
+      <c r="Q39">
+        <v>2</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S39">
+        <f>_xlfn.FLOOR.MATH(F39*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>23</v>
       </c>
@@ -2397,25 +2843,35 @@
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
       <c r="O40" s="4">
         <v>1</v>
       </c>
       <c r="P40" s="5">
         <v>6</v>
       </c>
-      <c r="Q40" t="s">
-        <v>10</v>
+      <c r="Q40">
+        <v>2</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S40">
+        <f>_xlfn.FLOOR.MATH(F40*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2441,7 +2897,9 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
       <c r="N41" s="4">
         <v>1</v>
       </c>
@@ -2451,17 +2909,23 @@
       <c r="P41" s="5">
         <v>6</v>
       </c>
-      <c r="Q41" t="s">
-        <v>10</v>
+      <c r="Q41">
+        <v>2</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S41">
+        <f>_xlfn.FLOOR.MATH(F41*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>23</v>
       </c>
@@ -2487,25 +2951,35 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
       <c r="O42" s="4">
         <v>1</v>
       </c>
       <c r="P42" s="5">
         <v>6</v>
       </c>
-      <c r="Q42" t="s">
-        <v>10</v>
+      <c r="Q42">
+        <v>2</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S42">
+        <f>_xlfn.FLOOR.MATH(F42*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>23</v>
       </c>
@@ -2531,25 +3005,35 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
       <c r="O43" s="4">
         <v>1</v>
       </c>
       <c r="P43" s="5">
         <v>6</v>
       </c>
-      <c r="Q43" t="s">
-        <v>10</v>
+      <c r="Q43">
+        <v>2</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S43">
+        <f>_xlfn.FLOOR.MATH(F43*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>23</v>
       </c>
@@ -2575,25 +3059,35 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
       <c r="O44" s="4">
         <v>1</v>
       </c>
       <c r="P44" s="5">
         <v>6</v>
       </c>
-      <c r="Q44" t="s">
-        <v>10</v>
+      <c r="Q44">
+        <v>2</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S44">
+        <f>_xlfn.FLOOR.MATH(F44*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>23</v>
       </c>
@@ -2619,25 +3113,35 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
       <c r="O45" s="4">
         <v>1</v>
       </c>
       <c r="P45" s="5">
         <v>6</v>
       </c>
-      <c r="Q45" t="s">
-        <v>10</v>
+      <c r="Q45">
+        <v>2</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S45">
+        <f>_xlfn.FLOOR.MATH(F45*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>23</v>
       </c>
@@ -2663,25 +3167,35 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
       <c r="O46" s="4">
         <v>1</v>
       </c>
       <c r="P46" s="5">
         <v>6</v>
       </c>
-      <c r="Q46" t="s">
-        <v>10</v>
+      <c r="Q46">
+        <v>2</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S46">
+        <f>_xlfn.FLOOR.MATH(F46*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>23</v>
       </c>
@@ -2707,25 +3221,35 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
       <c r="O47" s="4">
         <v>1</v>
       </c>
       <c r="P47" s="5">
         <v>6</v>
       </c>
-      <c r="Q47" t="s">
-        <v>10</v>
+      <c r="Q47">
+        <v>2</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S47">
+        <f>_xlfn.FLOOR.MATH(F47*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>23</v>
       </c>
@@ -2751,7 +3275,9 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
       <c r="N48" s="4">
         <v>1</v>
       </c>
@@ -2761,17 +3287,23 @@
       <c r="P48" s="5">
         <v>6</v>
       </c>
-      <c r="Q48" t="s">
-        <v>10</v>
+      <c r="Q48">
+        <v>2</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S48">
+        <f>_xlfn.FLOOR.MATH(F48*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>23</v>
       </c>
@@ -2801,25 +3333,35 @@
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
       <c r="O49" s="4">
         <v>1</v>
       </c>
       <c r="P49" s="5">
         <v>6</v>
       </c>
-      <c r="Q49" t="s">
-        <v>10</v>
+      <c r="Q49">
+        <v>2</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S49">
+        <f>_xlfn.FLOOR.MATH(F49*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2845,7 +3387,9 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
       <c r="N50" s="4">
         <v>1</v>
       </c>
@@ -2855,17 +3399,23 @@
       <c r="P50" s="5">
         <v>6</v>
       </c>
-      <c r="Q50" t="s">
-        <v>10</v>
+      <c r="Q50">
+        <v>2</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S50">
+        <f>_xlfn.FLOOR.MATH(F50*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>23</v>
       </c>
@@ -2891,25 +3441,35 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
       <c r="O51" s="4">
         <v>1</v>
       </c>
       <c r="P51" s="5">
         <v>6</v>
       </c>
-      <c r="Q51" t="s">
-        <v>10</v>
+      <c r="Q51">
+        <v>2</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S51">
+        <f>_xlfn.FLOOR.MATH(F51*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>23</v>
       </c>
@@ -2935,25 +3495,35 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
       <c r="O52" s="4">
         <v>1</v>
       </c>
       <c r="P52" s="5">
         <v>6</v>
       </c>
-      <c r="Q52" t="s">
-        <v>10</v>
+      <c r="Q52">
+        <v>2</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S52">
+        <f>_xlfn.FLOOR.MATH(F52*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>23</v>
       </c>
@@ -2979,25 +3549,35 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
       <c r="O53" s="4">
         <v>1</v>
       </c>
       <c r="P53" s="5">
         <v>6</v>
       </c>
-      <c r="Q53" t="s">
-        <v>10</v>
+      <c r="Q53">
+        <v>2</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S53">
+        <f>_xlfn.FLOOR.MATH(F53*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>23</v>
       </c>
@@ -3023,25 +3603,35 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
       <c r="O54" s="4">
         <v>1</v>
       </c>
       <c r="P54" s="5">
         <v>6</v>
       </c>
-      <c r="Q54" t="s">
-        <v>10</v>
+      <c r="Q54">
+        <v>2</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S54">
+        <f>_xlfn.FLOOR.MATH(F54*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>23</v>
       </c>
@@ -3067,25 +3657,35 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
       <c r="O55" s="4">
         <v>1</v>
       </c>
       <c r="P55" s="5">
         <v>6</v>
       </c>
-      <c r="Q55" t="s">
-        <v>10</v>
+      <c r="Q55">
+        <v>2</v>
       </c>
       <c r="R55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S55">
+        <f>_xlfn.FLOOR.MATH(F55*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>23</v>
       </c>
@@ -3111,25 +3711,35 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0</v>
+      </c>
       <c r="O56" s="4">
         <v>1</v>
       </c>
       <c r="P56" s="5">
         <v>6</v>
       </c>
-      <c r="Q56" t="s">
-        <v>10</v>
+      <c r="Q56">
+        <v>2</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S56">
+        <f>_xlfn.FLOOR.MATH(F56*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>23</v>
       </c>
@@ -3155,7 +3765,9 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
       <c r="N57" s="4">
         <v>1</v>
       </c>
@@ -3165,17 +3777,23 @@
       <c r="P57" s="5">
         <v>6</v>
       </c>
-      <c r="Q57" t="s">
-        <v>10</v>
+      <c r="Q57">
+        <v>2</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S57">
+        <f>_xlfn.FLOOR.MATH(F57*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>23</v>
       </c>
@@ -3207,25 +3825,35 @@
         <v>62</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
       <c r="O58" s="4">
         <v>1</v>
       </c>
       <c r="P58" s="5">
         <v>6</v>
       </c>
-      <c r="Q58" t="s">
-        <v>10</v>
+      <c r="Q58">
+        <v>2</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S58">
+        <f>_xlfn.FLOOR.MATH(F58*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>24</v>
       </c>
@@ -3252,25 +3880,35 @@
       <c r="L59" s="4">
         <v>1</v>
       </c>
-      <c r="M59" s="4"/>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
       <c r="N59" s="4">
         <v>1</v>
       </c>
-      <c r="O59" s="4"/>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
       <c r="P59" s="5">
         <v>6</v>
       </c>
-      <c r="Q59" t="s">
-        <v>10</v>
+      <c r="Q59">
+        <v>2</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S59">
+        <f>_xlfn.FLOOR.MATH(F59*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>24</v>
       </c>
@@ -3296,23 +3934,35 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
       <c r="P60" s="5">
         <v>6</v>
       </c>
-      <c r="Q60" t="s">
-        <v>10</v>
+      <c r="Q60">
+        <v>2</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S60">
+        <f>_xlfn.FLOOR.MATH(F60*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>24</v>
       </c>
@@ -3338,23 +3988,35 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4">
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
       <c r="P61" s="5">
         <v>6</v>
       </c>
-      <c r="Q61" t="s">
-        <v>10</v>
+      <c r="Q61">
+        <v>2</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S61">
+        <f>_xlfn.FLOOR.MATH(F61*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>24</v>
       </c>
@@ -3380,23 +4042,35 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
       <c r="P62" s="5">
         <v>6</v>
       </c>
-      <c r="Q62" t="s">
-        <v>10</v>
+      <c r="Q62">
+        <v>2</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S62">
+        <f>_xlfn.FLOOR.MATH(F62*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>24</v>
       </c>
@@ -3426,23 +4100,35 @@
       <c r="L63" s="4">
         <v>1</v>
       </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
       <c r="P63" s="5">
         <v>6</v>
       </c>
-      <c r="Q63" t="s">
-        <v>10</v>
+      <c r="Q63">
+        <v>2</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S63">
+        <f>_xlfn.FLOOR.MATH(F63*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="0"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>25</v>
       </c>
@@ -3468,23 +4154,35 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
+      <c r="M64" s="4">
+        <v>0</v>
+      </c>
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
       <c r="P64" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q64" t="s">
-        <v>10</v>
+      <c r="Q64">
+        <v>2</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S64">
+        <f>_xlfn.FLOOR.MATH(F64*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>25</v>
       </c>
@@ -3510,25 +4208,35 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
       <c r="N65" s="4">
         <v>1</v>
       </c>
-      <c r="O65" s="4"/>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
       <c r="P65" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q65" t="s">
-        <v>10</v>
+      <c r="Q65">
+        <v>2</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S65">
+        <f>_xlfn.FLOOR.MATH(F65*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="0"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>25</v>
       </c>
@@ -3558,23 +4266,35 @@
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
       <c r="P66" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q66" t="s">
-        <v>10</v>
+      <c r="Q66">
+        <v>2</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S66">
+        <f>_xlfn.FLOOR.MATH(F66*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="0"/>
+        <v>218.72199999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>25</v>
       </c>
@@ -3600,25 +4320,35 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
       <c r="N67" s="4">
         <v>1</v>
       </c>
-      <c r="O67" s="4"/>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
       <c r="P67" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q67" t="s">
-        <v>10</v>
+      <c r="Q67">
+        <v>2</v>
       </c>
       <c r="R67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S67">
+        <f>_xlfn.FLOOR.MATH(F67*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T130" si="1">D67 * 1.09361</f>
+        <v>218.72199999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>25</v>
       </c>
@@ -3644,23 +4374,35 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4">
+        <v>0</v>
+      </c>
+      <c r="O68" s="4">
+        <v>0</v>
+      </c>
       <c r="P68" s="5">
         <v>9</v>
       </c>
-      <c r="Q68" t="s">
-        <v>10</v>
+      <c r="Q68">
+        <v>2</v>
       </c>
       <c r="R68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S68">
+        <f>_xlfn.FLOOR.MATH(F68*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>25</v>
       </c>
@@ -3686,23 +4428,35 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
       <c r="P69" s="5">
         <v>9</v>
       </c>
-      <c r="Q69" t="s">
-        <v>10</v>
+      <c r="Q69">
+        <v>2</v>
       </c>
       <c r="R69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S69">
+        <f>_xlfn.FLOOR.MATH(F69*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>26</v>
       </c>
@@ -3728,23 +4482,35 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
       <c r="P70" s="5">
         <v>9</v>
       </c>
-      <c r="Q70" t="s">
-        <v>11</v>
+      <c r="Q70">
+        <v>3</v>
       </c>
       <c r="R70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S70">
+        <f>_xlfn.FLOOR.MATH(F70*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>26</v>
       </c>
@@ -3770,23 +4536,35 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
       <c r="P71" s="5">
         <v>9</v>
       </c>
-      <c r="Q71" t="s">
-        <v>11</v>
+      <c r="Q71">
+        <v>3</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S71">
+        <f>_xlfn.FLOOR.MATH(F71*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>26</v>
       </c>
@@ -3812,23 +4590,35 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
       <c r="P72" s="5">
         <v>9</v>
       </c>
-      <c r="Q72" t="s">
-        <v>11</v>
+      <c r="Q72">
+        <v>3</v>
       </c>
       <c r="R72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S72">
+        <f>_xlfn.FLOOR.MATH(F72*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>26</v>
       </c>
@@ -3854,25 +4644,35 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
       <c r="N73" s="4">
         <v>1</v>
       </c>
-      <c r="O73" s="4"/>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
       <c r="P73" s="5">
         <v>9</v>
       </c>
-      <c r="Q73" t="s">
-        <v>11</v>
+      <c r="Q73">
+        <v>3</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S73">
+        <f>_xlfn.FLOOR.MATH(F73*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>26</v>
       </c>
@@ -3902,23 +4702,35 @@
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
       <c r="P74" s="5">
         <v>9</v>
       </c>
-      <c r="Q74" t="s">
-        <v>11</v>
+      <c r="Q74">
+        <v>3</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S74">
+        <f>_xlfn.FLOOR.MATH(F74*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>27</v>
       </c>
@@ -3944,25 +4756,35 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
       <c r="N75" s="4">
         <v>1</v>
       </c>
-      <c r="O75" s="4"/>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
       <c r="P75" s="5">
         <v>9</v>
       </c>
-      <c r="Q75" t="s">
-        <v>11</v>
+      <c r="Q75">
+        <v>3</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S75">
+        <f>_xlfn.FLOOR.MATH(F75*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>27</v>
       </c>
@@ -3988,23 +4810,35 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
       <c r="P76" s="5">
         <v>9</v>
       </c>
-      <c r="Q76" t="s">
-        <v>11</v>
+      <c r="Q76">
+        <v>3</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S76">
+        <f>_xlfn.FLOOR.MATH(F76*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>27</v>
       </c>
@@ -4032,25 +4866,35 @@
         <v>58</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
       <c r="N77" s="4">
         <v>1</v>
       </c>
-      <c r="O77" s="4"/>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
       <c r="P77" s="5">
         <v>9</v>
       </c>
-      <c r="Q77" t="s">
-        <v>11</v>
+      <c r="Q77">
+        <v>3</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S77">
+        <f>_xlfn.FLOOR.MATH(F77*0.621371)</f>
+        <v>24</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>28</v>
       </c>
@@ -4080,23 +4924,35 @@
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
       <c r="P78" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q78" t="s">
-        <v>11</v>
+      <c r="Q78">
+        <v>3</v>
       </c>
       <c r="R78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S78">
+        <f>_xlfn.FLOOR.MATH(F78*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>28</v>
       </c>
@@ -4122,25 +4978,35 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
       <c r="N79" s="4">
         <v>1</v>
       </c>
-      <c r="O79" s="4"/>
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
       <c r="P79" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q79" t="s">
-        <v>11</v>
+      <c r="Q79">
+        <v>3</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S79">
+        <f>_xlfn.FLOOR.MATH(F79*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>28</v>
       </c>
@@ -4166,23 +5032,35 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="N80" s="4">
+        <v>0</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
       <c r="P80" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q80" t="s">
-        <v>11</v>
+      <c r="Q80">
+        <v>3</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S80">
+        <f>_xlfn.FLOOR.MATH(F80*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>28</v>
       </c>
@@ -4208,23 +5086,35 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
       <c r="P81" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q81" t="s">
-        <v>11</v>
+      <c r="Q81">
+        <v>3</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S81">
+        <f>_xlfn.FLOOR.MATH(F81*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>28</v>
       </c>
@@ -4250,23 +5140,35 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
       <c r="P82" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q82" t="s">
-        <v>11</v>
+      <c r="Q82">
+        <v>3</v>
       </c>
       <c r="R82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S82">
+        <f>_xlfn.FLOOR.MATH(F82*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>28</v>
       </c>
@@ -4292,23 +5194,35 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
       <c r="P83" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q83" t="s">
-        <v>11</v>
+      <c r="Q83">
+        <v>3</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S83">
+        <f>_xlfn.FLOOR.MATH(F83*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>28</v>
       </c>
@@ -4334,23 +5248,35 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
       <c r="P84" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q84" t="s">
-        <v>11</v>
+      <c r="Q84">
+        <v>3</v>
       </c>
       <c r="R84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S84">
+        <f>_xlfn.FLOOR.MATH(F84*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>28</v>
       </c>
@@ -4376,23 +5302,35 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
       <c r="P85" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q85" t="s">
-        <v>11</v>
+      <c r="Q85">
+        <v>3</v>
       </c>
       <c r="R85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S85">
+        <f>_xlfn.FLOOR.MATH(F85*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>28</v>
       </c>
@@ -4420,23 +5358,35 @@
         <v>59</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
       <c r="P86" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q86" t="s">
-        <v>11</v>
+      <c r="Q86">
+        <v>3</v>
       </c>
       <c r="R86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S86">
+        <f>_xlfn.FLOOR.MATH(F86*0.621371)</f>
+        <v>43</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="1"/>
+        <v>328.08299999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>29</v>
       </c>
@@ -4462,23 +5412,35 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
       <c r="P87" s="5">
         <v>14.399999999999999</v>
       </c>
-      <c r="Q87" t="s">
-        <v>11</v>
+      <c r="Q87">
+        <v>3</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S87">
+        <f>_xlfn.FLOOR.MATH(F87*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>29</v>
       </c>
@@ -4504,25 +5466,35 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
       <c r="N88" s="4">
         <v>1</v>
       </c>
-      <c r="O88" s="4"/>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
       <c r="P88" s="5">
         <v>12.470399999999998</v>
       </c>
-      <c r="Q88" t="s">
-        <v>11</v>
+      <c r="Q88">
+        <v>3</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S88">
+        <f>_xlfn.FLOOR.MATH(F88*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="1"/>
+        <v>94.706625999999986</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>29</v>
       </c>
@@ -4552,23 +5524,35 @@
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
       <c r="P89" s="5">
         <v>14.399999999999999</v>
       </c>
-      <c r="Q89" t="s">
-        <v>11</v>
+      <c r="Q89">
+        <v>3</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S89">
+        <f>_xlfn.FLOOR.MATH(F89*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>30</v>
       </c>
@@ -4594,25 +5578,35 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
+      <c r="M90" s="4">
+        <v>0</v>
+      </c>
       <c r="N90" s="4">
         <v>1</v>
       </c>
-      <c r="O90" s="4"/>
+      <c r="O90" s="4">
+        <v>0</v>
+      </c>
       <c r="P90" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q90" t="s">
-        <v>11</v>
+      <c r="Q90">
+        <v>3</v>
       </c>
       <c r="R90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S90">
+        <f>_xlfn.FLOOR.MATH(F90*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>30</v>
       </c>
@@ -4638,23 +5632,35 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
       <c r="P91" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q91" t="s">
-        <v>11</v>
+      <c r="Q91">
+        <v>3</v>
       </c>
       <c r="R91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S91">
+        <f>_xlfn.FLOOR.MATH(F91*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>30</v>
       </c>
@@ -4680,23 +5686,35 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
+      <c r="M92" s="4">
+        <v>0</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0</v>
+      </c>
       <c r="P92" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q92" t="s">
-        <v>11</v>
+      <c r="Q92">
+        <v>3</v>
       </c>
       <c r="R92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S92">
+        <f>_xlfn.FLOOR.MATH(F92*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>30</v>
       </c>
@@ -4722,23 +5740,35 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
       <c r="P93" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q93" t="s">
-        <v>11</v>
+      <c r="Q93">
+        <v>3</v>
       </c>
       <c r="R93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S93">
+        <f>_xlfn.FLOOR.MATH(F93*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>30</v>
       </c>
@@ -4764,23 +5794,35 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
+      <c r="M94" s="4">
+        <v>0</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
       <c r="P94" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q94" t="s">
-        <v>11</v>
+      <c r="Q94">
+        <v>3</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S94">
+        <f>_xlfn.FLOOR.MATH(F94*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
         <v>30</v>
       </c>
@@ -4806,23 +5848,35 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
       <c r="P95" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q95" t="s">
-        <v>11</v>
+      <c r="Q95">
+        <v>3</v>
       </c>
       <c r="R95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S95">
+        <f>_xlfn.FLOOR.MATH(F95*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>30</v>
       </c>
@@ -4848,25 +5902,35 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="M96" s="4">
+        <v>0</v>
+      </c>
       <c r="N96" s="4">
         <v>1</v>
       </c>
-      <c r="O96" s="4"/>
+      <c r="O96" s="4">
+        <v>0</v>
+      </c>
       <c r="P96" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q96" t="s">
-        <v>11</v>
+      <c r="Q96">
+        <v>3</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S96">
+        <f>_xlfn.FLOOR.MATH(F96*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>30</v>
       </c>
@@ -4896,23 +5960,35 @@
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
+      <c r="M97" s="4">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0</v>
+      </c>
+      <c r="O97" s="4">
+        <v>0</v>
+      </c>
       <c r="P97" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q97" t="s">
-        <v>11</v>
+      <c r="Q97">
+        <v>3</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S97">
+        <f>_xlfn.FLOOR.MATH(F97*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>30</v>
       </c>
@@ -4938,25 +6014,35 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
+      <c r="M98" s="4">
+        <v>0</v>
+      </c>
       <c r="N98" s="4">
         <v>1</v>
       </c>
-      <c r="O98" s="4"/>
+      <c r="O98" s="4">
+        <v>0</v>
+      </c>
       <c r="P98" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q98" t="s">
-        <v>11</v>
+      <c r="Q98">
+        <v>3</v>
       </c>
       <c r="R98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S98">
+        <f>_xlfn.FLOOR.MATH(F98*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>31</v>
       </c>
@@ -4982,23 +6068,35 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
+      <c r="M99" s="4">
+        <v>0</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0</v>
+      </c>
+      <c r="O99" s="4">
+        <v>0</v>
+      </c>
       <c r="P99" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q99" t="s">
-        <v>11</v>
+      <c r="Q99">
+        <v>3</v>
       </c>
       <c r="R99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S99">
+        <f>_xlfn.FLOOR.MATH(F99*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>31</v>
       </c>
@@ -5024,23 +6122,35 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4">
+        <v>0</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0</v>
+      </c>
       <c r="P100" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q100" t="s">
-        <v>11</v>
+      <c r="Q100">
+        <v>3</v>
       </c>
       <c r="R100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S100">
+        <f>_xlfn.FLOOR.MATH(F100*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>31</v>
       </c>
@@ -5066,23 +6176,35 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4">
+        <v>0</v>
+      </c>
+      <c r="O101" s="4">
+        <v>0</v>
+      </c>
       <c r="P101" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q101" t="s">
-        <v>11</v>
+      <c r="Q101">
+        <v>3</v>
       </c>
       <c r="R101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S101">
+        <f>_xlfn.FLOOR.MATH(F101*0.621371)</f>
+        <v>15</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="1"/>
+        <v>82.020749999999992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>32</v>
       </c>
@@ -5108,23 +6230,35 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
       <c r="P102" s="5">
         <v>4.8461538461538467</v>
       </c>
-      <c r="Q102" t="s">
-        <v>11</v>
+      <c r="Q102">
+        <v>3</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S102">
+        <f>_xlfn.FLOOR.MATH(F102*0.621371)</f>
+        <v>16</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="1"/>
+        <v>38.276350000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
         <v>33</v>
       </c>
@@ -5150,23 +6284,35 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
+      <c r="M103" s="4">
+        <v>0</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0</v>
+      </c>
       <c r="P103" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q103" t="s">
-        <v>11</v>
+      <c r="Q103">
+        <v>3</v>
       </c>
       <c r="R103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="S103">
+        <f>_xlfn.FLOOR.MATH(F103*0.621371)</f>
         <v>17</v>
       </c>
+      <c r="T103">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
       </c>
@@ -5192,23 +6338,35 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
       <c r="P104" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q104" t="s">
-        <v>11</v>
+      <c r="Q104">
+        <v>3</v>
       </c>
       <c r="R104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="S104">
+        <f>_xlfn.FLOOR.MATH(F104*0.621371)</f>
         <v>17</v>
       </c>
+      <c r="T104">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>33</v>
       </c>
@@ -5234,25 +6392,35 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
+      <c r="M105" s="4">
+        <v>0</v>
+      </c>
       <c r="N105" s="4">
         <v>1</v>
       </c>
-      <c r="O105" s="4"/>
+      <c r="O105" s="4">
+        <v>0</v>
+      </c>
       <c r="P105" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q105" t="s">
-        <v>11</v>
+      <c r="Q105">
+        <v>3</v>
       </c>
       <c r="R105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="S105">
+        <f>_xlfn.FLOOR.MATH(F105*0.621371)</f>
         <v>17</v>
       </c>
+      <c r="T105">
+        <f t="shared" si="1"/>
+        <v>87.488799999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>34</v>
       </c>
@@ -5282,23 +6450,35 @@
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
+      <c r="M106" s="4">
+        <v>0</v>
+      </c>
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
       <c r="P106" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q106" t="s">
-        <v>11</v>
+      <c r="Q106">
+        <v>3</v>
       </c>
       <c r="R106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="S106">
+        <f>_xlfn.FLOOR.MATH(F106*0.621371)</f>
         <v>17</v>
       </c>
+      <c r="T106">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>34</v>
       </c>
@@ -5324,25 +6504,35 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
       <c r="N107" s="4">
         <v>1</v>
       </c>
-      <c r="O107" s="4"/>
+      <c r="O107" s="4">
+        <v>0</v>
+      </c>
       <c r="P107" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q107" t="s">
-        <v>11</v>
+      <c r="Q107">
+        <v>3</v>
       </c>
       <c r="R107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+      <c r="S107">
+        <f>_xlfn.FLOOR.MATH(F107*0.621371)</f>
         <v>17</v>
       </c>
+      <c r="T107">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>34</v>
       </c>
@@ -5368,23 +6558,35 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0</v>
+      </c>
       <c r="P108" s="5">
         <v>11.571428571428573</v>
       </c>
-      <c r="Q108" t="s">
-        <v>11</v>
+      <c r="Q108">
+        <v>3</v>
       </c>
       <c r="R108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="S108">
+        <f>_xlfn.FLOOR.MATH(F108*0.621371)</f>
         <v>17</v>
       </c>
+      <c r="T108">
+        <f t="shared" si="1"/>
+        <v>98.424899999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
         <v>34</v>
       </c>
@@ -5413,22 +6615,32 @@
       <c r="M109" s="4">
         <v>1</v>
       </c>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
+      <c r="N109" s="4">
+        <v>0</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0</v>
+      </c>
       <c r="P109" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q109" t="s">
-        <v>11</v>
+      <c r="Q109">
+        <v>3</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="S109">
+        <f>_xlfn.FLOOR.MATH(F109*0.621371)</f>
         <v>17</v>
       </c>
+      <c r="T109">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
         <v>34</v>
       </c>
@@ -5454,23 +6666,35 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
       <c r="P110" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q110" t="s">
-        <v>11</v>
+      <c r="Q110">
+        <v>3</v>
       </c>
       <c r="R110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="S110">
+        <f>_xlfn.FLOOR.MATH(F110*0.621371)</f>
         <v>17</v>
       </c>
+      <c r="T110">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
         <v>35</v>
       </c>
@@ -5496,23 +6720,35 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
+      <c r="M111" s="4">
+        <v>0</v>
+      </c>
+      <c r="N111" s="4">
+        <v>0</v>
+      </c>
+      <c r="O111" s="4">
+        <v>0</v>
+      </c>
       <c r="P111" s="5">
         <v>12</v>
       </c>
-      <c r="Q111" t="s">
-        <v>10</v>
+      <c r="Q111">
+        <v>2</v>
       </c>
       <c r="R111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S111">
+        <f>_xlfn.FLOOR.MATH(F111*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>35</v>
       </c>
@@ -5538,23 +6774,35 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0</v>
+      </c>
       <c r="P112" s="5">
         <v>12</v>
       </c>
-      <c r="Q112" t="s">
-        <v>10</v>
+      <c r="Q112">
+        <v>2</v>
       </c>
       <c r="R112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S112">
+        <f>_xlfn.FLOOR.MATH(F112*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>35</v>
       </c>
@@ -5580,23 +6828,35 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
+      <c r="N113" s="4">
+        <v>0</v>
+      </c>
+      <c r="O113" s="4">
+        <v>0</v>
+      </c>
       <c r="P113" s="5">
         <v>12</v>
       </c>
-      <c r="Q113" t="s">
-        <v>10</v>
+      <c r="Q113">
+        <v>2</v>
       </c>
       <c r="R113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S113">
+        <f>_xlfn.FLOOR.MATH(F113*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
         <v>35</v>
       </c>
@@ -5622,25 +6882,35 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
+      <c r="M114" s="4">
+        <v>0</v>
+      </c>
       <c r="N114" s="4">
         <v>1</v>
       </c>
-      <c r="O114" s="4"/>
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
       <c r="P114" s="5">
         <v>12</v>
       </c>
-      <c r="Q114" t="s">
-        <v>10</v>
+      <c r="Q114">
+        <v>2</v>
       </c>
       <c r="R114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S114">
+        <f>_xlfn.FLOOR.MATH(F114*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
         <v>35</v>
       </c>
@@ -5670,23 +6940,35 @@
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
+      <c r="M115" s="4">
+        <v>0</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0</v>
+      </c>
       <c r="P115" s="5">
         <v>19.439999999999998</v>
       </c>
-      <c r="Q115" t="s">
-        <v>10</v>
+      <c r="Q115">
+        <v>2</v>
       </c>
       <c r="R115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S115">
+        <f>_xlfn.FLOOR.MATH(F115*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="1"/>
+        <v>177.16481999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>35</v>
       </c>
@@ -5712,25 +6994,35 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
+      <c r="M116" s="4">
+        <v>0</v>
+      </c>
       <c r="N116" s="4">
         <v>1</v>
       </c>
-      <c r="O116" s="4"/>
+      <c r="O116" s="4">
+        <v>0</v>
+      </c>
       <c r="P116" s="5">
         <v>12</v>
       </c>
-      <c r="Q116" t="s">
-        <v>10</v>
+      <c r="Q116">
+        <v>2</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S116">
+        <f>_xlfn.FLOOR.MATH(F116*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>35</v>
       </c>
@@ -5756,23 +7048,35 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
+      <c r="M117" s="4">
+        <v>0</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0</v>
+      </c>
       <c r="P117" s="5">
         <v>12</v>
       </c>
-      <c r="Q117" t="s">
-        <v>10</v>
+      <c r="Q117">
+        <v>2</v>
       </c>
       <c r="R117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S117">
+        <f>_xlfn.FLOOR.MATH(F117*0.621371)</f>
+        <v>18</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="1"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>36</v>
       </c>
@@ -5798,23 +7102,35 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
+      <c r="M118" s="4">
+        <v>0</v>
+      </c>
+      <c r="N118" s="4">
+        <v>0</v>
+      </c>
+      <c r="O118" s="4">
+        <v>0</v>
+      </c>
       <c r="P118" s="5">
         <v>12</v>
       </c>
-      <c r="Q118" t="s">
-        <v>10</v>
+      <c r="Q118">
+        <v>2</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S118">
+        <f>_xlfn.FLOOR.MATH(F118*0.621371)</f>
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>36</v>
       </c>
@@ -5840,23 +7156,35 @@
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
+      <c r="M119" s="4">
+        <v>0</v>
+      </c>
+      <c r="N119" s="4">
+        <v>0</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0</v>
+      </c>
       <c r="P119" s="5">
         <v>12</v>
       </c>
-      <c r="Q119" t="s">
-        <v>10</v>
+      <c r="Q119">
+        <v>2</v>
       </c>
       <c r="R119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S119">
+        <f>_xlfn.FLOOR.MATH(F119*0.621371)</f>
+        <v>9</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>36</v>
       </c>
@@ -5882,23 +7210,35 @@
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
+      <c r="M120" s="4">
+        <v>0</v>
+      </c>
+      <c r="N120" s="4">
+        <v>0</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0</v>
+      </c>
       <c r="P120" s="5">
         <v>9.6</v>
       </c>
-      <c r="Q120" t="s">
-        <v>10</v>
+      <c r="Q120">
+        <v>2</v>
       </c>
       <c r="R120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S120">
+        <f>_xlfn.FLOOR.MATH(F120*0.621371)</f>
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="1"/>
+        <v>43.744399999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
         <v>36</v>
       </c>
@@ -5924,23 +7264,35 @@
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
+      <c r="M121" s="4">
+        <v>0</v>
+      </c>
+      <c r="N121" s="4">
+        <v>0</v>
+      </c>
+      <c r="O121" s="4">
+        <v>0</v>
+      </c>
       <c r="P121" s="5">
         <v>12</v>
       </c>
-      <c r="Q121" t="s">
-        <v>10</v>
+      <c r="Q121">
+        <v>2</v>
       </c>
       <c r="R121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S121">
+        <f>_xlfn.FLOOR.MATH(F121*0.621371)</f>
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>36</v>
       </c>
@@ -5966,23 +7318,35 @@
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
+      <c r="M122" s="4">
+        <v>0</v>
+      </c>
+      <c r="N122" s="4">
+        <v>0</v>
+      </c>
+      <c r="O122" s="4">
+        <v>0</v>
+      </c>
       <c r="P122" s="5">
         <v>12</v>
       </c>
-      <c r="Q122" t="s">
-        <v>10</v>
+      <c r="Q122">
+        <v>2</v>
       </c>
       <c r="R122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S122">
+        <f>_xlfn.FLOOR.MATH(F122*0.621371)</f>
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>37</v>
       </c>
@@ -6008,7 +7372,9 @@
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
       <c r="N123" s="4">
         <v>1</v>
       </c>
@@ -6018,17 +7384,23 @@
       <c r="P123" s="5">
         <v>9</v>
       </c>
-      <c r="Q123" t="s">
-        <v>10</v>
+      <c r="Q123">
+        <v>2</v>
       </c>
       <c r="R123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S123">
+        <f>_xlfn.FLOOR.MATH(F123*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>37</v>
       </c>
@@ -6058,25 +7430,35 @@
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
+      <c r="N124" s="4">
+        <v>0</v>
+      </c>
       <c r="O124" s="4">
         <v>1</v>
       </c>
       <c r="P124" s="5">
         <v>9</v>
       </c>
-      <c r="Q124" t="s">
-        <v>10</v>
+      <c r="Q124">
+        <v>2</v>
       </c>
       <c r="R124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S124">
+        <f>_xlfn.FLOOR.MATH(F124*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>37</v>
       </c>
@@ -6102,7 +7484,9 @@
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
+      <c r="M125" s="4">
+        <v>0</v>
+      </c>
       <c r="N125" s="4">
         <v>1</v>
       </c>
@@ -6112,17 +7496,23 @@
       <c r="P125" s="5">
         <v>9</v>
       </c>
-      <c r="Q125" t="s">
-        <v>10</v>
+      <c r="Q125">
+        <v>2</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S125">
+        <f>_xlfn.FLOOR.MATH(F125*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>37</v>
       </c>
@@ -6148,25 +7538,35 @@
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
+      <c r="M126" s="4">
+        <v>0</v>
+      </c>
+      <c r="N126" s="4">
+        <v>0</v>
+      </c>
       <c r="O126" s="4">
         <v>1</v>
       </c>
       <c r="P126" s="5">
         <v>9</v>
       </c>
-      <c r="Q126" t="s">
-        <v>10</v>
+      <c r="Q126">
+        <v>2</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S126">
+        <f>_xlfn.FLOOR.MATH(F126*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>37</v>
       </c>
@@ -6192,25 +7592,35 @@
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
+      <c r="N127" s="4">
+        <v>0</v>
+      </c>
       <c r="O127" s="4">
         <v>1</v>
       </c>
       <c r="P127" s="5">
         <v>9</v>
       </c>
-      <c r="Q127" t="s">
-        <v>10</v>
+      <c r="Q127">
+        <v>2</v>
       </c>
       <c r="R127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S127">
+        <f>_xlfn.FLOOR.MATH(F127*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>37</v>
       </c>
@@ -6236,25 +7646,35 @@
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
+      <c r="M128" s="4">
+        <v>0</v>
+      </c>
+      <c r="N128" s="4">
+        <v>0</v>
+      </c>
       <c r="O128" s="4">
         <v>1</v>
       </c>
       <c r="P128" s="5">
         <v>9</v>
       </c>
-      <c r="Q128" t="s">
-        <v>10</v>
+      <c r="Q128">
+        <v>2</v>
       </c>
       <c r="R128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S128">
+        <f>_xlfn.FLOOR.MATH(F128*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>37</v>
       </c>
@@ -6280,25 +7700,35 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
+      <c r="M129" s="4">
+        <v>0</v>
+      </c>
+      <c r="N129" s="4">
+        <v>0</v>
+      </c>
       <c r="O129" s="4">
         <v>1</v>
       </c>
       <c r="P129" s="5">
         <v>9</v>
       </c>
-      <c r="Q129" t="s">
-        <v>10</v>
+      <c r="Q129">
+        <v>2</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S129">
+        <f>_xlfn.FLOOR.MATH(F129*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>37</v>
       </c>
@@ -6324,25 +7754,35 @@
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
+      <c r="M130" s="4">
+        <v>0</v>
+      </c>
+      <c r="N130" s="4">
+        <v>0</v>
+      </c>
       <c r="O130" s="4">
         <v>1</v>
       </c>
       <c r="P130" s="5">
         <v>9</v>
       </c>
-      <c r="Q130" t="s">
-        <v>10</v>
+      <c r="Q130">
+        <v>2</v>
       </c>
       <c r="R130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S130">
+        <f>_xlfn.FLOOR.MATH(F130*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="1"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>37</v>
       </c>
@@ -6368,25 +7808,35 @@
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
+      <c r="M131" s="4">
+        <v>0</v>
+      </c>
+      <c r="N131" s="4">
+        <v>0</v>
+      </c>
       <c r="O131" s="4">
         <v>1</v>
       </c>
       <c r="P131" s="5">
         <v>9</v>
       </c>
-      <c r="Q131" t="s">
-        <v>10</v>
+      <c r="Q131">
+        <v>2</v>
       </c>
       <c r="R131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S131">
+        <f>_xlfn.FLOOR.MATH(F131*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T131">
+        <f t="shared" ref="T131:T151" si="2">D131 * 1.09361</f>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>37</v>
       </c>
@@ -6412,7 +7862,9 @@
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
+      <c r="M132" s="4">
+        <v>0</v>
+      </c>
       <c r="N132" s="4">
         <v>1</v>
       </c>
@@ -6422,17 +7874,23 @@
       <c r="P132" s="5">
         <v>9</v>
       </c>
-      <c r="Q132" t="s">
-        <v>10</v>
+      <c r="Q132">
+        <v>2</v>
       </c>
       <c r="R132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S132">
+        <f>_xlfn.FLOOR.MATH(F132*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>37</v>
       </c>
@@ -6462,25 +7920,35 @@
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
+      <c r="M133" s="4">
+        <v>0</v>
+      </c>
+      <c r="N133" s="4">
+        <v>0</v>
+      </c>
       <c r="O133" s="4">
         <v>1</v>
       </c>
       <c r="P133" s="5">
         <v>9</v>
       </c>
-      <c r="Q133" t="s">
-        <v>10</v>
+      <c r="Q133">
+        <v>2</v>
       </c>
       <c r="R133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S133">
+        <f>_xlfn.FLOOR.MATH(F133*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>37</v>
       </c>
@@ -6506,7 +7974,9 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
+      <c r="M134" s="4">
+        <v>0</v>
+      </c>
       <c r="N134" s="4">
         <v>1</v>
       </c>
@@ -6516,17 +7986,23 @@
       <c r="P134" s="5">
         <v>9</v>
       </c>
-      <c r="Q134" t="s">
-        <v>10</v>
+      <c r="Q134">
+        <v>2</v>
       </c>
       <c r="R134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S134">
+        <f>_xlfn.FLOOR.MATH(F134*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>37</v>
       </c>
@@ -6552,25 +8028,35 @@
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="4">
+        <v>0</v>
+      </c>
       <c r="O135" s="4">
         <v>1</v>
       </c>
       <c r="P135" s="5">
         <v>9</v>
       </c>
-      <c r="Q135" t="s">
-        <v>10</v>
+      <c r="Q135">
+        <v>2</v>
       </c>
       <c r="R135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S135">
+        <f>_xlfn.FLOOR.MATH(F135*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>37</v>
       </c>
@@ -6596,25 +8082,35 @@
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
+      <c r="M136" s="4">
+        <v>0</v>
+      </c>
+      <c r="N136" s="4">
+        <v>0</v>
+      </c>
       <c r="O136" s="4">
         <v>1</v>
       </c>
       <c r="P136" s="5">
         <v>9</v>
       </c>
-      <c r="Q136" t="s">
-        <v>4</v>
+      <c r="Q136">
+        <v>1</v>
       </c>
       <c r="R136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S136">
+        <f>_xlfn.FLOOR.MATH(F136*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>37</v>
       </c>
@@ -6640,25 +8136,35 @@
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
+      <c r="M137" s="4">
+        <v>0</v>
+      </c>
+      <c r="N137" s="4">
+        <v>0</v>
+      </c>
       <c r="O137" s="4">
         <v>1</v>
       </c>
       <c r="P137" s="5">
         <v>9</v>
       </c>
-      <c r="Q137" t="s">
-        <v>4</v>
+      <c r="Q137">
+        <v>1</v>
       </c>
       <c r="R137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S137">
+        <f>_xlfn.FLOOR.MATH(F137*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>37</v>
       </c>
@@ -6684,25 +8190,35 @@
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
+      <c r="M138" s="4">
+        <v>0</v>
+      </c>
+      <c r="N138" s="4">
+        <v>0</v>
+      </c>
       <c r="O138" s="4">
         <v>1</v>
       </c>
       <c r="P138" s="5">
         <v>9</v>
       </c>
-      <c r="Q138" t="s">
-        <v>4</v>
+      <c r="Q138">
+        <v>1</v>
       </c>
       <c r="R138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S138">
+        <f>_xlfn.FLOOR.MATH(F138*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>37</v>
       </c>
@@ -6728,25 +8244,35 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
+      <c r="M139" s="4">
+        <v>0</v>
+      </c>
+      <c r="N139" s="4">
+        <v>0</v>
+      </c>
       <c r="O139" s="4">
         <v>1</v>
       </c>
       <c r="P139" s="5">
         <v>9</v>
       </c>
-      <c r="Q139" t="s">
-        <v>4</v>
+      <c r="Q139">
+        <v>1</v>
       </c>
       <c r="R139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S139">
+        <f>_xlfn.FLOOR.MATH(F139*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>37</v>
       </c>
@@ -6772,25 +8298,35 @@
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
+      <c r="M140" s="4">
+        <v>0</v>
+      </c>
+      <c r="N140" s="4">
+        <v>0</v>
+      </c>
       <c r="O140" s="4">
         <v>1</v>
       </c>
       <c r="P140" s="5">
         <v>9</v>
       </c>
-      <c r="Q140" t="s">
-        <v>4</v>
+      <c r="Q140">
+        <v>1</v>
       </c>
       <c r="R140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S140">
+        <f>_xlfn.FLOOR.MATH(F140*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>37</v>
       </c>
@@ -6816,7 +8352,9 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
+      <c r="M141" s="4">
+        <v>0</v>
+      </c>
       <c r="N141" s="4">
         <v>1</v>
       </c>
@@ -6826,17 +8364,23 @@
       <c r="P141" s="5">
         <v>9</v>
       </c>
-      <c r="Q141" t="s">
-        <v>4</v>
+      <c r="Q141">
+        <v>1</v>
       </c>
       <c r="R141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S141">
+        <f>_xlfn.FLOOR.MATH(F141*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>37</v>
       </c>
@@ -6866,25 +8410,35 @@
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
+      <c r="M142" s="4">
+        <v>0</v>
+      </c>
+      <c r="N142" s="4">
+        <v>0</v>
+      </c>
       <c r="O142" s="4">
         <v>1</v>
       </c>
       <c r="P142" s="5">
         <v>9</v>
       </c>
-      <c r="Q142" t="s">
-        <v>4</v>
+      <c r="Q142">
+        <v>1</v>
       </c>
       <c r="R142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S142">
+        <f>_xlfn.FLOOR.MATH(F142*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>37</v>
       </c>
@@ -6910,7 +8464,9 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
+      <c r="M143" s="4">
+        <v>0</v>
+      </c>
       <c r="N143" s="4">
         <v>1</v>
       </c>
@@ -6920,17 +8476,23 @@
       <c r="P143" s="5">
         <v>9</v>
       </c>
-      <c r="Q143" t="s">
-        <v>4</v>
+      <c r="Q143">
+        <v>1</v>
       </c>
       <c r="R143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S143">
+        <f>_xlfn.FLOOR.MATH(F143*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>37</v>
       </c>
@@ -6956,25 +8518,35 @@
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
+      <c r="M144" s="4">
+        <v>0</v>
+      </c>
+      <c r="N144" s="4">
+        <v>0</v>
+      </c>
       <c r="O144" s="4">
         <v>1</v>
       </c>
       <c r="P144" s="5">
         <v>9</v>
       </c>
-      <c r="Q144" t="s">
-        <v>4</v>
+      <c r="Q144">
+        <v>1</v>
       </c>
       <c r="R144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S144">
+        <f>_xlfn.FLOOR.MATH(F144*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
         <v>38</v>
       </c>
@@ -7000,23 +8572,35 @@
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
+      <c r="M145" s="4">
+        <v>0</v>
+      </c>
+      <c r="N145" s="4">
+        <v>0</v>
+      </c>
+      <c r="O145" s="4">
+        <v>0</v>
+      </c>
       <c r="P145" s="5">
         <v>9</v>
       </c>
-      <c r="Q145" t="s">
-        <v>4</v>
+      <c r="Q145">
+        <v>1</v>
       </c>
       <c r="R145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S145">
+        <f>_xlfn.FLOOR.MATH(F145*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>38</v>
       </c>
@@ -7042,23 +8626,35 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
+      <c r="M146" s="4">
+        <v>0</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0</v>
+      </c>
+      <c r="O146" s="4">
+        <v>0</v>
+      </c>
       <c r="P146" s="5">
         <v>9</v>
       </c>
-      <c r="Q146" t="s">
-        <v>4</v>
+      <c r="Q146">
+        <v>1</v>
       </c>
       <c r="R146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S146">
+        <f>_xlfn.FLOOR.MATH(F146*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>38</v>
       </c>
@@ -7084,23 +8680,35 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
+      <c r="M147" s="4">
+        <v>0</v>
+      </c>
+      <c r="N147" s="4">
+        <v>0</v>
+      </c>
+      <c r="O147" s="4">
+        <v>0</v>
+      </c>
       <c r="P147" s="5">
         <v>9</v>
       </c>
-      <c r="Q147" t="s">
-        <v>4</v>
+      <c r="Q147">
+        <v>1</v>
       </c>
       <c r="R147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S147">
+        <f>_xlfn.FLOOR.MATH(F147*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>39</v>
       </c>
@@ -7126,23 +8734,35 @@
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
+      <c r="M148" s="4">
+        <v>0</v>
+      </c>
+      <c r="N148" s="4">
+        <v>0</v>
+      </c>
+      <c r="O148" s="4">
+        <v>0</v>
+      </c>
       <c r="P148" s="5">
         <v>9</v>
       </c>
-      <c r="Q148" t="s">
-        <v>4</v>
+      <c r="Q148">
+        <v>1</v>
       </c>
       <c r="R148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S148">
+        <f>_xlfn.FLOOR.MATH(F148*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="2"/>
+        <v>54.680499999999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
         <v>39</v>
       </c>
@@ -7168,23 +8788,35 @@
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
+      <c r="M149" s="4">
+        <v>0</v>
+      </c>
+      <c r="N149" s="4">
+        <v>0</v>
+      </c>
+      <c r="O149" s="4">
+        <v>0</v>
+      </c>
       <c r="P149" s="5">
         <v>33.119999999999997</v>
       </c>
-      <c r="Q149" t="s">
-        <v>4</v>
+      <c r="Q149">
+        <v>1</v>
       </c>
       <c r="R149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S149">
+        <f>_xlfn.FLOOR.MATH(F149*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="2"/>
+        <v>201.22424000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
         <v>39</v>
       </c>
@@ -7210,23 +8842,35 @@
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
+      <c r="M150" s="4">
+        <v>0</v>
+      </c>
+      <c r="N150" s="4">
+        <v>0</v>
+      </c>
+      <c r="O150" s="4">
+        <v>0</v>
+      </c>
       <c r="P150" s="5">
         <v>7.1999999999999993</v>
       </c>
-      <c r="Q150" t="s">
-        <v>4</v>
+      <c r="Q150">
+        <v>1</v>
       </c>
       <c r="R150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S150">
+        <f>_xlfn.FLOOR.MATH(F150*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="2"/>
+        <v>43.744399999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
         <v>40</v>
       </c>
@@ -7251,18 +8895,34 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
+      <c r="L151" s="4">
+        <v>1</v>
+      </c>
+      <c r="M151" s="4">
+        <v>0</v>
+      </c>
+      <c r="N151" s="4">
+        <v>0</v>
+      </c>
+      <c r="O151" s="4">
+        <v>0</v>
+      </c>
       <c r="P151" s="5">
         <v>6.3</v>
       </c>
-      <c r="Q151" t="s">
-        <v>4</v>
+      <c r="Q151">
+        <v>1</v>
       </c>
       <c r="R151">
         <v>0</v>
+      </c>
+      <c r="S151">
+        <f>_xlfn.FLOOR.MATH(F151*0.621371)</f>
+        <v>12</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="2"/>
+        <v>38.276350000000001</v>
       </c>
     </row>
   </sheetData>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cjame\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D00A9D0-B9E0-418B-BA75-2DC154E7E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70F400-791D-4721-AFC1-AF13C9A34895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2700" windowWidth="29040" windowHeight="15840" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="74" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <f>_xlfn.FLOOR.MATH(F2*0.621371)</f>
+        <f t="shared" ref="S2:S33" si="0">_xlfn.FLOOR.MATH(F2*0.621371)</f>
         <v>27</v>
       </c>
       <c r="T2">
@@ -836,11 +836,11 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f>_xlfn.FLOOR.MATH(F3*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="0">D3 * 1.09361</f>
+        <f t="shared" ref="T3:T66" si="1">D3 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -890,11 +890,11 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <f>_xlfn.FLOOR.MATH(F4*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -944,11 +944,11 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <f>_xlfn.FLOOR.MATH(F5*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -998,11 +998,11 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <f>_xlfn.FLOOR.MATH(F6*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <f>_xlfn.FLOOR.MATH(F7*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -1106,11 +1106,11 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <f>_xlfn.FLOOR.MATH(F8*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -1160,11 +1160,11 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <f>_xlfn.FLOOR.MATH(F9*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -1218,11 +1218,11 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <f>_xlfn.FLOOR.MATH(F10*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -1272,11 +1272,11 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <f>_xlfn.FLOOR.MATH(F11*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -1326,11 +1326,11 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <f>_xlfn.FLOOR.MATH(F12*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -1384,11 +1384,11 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <f>_xlfn.FLOOR.MATH(F13*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -1438,11 +1438,11 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <f>_xlfn.FLOOR.MATH(F14*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
@@ -1492,11 +1492,11 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <f>_xlfn.FLOOR.MATH(F15*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
@@ -1546,11 +1546,11 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <f>_xlfn.FLOOR.MATH(F16*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
@@ -1604,11 +1604,11 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <f>_xlfn.FLOOR.MATH(F17*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
@@ -1658,11 +1658,11 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <f>_xlfn.FLOOR.MATH(F18*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
@@ -1712,11 +1712,11 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <f>_xlfn.FLOOR.MATH(F19*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
@@ -1766,11 +1766,11 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <f>_xlfn.FLOOR.MATH(F20*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="T20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
@@ -1820,11 +1820,11 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <f>_xlfn.FLOOR.MATH(F21*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="T21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
@@ -1874,11 +1874,11 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <f>_xlfn.FLOOR.MATH(F22*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -1932,11 +1932,11 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <f>_xlfn.FLOOR.MATH(F23*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -1986,11 +1986,11 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <f>_xlfn.FLOOR.MATH(F24*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -2040,11 +2040,11 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <f>_xlfn.FLOOR.MATH(F25*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -2094,11 +2094,11 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <f>_xlfn.FLOOR.MATH(F26*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
     </row>
@@ -2148,11 +2148,11 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <f>_xlfn.FLOOR.MATH(F27*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -2202,11 +2202,11 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <f>_xlfn.FLOOR.MATH(F28*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="T28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2258,11 +2258,11 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <f>_xlfn.FLOOR.MATH(F29*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="T29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2314,11 +2314,11 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <f>_xlfn.FLOOR.MATH(F30*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="T30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2368,11 +2368,11 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <f>_xlfn.FLOOR.MATH(F31*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="T31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2426,11 +2426,11 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <f>_xlfn.FLOOR.MATH(F32*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="T32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2480,11 +2480,11 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <f>_xlfn.FLOOR.MATH(F33*0.621371)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="T33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2534,11 +2534,11 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <f>_xlfn.FLOOR.MATH(F34*0.621371)</f>
+        <f t="shared" ref="S34:S65" si="2">_xlfn.FLOOR.MATH(F34*0.621371)</f>
         <v>18</v>
       </c>
       <c r="T34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2588,11 +2588,11 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <f>_xlfn.FLOOR.MATH(F35*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2642,11 +2642,11 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <f>_xlfn.FLOOR.MATH(F36*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2696,11 +2696,11 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <f>_xlfn.FLOOR.MATH(F37*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2750,11 +2750,11 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <f>_xlfn.FLOOR.MATH(F38*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2804,11 +2804,11 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <f>_xlfn.FLOOR.MATH(F39*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2862,11 +2862,11 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <f>_xlfn.FLOOR.MATH(F40*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <f>_xlfn.FLOOR.MATH(F41*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -2970,11 +2970,11 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <f>_xlfn.FLOOR.MATH(F42*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3024,11 +3024,11 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <f>_xlfn.FLOOR.MATH(F43*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3078,11 +3078,11 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <f>_xlfn.FLOOR.MATH(F44*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3132,11 +3132,11 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <f>_xlfn.FLOOR.MATH(F45*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3186,11 +3186,11 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <f>_xlfn.FLOOR.MATH(F46*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3240,11 +3240,11 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <f>_xlfn.FLOOR.MATH(F47*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3294,11 +3294,11 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <f>_xlfn.FLOOR.MATH(F48*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3352,11 +3352,11 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <f>_xlfn.FLOOR.MATH(F49*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3406,11 +3406,11 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <f>_xlfn.FLOOR.MATH(F50*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3460,11 +3460,11 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <f>_xlfn.FLOOR.MATH(F51*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3514,11 +3514,11 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <f>_xlfn.FLOOR.MATH(F52*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3568,11 +3568,11 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <f>_xlfn.FLOOR.MATH(F53*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3622,11 +3622,11 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <f>_xlfn.FLOOR.MATH(F54*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3676,11 +3676,11 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <f>_xlfn.FLOOR.MATH(F55*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3730,11 +3730,11 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <f>_xlfn.FLOOR.MATH(F56*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3784,11 +3784,11 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <f>_xlfn.FLOOR.MATH(F57*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3844,11 +3844,11 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <f>_xlfn.FLOOR.MATH(F58*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3899,11 +3899,11 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <f>_xlfn.FLOOR.MATH(F59*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -3953,11 +3953,11 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <f>_xlfn.FLOOR.MATH(F60*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -4007,11 +4007,11 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <f>_xlfn.FLOOR.MATH(F61*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <f>_xlfn.FLOOR.MATH(F62*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -4119,11 +4119,11 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <f>_xlfn.FLOOR.MATH(F63*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -4173,11 +4173,11 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <f>_xlfn.FLOOR.MATH(F64*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="T64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4227,11 +4227,11 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <f>_xlfn.FLOOR.MATH(F65*0.621371)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="T65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4285,11 +4285,11 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <f>_xlfn.FLOOR.MATH(F66*0.621371)</f>
+        <f t="shared" ref="S66:S97" si="3">_xlfn.FLOOR.MATH(F66*0.621371)</f>
         <v>43</v>
       </c>
       <c r="T66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
     </row>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <f>_xlfn.FLOOR.MATH(F67*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T130" si="1">D67 * 1.09361</f>
+        <f t="shared" ref="T67:T130" si="4">D67 * 1.09361</f>
         <v>218.72199999999998</v>
       </c>
     </row>
@@ -4393,11 +4393,11 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <f>_xlfn.FLOOR.MATH(F68*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4447,11 +4447,11 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <f>_xlfn.FLOOR.MATH(F69*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4501,11 +4501,11 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <f>_xlfn.FLOOR.MATH(F70*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4555,11 +4555,11 @@
         <v>0</v>
       </c>
       <c r="S71">
-        <f>_xlfn.FLOOR.MATH(F71*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4609,11 +4609,11 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <f>_xlfn.FLOOR.MATH(F72*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4663,11 +4663,11 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <f>_xlfn.FLOOR.MATH(F73*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4721,11 +4721,11 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <f>_xlfn.FLOOR.MATH(F74*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4775,11 +4775,11 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <f>_xlfn.FLOOR.MATH(F75*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4829,11 +4829,11 @@
         <v>0</v>
       </c>
       <c r="S76">
-        <f>_xlfn.FLOOR.MATH(F76*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4885,11 +4885,11 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <f>_xlfn.FLOOR.MATH(F77*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4943,11 +4943,11 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <f>_xlfn.FLOOR.MATH(F78*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -4997,11 +4997,11 @@
         <v>0</v>
       </c>
       <c r="S79">
-        <f>_xlfn.FLOOR.MATH(F79*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5051,11 +5051,11 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <f>_xlfn.FLOOR.MATH(F80*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5105,11 +5105,11 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <f>_xlfn.FLOOR.MATH(F81*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5159,11 +5159,11 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <f>_xlfn.FLOOR.MATH(F82*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5213,11 +5213,11 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <f>_xlfn.FLOOR.MATH(F83*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5267,11 +5267,11 @@
         <v>0</v>
       </c>
       <c r="S84">
-        <f>_xlfn.FLOOR.MATH(F84*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5321,11 +5321,11 @@
         <v>0</v>
       </c>
       <c r="S85">
-        <f>_xlfn.FLOOR.MATH(F85*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5377,11 +5377,11 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <f>_xlfn.FLOOR.MATH(F86*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5431,11 +5431,11 @@
         <v>0</v>
       </c>
       <c r="S87">
-        <f>_xlfn.FLOOR.MATH(F87*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -5485,11 +5485,11 @@
         <v>0</v>
       </c>
       <c r="S88">
-        <f>_xlfn.FLOOR.MATH(F88*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>94.706625999999986</v>
       </c>
     </row>
@@ -5543,11 +5543,11 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <f>_xlfn.FLOOR.MATH(F89*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -5597,11 +5597,11 @@
         <v>0</v>
       </c>
       <c r="S90">
-        <f>_xlfn.FLOOR.MATH(F90*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5651,11 +5651,11 @@
         <v>0</v>
       </c>
       <c r="S91">
-        <f>_xlfn.FLOOR.MATH(F91*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5705,11 +5705,11 @@
         <v>0</v>
       </c>
       <c r="S92">
-        <f>_xlfn.FLOOR.MATH(F92*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5759,11 +5759,11 @@
         <v>0</v>
       </c>
       <c r="S93">
-        <f>_xlfn.FLOOR.MATH(F93*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5813,11 +5813,11 @@
         <v>0</v>
       </c>
       <c r="S94">
-        <f>_xlfn.FLOOR.MATH(F94*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5867,11 +5867,11 @@
         <v>0</v>
       </c>
       <c r="S95">
-        <f>_xlfn.FLOOR.MATH(F95*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5921,11 +5921,11 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <f>_xlfn.FLOOR.MATH(F96*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5979,11 +5979,11 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <f>_xlfn.FLOOR.MATH(F97*0.621371)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6033,11 +6033,11 @@
         <v>0</v>
       </c>
       <c r="S98">
-        <f>_xlfn.FLOOR.MATH(F98*0.621371)</f>
+        <f t="shared" ref="S98:S129" si="5">_xlfn.FLOOR.MATH(F98*0.621371)</f>
         <v>15</v>
       </c>
       <c r="T98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6087,11 +6087,11 @@
         <v>0</v>
       </c>
       <c r="S99">
-        <f>_xlfn.FLOOR.MATH(F99*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6141,11 +6141,11 @@
         <v>0</v>
       </c>
       <c r="S100">
-        <f>_xlfn.FLOOR.MATH(F100*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6195,11 +6195,11 @@
         <v>0</v>
       </c>
       <c r="S101">
-        <f>_xlfn.FLOOR.MATH(F101*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6249,11 +6249,11 @@
         <v>0</v>
       </c>
       <c r="S102">
-        <f>_xlfn.FLOOR.MATH(F102*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="T102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38.276350000000001</v>
       </c>
     </row>
@@ -6303,11 +6303,11 @@
         <v>0</v>
       </c>
       <c r="S103">
-        <f>_xlfn.FLOOR.MATH(F103*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6357,11 +6357,11 @@
         <v>0</v>
       </c>
       <c r="S104">
-        <f>_xlfn.FLOOR.MATH(F104*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6411,11 +6411,11 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <f>_xlfn.FLOOR.MATH(F105*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>87.488799999999998</v>
       </c>
     </row>
@@ -6469,11 +6469,11 @@
         <v>0</v>
       </c>
       <c r="S106">
-        <f>_xlfn.FLOOR.MATH(F106*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6523,11 +6523,11 @@
         <v>0</v>
       </c>
       <c r="S107">
-        <f>_xlfn.FLOOR.MATH(F107*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6577,11 +6577,11 @@
         <v>0</v>
       </c>
       <c r="S108">
-        <f>_xlfn.FLOOR.MATH(F108*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>98.424899999999994</v>
       </c>
     </row>
@@ -6631,11 +6631,11 @@
         <v>0</v>
       </c>
       <c r="S109">
-        <f>_xlfn.FLOOR.MATH(F109*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6685,11 +6685,11 @@
         <v>0</v>
       </c>
       <c r="S110">
-        <f>_xlfn.FLOOR.MATH(F110*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6739,11 +6739,11 @@
         <v>0</v>
       </c>
       <c r="S111">
-        <f>_xlfn.FLOOR.MATH(F111*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="T111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6793,11 +6793,11 @@
         <v>0</v>
       </c>
       <c r="S112">
-        <f>_xlfn.FLOOR.MATH(F112*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="T112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6847,11 +6847,11 @@
         <v>0</v>
       </c>
       <c r="S113">
-        <f>_xlfn.FLOOR.MATH(F113*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="T113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6901,11 +6901,11 @@
         <v>0</v>
       </c>
       <c r="S114">
-        <f>_xlfn.FLOOR.MATH(F114*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="T114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6959,11 +6959,11 @@
         <v>0</v>
       </c>
       <c r="S115">
-        <f>_xlfn.FLOOR.MATH(F115*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="T115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>177.16481999999999</v>
       </c>
     </row>
@@ -7013,11 +7013,11 @@
         <v>0</v>
       </c>
       <c r="S116">
-        <f>_xlfn.FLOOR.MATH(F116*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="T116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -7067,11 +7067,11 @@
         <v>0</v>
       </c>
       <c r="S117">
-        <f>_xlfn.FLOOR.MATH(F117*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="T117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -7121,11 +7121,11 @@
         <v>0</v>
       </c>
       <c r="S118">
-        <f>_xlfn.FLOOR.MATH(F118*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7175,11 +7175,11 @@
         <v>0</v>
       </c>
       <c r="S119">
-        <f>_xlfn.FLOOR.MATH(F119*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7229,11 +7229,11 @@
         <v>0</v>
       </c>
       <c r="S120">
-        <f>_xlfn.FLOOR.MATH(F120*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>43.744399999999999</v>
       </c>
     </row>
@@ -7283,11 +7283,11 @@
         <v>0</v>
       </c>
       <c r="S121">
-        <f>_xlfn.FLOOR.MATH(F121*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7337,11 +7337,11 @@
         <v>0</v>
       </c>
       <c r="S122">
-        <f>_xlfn.FLOOR.MATH(F122*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7391,11 +7391,11 @@
         <v>0</v>
       </c>
       <c r="S123">
-        <f>_xlfn.FLOOR.MATH(F123*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7449,11 +7449,11 @@
         <v>0</v>
       </c>
       <c r="S124">
-        <f>_xlfn.FLOOR.MATH(F124*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7503,11 +7503,11 @@
         <v>0</v>
       </c>
       <c r="S125">
-        <f>_xlfn.FLOOR.MATH(F125*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7557,11 +7557,11 @@
         <v>0</v>
       </c>
       <c r="S126">
-        <f>_xlfn.FLOOR.MATH(F126*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7611,11 +7611,11 @@
         <v>0</v>
       </c>
       <c r="S127">
-        <f>_xlfn.FLOOR.MATH(F127*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7665,11 +7665,11 @@
         <v>0</v>
       </c>
       <c r="S128">
-        <f>_xlfn.FLOOR.MATH(F128*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7719,11 +7719,11 @@
         <v>0</v>
       </c>
       <c r="S129">
-        <f>_xlfn.FLOOR.MATH(F129*0.621371)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="T129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7773,11 +7773,11 @@
         <v>0</v>
       </c>
       <c r="S130">
-        <f>_xlfn.FLOOR.MATH(F130*0.621371)</f>
+        <f t="shared" ref="S130:S151" si="6">_xlfn.FLOOR.MATH(F130*0.621371)</f>
         <v>12</v>
       </c>
       <c r="T130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7827,11 +7827,11 @@
         <v>0</v>
       </c>
       <c r="S131">
-        <f>_xlfn.FLOOR.MATH(F131*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T131">
-        <f t="shared" ref="T131:T151" si="2">D131 * 1.09361</f>
+        <f t="shared" ref="T131:T151" si="7">D131 * 1.09361</f>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7881,11 +7881,11 @@
         <v>0</v>
       </c>
       <c r="S132">
-        <f>_xlfn.FLOOR.MATH(F132*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7939,11 +7939,11 @@
         <v>0</v>
       </c>
       <c r="S133">
-        <f>_xlfn.FLOOR.MATH(F133*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7993,11 +7993,11 @@
         <v>0</v>
       </c>
       <c r="S134">
-        <f>_xlfn.FLOOR.MATH(F134*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8047,11 +8047,11 @@
         <v>0</v>
       </c>
       <c r="S135">
-        <f>_xlfn.FLOOR.MATH(F135*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8101,11 +8101,11 @@
         <v>0</v>
       </c>
       <c r="S136">
-        <f>_xlfn.FLOOR.MATH(F136*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8155,11 +8155,11 @@
         <v>0</v>
       </c>
       <c r="S137">
-        <f>_xlfn.FLOOR.MATH(F137*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8209,11 +8209,11 @@
         <v>0</v>
       </c>
       <c r="S138">
-        <f>_xlfn.FLOOR.MATH(F138*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8263,11 +8263,11 @@
         <v>0</v>
       </c>
       <c r="S139">
-        <f>_xlfn.FLOOR.MATH(F139*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8317,11 +8317,11 @@
         <v>0</v>
       </c>
       <c r="S140">
-        <f>_xlfn.FLOOR.MATH(F140*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8371,11 +8371,11 @@
         <v>0</v>
       </c>
       <c r="S141">
-        <f>_xlfn.FLOOR.MATH(F141*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8429,11 +8429,11 @@
         <v>0</v>
       </c>
       <c r="S142">
-        <f>_xlfn.FLOOR.MATH(F142*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8483,11 +8483,11 @@
         <v>0</v>
       </c>
       <c r="S143">
-        <f>_xlfn.FLOOR.MATH(F143*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8537,11 +8537,11 @@
         <v>0</v>
       </c>
       <c r="S144">
-        <f>_xlfn.FLOOR.MATH(F144*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8591,11 +8591,11 @@
         <v>0</v>
       </c>
       <c r="S145">
-        <f>_xlfn.FLOOR.MATH(F145*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8645,11 +8645,11 @@
         <v>0</v>
       </c>
       <c r="S146">
-        <f>_xlfn.FLOOR.MATH(F146*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8699,11 +8699,11 @@
         <v>0</v>
       </c>
       <c r="S147">
-        <f>_xlfn.FLOOR.MATH(F147*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8753,11 +8753,11 @@
         <v>0</v>
       </c>
       <c r="S148">
-        <f>_xlfn.FLOOR.MATH(F148*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8807,11 +8807,11 @@
         <v>0</v>
       </c>
       <c r="S149">
-        <f>_xlfn.FLOOR.MATH(F149*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>201.22424000000001</v>
       </c>
     </row>
@@ -8861,11 +8861,11 @@
         <v>0</v>
       </c>
       <c r="S150">
-        <f>_xlfn.FLOOR.MATH(F150*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>43.744399999999999</v>
       </c>
     </row>
@@ -8917,11 +8917,11 @@
         <v>0</v>
       </c>
       <c r="S151">
-        <f>_xlfn.FLOOR.MATH(F151*0.621371)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38.276350000000001</v>
       </c>
     </row>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cjame\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70F400-791D-4721-AFC1-AF13C9A34895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FD375F-DD42-48DA-B02D-B5229ABBF670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2700" windowWidth="29040" windowHeight="15840" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cjame\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FD375F-DD42-48DA-B02D-B5229ABBF670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8043E3-F7D8-43DA-972A-142E0E2D1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2700" windowWidth="29040" windowHeight="15840" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
   <si>
     <t>Section</t>
   </si>
@@ -234,6 +235,9 @@
   </si>
   <si>
     <t>Block Length (y)</t>
+  </si>
+  <si>
+    <t>Increasing</t>
   </si>
 </sst>
 </file>
@@ -641,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="Q110" sqref="Q110"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8928,4 +8932,238 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88653644-AF3E-4625-A5A7-2FF88949AA53}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8043E3-F7D8-43DA-972A-142E0E2D1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8284E44-C274-44B3-A9A1-0E3E32FF5230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="2172" yWindow="672" windowWidth="17280" windowHeight="11304" activeTab="1" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8939,7 +8939,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8284E44-C274-44B3-A9A1-0E3E32FF5230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21C716-6F80-4E82-9830-5228AB87C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="672" windowWidth="17280" windowHeight="11304" activeTab="1" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
   <si>
     <t>Section</t>
   </si>
@@ -207,18 +207,6 @@
     <t>Castle Shannon</t>
   </si>
   <si>
-    <t>12-13,1-13</t>
-  </si>
-  <si>
-    <t>28-29,150-28</t>
-  </si>
-  <si>
-    <t>76-77,77-101</t>
-  </si>
-  <si>
-    <t>85-86,100-85</t>
-  </si>
-  <si>
     <t>Territory</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
     <t>57-Yard, 57-58</t>
   </si>
   <si>
-    <t>Yard-63, 62-63</t>
-  </si>
-  <si>
     <t>Speed Limit (MPH)</t>
   </si>
   <si>
@@ -238,6 +223,42 @@
   </si>
   <si>
     <t>Increasing</t>
+  </si>
+  <si>
+    <t>Switch Exit</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>I57</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>N77</t>
+  </si>
+  <si>
+    <t>N85</t>
+  </si>
+  <si>
+    <t>13-12,13-1</t>
+  </si>
+  <si>
+    <t>28-29,28-150</t>
+  </si>
+  <si>
+    <t>63-Yard, 63-62</t>
+  </si>
+  <si>
+    <t>77-76,77-101</t>
+  </si>
+  <si>
+    <t>85-86,85-100</t>
   </si>
 </sst>
 </file>
@@ -643,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
-  <dimension ref="A1:T151"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,17 +681,17 @@
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -704,35 +725,38 @@
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -760,37 +784,40 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>1</v>
+      <c r="L2" t="s">
+        <v>63</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
         <v>8</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S33" si="0">_xlfn.FLOOR.MATH(F2*0.621371)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T33" si="0">_xlfn.FLOOR.MATH(F2*0.621371)</f>
         <v>27</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <f>D2 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -820,35 +847,35 @@
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
         <v>8</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T66" si="1">D3 * 1.09361</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="1">D3 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -874,35 +901,35 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>8</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -928,35 +955,35 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
+      <c r="M5" s="4"/>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>8</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -982,35 +1009,35 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>8</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -1036,35 +1063,35 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>8</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -1090,35 +1117,35 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>8</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -1144,35 +1171,35 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
+      <c r="M9" s="4"/>
       <c r="N9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>8</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1202,35 +1229,35 @@
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>8</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -1256,35 +1283,35 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>8</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -1310,35 +1337,35 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>8</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -1363,14 +1390,11 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1</v>
+      <c r="L13" t="s">
+        <v>63</v>
       </c>
       <c r="M13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
@@ -1378,25 +1402,28 @@
       <c r="O13" s="4">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>8</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -1421,36 +1448,38 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
+      <c r="K14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -1476,35 +1505,35 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
@@ -1530,35 +1559,35 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
@@ -1588,35 +1617,35 @@
         <v>2</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -1642,35 +1671,35 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
         <v>9</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -1696,35 +1725,35 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
         <v>9</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -1750,35 +1779,35 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
         <v>9</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
@@ -1804,35 +1833,35 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
         <v>9</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
@@ -1858,35 +1887,35 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>20</v>
@@ -1916,35 +1945,35 @@
         <v>2</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <v>0</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>20</v>
@@ -1970,35 +1999,35 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>20</v>
@@ -2024,35 +2053,35 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
         <v>0</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -2078,35 +2107,35 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
+      <c r="M26" s="4"/>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <v>0</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>20</v>
@@ -2132,35 +2161,35 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
+      <c r="M27" s="4"/>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>20</v>
@@ -2186,35 +2215,35 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
+      <c r="M28" s="4"/>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <v>0</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
         <v>6</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>20</v>
@@ -2240,37 +2269,37 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M29" s="4"/>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
         <v>6</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>21</v>
@@ -2296,11 +2325,11 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4">
-        <v>1</v>
+      <c r="L30" t="s">
+        <v>64</v>
       </c>
       <c r="M30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
@@ -2308,25 +2337,28 @@
       <c r="O30" s="4">
         <v>0</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
         <v>6</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>21</v>
@@ -2352,35 +2384,35 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
+      <c r="M31" s="4"/>
       <c r="N31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
         <v>6</v>
       </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>21</v>
@@ -2410,35 +2442,35 @@
         <v>0</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
+      <c r="M32" s="4"/>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
         <v>6</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>21</v>
@@ -2464,35 +2496,35 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="4">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
         <v>6</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>22</v>
@@ -2518,35 +2550,35 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
+      <c r="M34" s="4"/>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
         <v>6</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34:S65" si="2">_xlfn.FLOOR.MATH(F34*0.621371)</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:T65" si="2">_xlfn.FLOOR.MATH(F34*0.621371)</f>
         <v>18</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>22</v>
@@ -2572,35 +2604,35 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
+      <c r="M35" s="4"/>
       <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="O35" s="4">
         <v>0</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
         <v>6</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>22</v>
@@ -2626,35 +2658,35 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
+      <c r="M36" s="4"/>
       <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
         <v>6</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>23</v>
@@ -2680,35 +2712,35 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="4">
         <v>0</v>
       </c>
       <c r="O37" s="4">
-        <v>1</v>
-      </c>
-      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="5">
         <v>6</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>23</v>
@@ -2734,35 +2766,35 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4">
-        <v>0</v>
-      </c>
+      <c r="M38" s="4"/>
       <c r="N38" s="4">
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <v>1</v>
-      </c>
-      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="5">
         <v>6</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>23</v>
@@ -2788,35 +2820,35 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="4">
         <v>1</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="5">
         <v>6</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>2</v>
       </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>23</v>
@@ -2846,35 +2878,35 @@
         <v>1</v>
       </c>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
+      <c r="M40" s="4"/>
       <c r="N40" s="4">
         <v>0</v>
       </c>
       <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="5">
         <v>6</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
       <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>23</v>
@@ -2900,35 +2932,35 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="4">
         <v>1</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="5">
         <v>6</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>23</v>
@@ -2954,35 +2986,35 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
+      <c r="M42" s="4"/>
       <c r="N42" s="4">
         <v>0</v>
       </c>
       <c r="O42" s="4">
-        <v>1</v>
-      </c>
-      <c r="P42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="5">
         <v>6</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>23</v>
@@ -3008,35 +3040,35 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="4">
         <v>0</v>
       </c>
       <c r="O43" s="4">
-        <v>1</v>
-      </c>
-      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="5">
         <v>6</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>2</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>23</v>
@@ -3062,35 +3094,35 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4">
-        <v>0</v>
-      </c>
+      <c r="M44" s="4"/>
       <c r="N44" s="4">
         <v>0</v>
       </c>
       <c r="O44" s="4">
-        <v>1</v>
-      </c>
-      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="5">
         <v>6</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>2</v>
       </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
       <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>23</v>
@@ -3116,35 +3148,35 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="4">
         <v>0</v>
       </c>
       <c r="O45" s="4">
-        <v>1</v>
-      </c>
-      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="5">
         <v>6</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>2</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>23</v>
@@ -3170,35 +3202,35 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4">
-        <v>0</v>
-      </c>
+      <c r="M46" s="4"/>
       <c r="N46" s="4">
         <v>0</v>
       </c>
       <c r="O46" s="4">
-        <v>1</v>
-      </c>
-      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="5">
         <v>6</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>2</v>
       </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
       <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>23</v>
@@ -3224,35 +3256,35 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>0</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="4">
         <v>0</v>
       </c>
       <c r="O47" s="4">
-        <v>1</v>
-      </c>
-      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="5">
         <v>6</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>2</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>23</v>
@@ -3278,35 +3310,35 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
+      <c r="M48" s="4"/>
       <c r="N48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="4">
         <v>1</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="5">
         <v>6</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
       <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>23</v>
@@ -3336,35 +3368,35 @@
         <v>1</v>
       </c>
       <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4">
-        <v>0</v>
-      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="4">
         <v>0</v>
       </c>
       <c r="O49" s="4">
-        <v>1</v>
-      </c>
-      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="5">
         <v>6</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>2</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
       <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>23</v>
@@ -3390,35 +3422,35 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4">
-        <v>0</v>
-      </c>
+      <c r="M50" s="4"/>
       <c r="N50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="4">
         <v>1</v>
       </c>
-      <c r="P50" s="5">
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="5">
         <v>6</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>2</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
       <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>23</v>
@@ -3444,35 +3476,35 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
+      <c r="M51" s="4"/>
       <c r="N51" s="4">
         <v>0</v>
       </c>
       <c r="O51" s="4">
-        <v>1</v>
-      </c>
-      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="5">
         <v>6</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>2</v>
       </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
       <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>23</v>
@@ -3498,35 +3530,35 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4">
-        <v>0</v>
-      </c>
+      <c r="M52" s="4"/>
       <c r="N52" s="4">
         <v>0</v>
       </c>
       <c r="O52" s="4">
-        <v>1</v>
-      </c>
-      <c r="P52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="5">
         <v>6</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>2</v>
       </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
       <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>23</v>
@@ -3552,35 +3584,35 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4">
-        <v>0</v>
-      </c>
+      <c r="M53" s="4"/>
       <c r="N53" s="4">
         <v>0</v>
       </c>
       <c r="O53" s="4">
-        <v>1</v>
-      </c>
-      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="5">
         <v>6</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>2</v>
       </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
       <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>23</v>
@@ -3606,35 +3638,35 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4">
-        <v>0</v>
-      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="4">
         <v>0</v>
       </c>
       <c r="O54" s="4">
-        <v>1</v>
-      </c>
-      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="5">
         <v>6</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>2</v>
       </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
       <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>23</v>
@@ -3660,35 +3692,35 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4">
-        <v>0</v>
-      </c>
+      <c r="M55" s="4"/>
       <c r="N55" s="4">
         <v>0</v>
       </c>
       <c r="O55" s="4">
-        <v>1</v>
-      </c>
-      <c r="P55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="5">
         <v>6</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>2</v>
       </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
       <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>23</v>
@@ -3714,35 +3746,35 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4">
-        <v>0</v>
-      </c>
+      <c r="M56" s="4"/>
       <c r="N56" s="4">
         <v>0</v>
       </c>
       <c r="O56" s="4">
-        <v>1</v>
-      </c>
-      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="5">
         <v>6</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>2</v>
       </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
       <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>23</v>
@@ -3768,35 +3800,35 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="4">
         <v>1</v>
       </c>
-      <c r="P57" s="5">
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="5">
         <v>6</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>2</v>
       </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
       <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>23</v>
@@ -3826,37 +3858,37 @@
         <v>1</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="4">
         <v>0</v>
       </c>
       <c r="O58" s="4">
-        <v>1</v>
-      </c>
-      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="5">
         <v>6</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>2</v>
       </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
       <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3881,37 +3913,40 @@
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="L59" s="4">
-        <v>1</v>
+      <c r="L59" t="s">
+        <v>65</v>
       </c>
       <c r="M59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="4">
-        <v>0</v>
-      </c>
-      <c r="P59" s="5">
+        <v>1</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
         <v>6</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>2</v>
       </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
       <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3937,35 +3972,35 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4">
-        <v>0</v>
-      </c>
+      <c r="M60" s="4"/>
       <c r="N60" s="4">
         <v>0</v>
       </c>
       <c r="O60" s="4">
         <v>0</v>
       </c>
-      <c r="P60" s="5">
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
         <v>6</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
       <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3991,35 +4026,35 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4">
-        <v>0</v>
-      </c>
+      <c r="M61" s="4"/>
       <c r="N61" s="4">
         <v>0</v>
       </c>
       <c r="O61" s="4">
         <v>0</v>
       </c>
-      <c r="P61" s="5">
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
         <v>6</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>2</v>
       </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
       <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -4045,35 +4080,35 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4">
-        <v>0</v>
-      </c>
+      <c r="M62" s="4"/>
       <c r="N62" s="4">
         <v>0</v>
       </c>
       <c r="O62" s="4">
         <v>0</v>
       </c>
-      <c r="P62" s="5">
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
         <v>6</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>2</v>
       </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
       <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -4098,14 +4133,11 @@
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L63" s="4">
-        <v>1</v>
+      <c r="L63" t="s">
+        <v>66</v>
       </c>
       <c r="M63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="4">
         <v>0</v>
@@ -4113,25 +4145,28 @@
       <c r="O63" s="4">
         <v>0</v>
       </c>
-      <c r="P63" s="5">
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
         <v>6</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>2</v>
       </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
       <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>25</v>
@@ -4156,36 +4191,38 @@
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4">
-        <v>0</v>
-      </c>
+      <c r="K64" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" s="4"/>
       <c r="N64" s="4">
         <v>0</v>
       </c>
       <c r="O64" s="4">
         <v>0</v>
       </c>
-      <c r="P64" s="5">
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>2</v>
       </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
       <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>25</v>
@@ -4211,35 +4248,35 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4">
-        <v>0</v>
-      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="4">
-        <v>0</v>
-      </c>
-      <c r="P65" s="5">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>2</v>
       </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
       <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>25</v>
@@ -4269,35 +4306,35 @@
         <v>1</v>
       </c>
       <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
+      <c r="M66" s="4"/>
       <c r="N66" s="4">
         <v>0</v>
       </c>
       <c r="O66" s="4">
         <v>0</v>
       </c>
-      <c r="P66" s="5">
+      <c r="P66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>2</v>
       </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
       <c r="S66">
-        <f t="shared" ref="S66:S97" si="3">_xlfn.FLOOR.MATH(F66*0.621371)</f>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" ref="T66:T97" si="3">_xlfn.FLOOR.MATH(F66*0.621371)</f>
         <v>43</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>25</v>
@@ -4323,35 +4360,35 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
+      <c r="M67" s="4"/>
       <c r="N67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="4">
-        <v>0</v>
-      </c>
-      <c r="P67" s="5">
+        <v>1</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>2</v>
       </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
       <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T67">
-        <f t="shared" ref="T67:T130" si="4">D67 * 1.09361</f>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="4">D67 * 1.09361</f>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>25</v>
@@ -4377,35 +4414,35 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4">
-        <v>0</v>
-      </c>
+      <c r="M68" s="4"/>
       <c r="N68" s="4">
         <v>0</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
       </c>
-      <c r="P68" s="5">
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5">
         <v>9</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>2</v>
       </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
       <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>25</v>
@@ -4431,35 +4468,35 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4">
-        <v>0</v>
-      </c>
+      <c r="M69" s="4"/>
       <c r="N69" s="4">
         <v>0</v>
       </c>
       <c r="O69" s="4">
         <v>0</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="5">
         <v>9</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>2</v>
       </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
       <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>26</v>
@@ -4485,35 +4522,35 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4">
-        <v>0</v>
-      </c>
+      <c r="M70" s="4"/>
       <c r="N70" s="4">
         <v>0</v>
       </c>
       <c r="O70" s="4">
         <v>0</v>
       </c>
-      <c r="P70" s="5">
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="5">
         <v>9</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>3</v>
       </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
       <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>26</v>
@@ -4539,35 +4576,35 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4">
-        <v>0</v>
-      </c>
+      <c r="M71" s="4"/>
       <c r="N71" s="4">
         <v>0</v>
       </c>
       <c r="O71" s="4">
         <v>0</v>
       </c>
-      <c r="P71" s="5">
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="5">
         <v>9</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>3</v>
       </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
       <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>26</v>
@@ -4593,35 +4630,35 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
+      <c r="M72" s="4"/>
       <c r="N72" s="4">
         <v>0</v>
       </c>
       <c r="O72" s="4">
         <v>0</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="5">
         <v>9</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>3</v>
       </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
       <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>26</v>
@@ -4647,35 +4684,35 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
+      <c r="M73" s="4"/>
       <c r="N73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="4">
-        <v>0</v>
-      </c>
-      <c r="P73" s="5">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="5">
         <v>9</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>3</v>
       </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
       <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>26</v>
@@ -4705,35 +4742,35 @@
         <v>1</v>
       </c>
       <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4">
-        <v>0</v>
-      </c>
+      <c r="M74" s="4"/>
       <c r="N74" s="4">
         <v>0</v>
       </c>
       <c r="O74" s="4">
         <v>0</v>
       </c>
-      <c r="P74" s="5">
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="5">
         <v>9</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>3</v>
       </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
       <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>27</v>
@@ -4759,35 +4796,35 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4">
-        <v>0</v>
-      </c>
+      <c r="M75" s="4"/>
       <c r="N75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="4">
-        <v>0</v>
-      </c>
-      <c r="P75" s="5">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="5">
         <v>9</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>3</v>
       </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
       <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>27</v>
@@ -4813,35 +4850,35 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4">
-        <v>0</v>
-      </c>
+      <c r="M76" s="4"/>
       <c r="N76" s="4">
         <v>0</v>
       </c>
       <c r="O76" s="4">
         <v>0</v>
       </c>
-      <c r="P76" s="5">
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="5">
         <v>9</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>3</v>
       </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
       <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>27</v>
@@ -4866,38 +4903,38 @@
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4">
-        <v>0</v>
-      </c>
+      <c r="L77" t="s">
+        <v>67</v>
+      </c>
+      <c r="M77" s="4"/>
       <c r="N77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" s="4">
-        <v>0</v>
-      </c>
-      <c r="P77" s="5">
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="5">
         <v>9</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>3</v>
       </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
       <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>28</v>
@@ -4926,36 +4963,38 @@
       <c r="J78" s="4">
         <v>2</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4">
-        <v>0</v>
-      </c>
+      <c r="K78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M78" s="4"/>
       <c r="N78" s="4">
         <v>0</v>
       </c>
       <c r="O78" s="4">
         <v>0</v>
       </c>
-      <c r="P78" s="5">
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>3</v>
       </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
       <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>28</v>
@@ -4981,35 +5020,35 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4">
-        <v>0</v>
-      </c>
+      <c r="M79" s="4"/>
       <c r="N79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" s="4">
-        <v>0</v>
-      </c>
-      <c r="P79" s="5">
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>3</v>
       </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
       <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>28</v>
@@ -5035,35 +5074,35 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4">
-        <v>0</v>
-      </c>
+      <c r="M80" s="4"/>
       <c r="N80" s="4">
         <v>0</v>
       </c>
       <c r="O80" s="4">
         <v>0</v>
       </c>
-      <c r="P80" s="5">
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>3</v>
       </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
       <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>28</v>
@@ -5089,35 +5128,35 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4">
-        <v>0</v>
-      </c>
+      <c r="M81" s="4"/>
       <c r="N81" s="4">
         <v>0</v>
       </c>
       <c r="O81" s="4">
         <v>0</v>
       </c>
-      <c r="P81" s="5">
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>3</v>
       </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
       <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>28</v>
@@ -5143,35 +5182,35 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
+      <c r="M82" s="4"/>
       <c r="N82" s="4">
         <v>0</v>
       </c>
       <c r="O82" s="4">
         <v>0</v>
       </c>
-      <c r="P82" s="5">
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>3</v>
       </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
       <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>28</v>
@@ -5197,35 +5236,35 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4">
-        <v>0</v>
-      </c>
+      <c r="M83" s="4"/>
       <c r="N83" s="4">
         <v>0</v>
       </c>
       <c r="O83" s="4">
         <v>0</v>
       </c>
-      <c r="P83" s="5">
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>3</v>
       </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
       <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>28</v>
@@ -5251,35 +5290,35 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4">
-        <v>0</v>
-      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="4">
         <v>0</v>
       </c>
       <c r="O84" s="4">
         <v>0</v>
       </c>
-      <c r="P84" s="5">
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>3</v>
       </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
       <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>28</v>
@@ -5305,35 +5344,35 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4">
-        <v>0</v>
-      </c>
+      <c r="M85" s="4"/>
       <c r="N85" s="4">
         <v>0</v>
       </c>
       <c r="O85" s="4">
         <v>0</v>
       </c>
-      <c r="P85" s="5">
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>3</v>
       </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
       <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>28</v>
@@ -5359,37 +5398,37 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M86" s="4"/>
       <c r="N86" s="4">
         <v>0</v>
       </c>
       <c r="O86" s="4">
         <v>0</v>
       </c>
-      <c r="P86" s="5">
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>3</v>
       </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
       <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>29</v>
@@ -5415,35 +5454,38 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4">
-        <v>0</v>
-      </c>
+      <c r="L87" t="s">
+        <v>68</v>
+      </c>
+      <c r="M87" s="4"/>
       <c r="N87" s="4">
         <v>0</v>
       </c>
       <c r="O87" s="4">
         <v>0</v>
       </c>
-      <c r="P87" s="5">
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="5">
         <v>14.399999999999999</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>3</v>
       </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
       <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>29</v>
@@ -5469,35 +5511,35 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4">
-        <v>0</v>
-      </c>
+      <c r="M88" s="4"/>
       <c r="N88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" s="4">
-        <v>0</v>
-      </c>
-      <c r="P88" s="5">
+        <v>1</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="5">
         <v>12.470399999999998</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>3</v>
       </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
       <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <f t="shared" si="4"/>
         <v>94.706625999999986</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>29</v>
@@ -5527,35 +5569,35 @@
         <v>0</v>
       </c>
       <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4">
-        <v>0</v>
-      </c>
+      <c r="M89" s="4"/>
       <c r="N89" s="4">
         <v>0</v>
       </c>
       <c r="O89" s="4">
         <v>0</v>
       </c>
-      <c r="P89" s="5">
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="5">
         <v>14.399999999999999</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>3</v>
       </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
       <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>30</v>
@@ -5581,35 +5623,35 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4">
-        <v>0</v>
-      </c>
+      <c r="M90" s="4"/>
       <c r="N90" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" s="4">
-        <v>0</v>
-      </c>
-      <c r="P90" s="5">
+        <v>1</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>3</v>
       </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
       <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>30</v>
@@ -5635,35 +5677,35 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4">
-        <v>0</v>
-      </c>
+      <c r="M91" s="4"/>
       <c r="N91" s="4">
         <v>0</v>
       </c>
       <c r="O91" s="4">
         <v>0</v>
       </c>
-      <c r="P91" s="5">
+      <c r="P91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>3</v>
       </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
       <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>30</v>
@@ -5689,35 +5731,35 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4">
-        <v>0</v>
-      </c>
+      <c r="M92" s="4"/>
       <c r="N92" s="4">
         <v>0</v>
       </c>
       <c r="O92" s="4">
         <v>0</v>
       </c>
-      <c r="P92" s="5">
+      <c r="P92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>3</v>
       </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
       <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>30</v>
@@ -5743,35 +5785,35 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4">
-        <v>0</v>
-      </c>
+      <c r="M93" s="4"/>
       <c r="N93" s="4">
         <v>0</v>
       </c>
       <c r="O93" s="4">
         <v>0</v>
       </c>
-      <c r="P93" s="5">
+      <c r="P93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>3</v>
       </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
       <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>30</v>
@@ -5797,35 +5839,35 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4">
-        <v>0</v>
-      </c>
+      <c r="M94" s="4"/>
       <c r="N94" s="4">
         <v>0</v>
       </c>
       <c r="O94" s="4">
         <v>0</v>
       </c>
-      <c r="P94" s="5">
+      <c r="P94" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>3</v>
       </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
       <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
         <v>30</v>
@@ -5851,35 +5893,35 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4">
-        <v>0</v>
-      </c>
+      <c r="M95" s="4"/>
       <c r="N95" s="4">
         <v>0</v>
       </c>
       <c r="O95" s="4">
         <v>0</v>
       </c>
-      <c r="P95" s="5">
+      <c r="P95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>3</v>
       </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
       <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>30</v>
@@ -5905,35 +5947,35 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4">
-        <v>0</v>
-      </c>
+      <c r="M96" s="4"/>
       <c r="N96" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" s="4">
-        <v>0</v>
-      </c>
-      <c r="P96" s="5">
+        <v>1</v>
+      </c>
+      <c r="P96" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>3</v>
       </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
       <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>30</v>
@@ -5963,35 +6005,35 @@
         <v>0</v>
       </c>
       <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4">
-        <v>0</v>
-      </c>
+      <c r="M97" s="4"/>
       <c r="N97" s="4">
         <v>0</v>
       </c>
       <c r="O97" s="4">
         <v>0</v>
       </c>
-      <c r="P97" s="5">
+      <c r="P97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>3</v>
       </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
       <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>30</v>
@@ -6017,35 +6059,35 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4">
-        <v>0</v>
-      </c>
+      <c r="M98" s="4"/>
       <c r="N98" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" s="4">
-        <v>0</v>
-      </c>
-      <c r="P98" s="5">
+        <v>1</v>
+      </c>
+      <c r="P98" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>3</v>
       </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
       <c r="S98">
-        <f t="shared" ref="S98:S129" si="5">_xlfn.FLOOR.MATH(F98*0.621371)</f>
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <f t="shared" ref="T98:T129" si="5">_xlfn.FLOOR.MATH(F98*0.621371)</f>
         <v>15</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>31</v>
@@ -6071,35 +6113,35 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4">
-        <v>0</v>
-      </c>
+      <c r="M99" s="4"/>
       <c r="N99" s="4">
         <v>0</v>
       </c>
       <c r="O99" s="4">
         <v>0</v>
       </c>
-      <c r="P99" s="5">
+      <c r="P99" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>3</v>
       </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
       <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="T99">
+      <c r="U99">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>31</v>
@@ -6125,35 +6167,35 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4">
-        <v>0</v>
-      </c>
+      <c r="M100" s="4"/>
       <c r="N100" s="4">
         <v>0</v>
       </c>
       <c r="O100" s="4">
         <v>0</v>
       </c>
-      <c r="P100" s="5">
+      <c r="P100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>3</v>
       </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
       <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="T100">
+      <c r="U100">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>31</v>
@@ -6179,35 +6221,38 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4">
-        <v>0</v>
-      </c>
+      <c r="L101" t="s">
+        <v>68</v>
+      </c>
+      <c r="M101" s="4"/>
       <c r="N101" s="4">
         <v>0</v>
       </c>
       <c r="O101" s="4">
         <v>0</v>
       </c>
-      <c r="P101" s="5">
+      <c r="P101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>3</v>
       </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
       <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>32</v>
@@ -6233,35 +6278,38 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4">
-        <v>0</v>
-      </c>
+      <c r="L102" t="s">
+        <v>67</v>
+      </c>
+      <c r="M102" s="4"/>
       <c r="N102" s="4">
         <v>0</v>
       </c>
       <c r="O102" s="4">
         <v>0</v>
       </c>
-      <c r="P102" s="5">
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="5">
         <v>4.8461538461538467</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>3</v>
       </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
       <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="T102">
+      <c r="U102">
         <f t="shared" si="4"/>
         <v>38.276350000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
         <v>33</v>
@@ -6287,35 +6335,35 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4">
-        <v>0</v>
-      </c>
+      <c r="M103" s="4"/>
       <c r="N103" s="4">
         <v>0</v>
       </c>
       <c r="O103" s="4">
         <v>0</v>
       </c>
-      <c r="P103" s="5">
+      <c r="P103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>3</v>
       </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
       <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="T103">
+      <c r="U103">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
@@ -6341,35 +6389,35 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4">
-        <v>0</v>
-      </c>
+      <c r="M104" s="4"/>
       <c r="N104" s="4">
         <v>0</v>
       </c>
       <c r="O104" s="4">
         <v>0</v>
       </c>
-      <c r="P104" s="5">
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <v>3</v>
       </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
       <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="T104">
+      <c r="U104">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>33</v>
@@ -6395,35 +6443,35 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4">
-        <v>0</v>
-      </c>
+      <c r="M105" s="4"/>
       <c r="N105" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" s="4">
-        <v>0</v>
-      </c>
-      <c r="P105" s="5">
+        <v>1</v>
+      </c>
+      <c r="P105" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>3</v>
       </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
       <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="T105">
+      <c r="U105">
         <f t="shared" si="4"/>
         <v>87.488799999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>34</v>
@@ -6453,35 +6501,35 @@
         <v>1</v>
       </c>
       <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4">
-        <v>0</v>
-      </c>
+      <c r="M106" s="4"/>
       <c r="N106" s="4">
         <v>0</v>
       </c>
       <c r="O106" s="4">
         <v>0</v>
       </c>
-      <c r="P106" s="5">
+      <c r="P106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>3</v>
       </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
       <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="T106">
+      <c r="U106">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>34</v>
@@ -6507,35 +6555,35 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
+      <c r="M107" s="4"/>
       <c r="N107" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" s="4">
-        <v>0</v>
-      </c>
-      <c r="P107" s="5">
+        <v>1</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>3</v>
       </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
       <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="T107">
+      <c r="U107">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>34</v>
@@ -6561,35 +6609,35 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4">
-        <v>0</v>
-      </c>
+      <c r="M108" s="4"/>
       <c r="N108" s="4">
         <v>0</v>
       </c>
       <c r="O108" s="4">
         <v>0</v>
       </c>
-      <c r="P108" s="5">
+      <c r="P108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="5">
         <v>11.571428571428573</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>3</v>
       </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
       <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="T108">
+      <c r="U108">
         <f t="shared" si="4"/>
         <v>98.424899999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
         <v>34</v>
@@ -6615,35 +6663,35 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4">
-        <v>1</v>
-      </c>
+      <c r="M109" s="4"/>
       <c r="N109" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" s="4">
         <v>0</v>
       </c>
-      <c r="P109" s="5">
+      <c r="P109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>3</v>
       </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
       <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="T109">
+      <c r="U109">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
         <v>34</v>
@@ -6669,35 +6717,35 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4">
-        <v>0</v>
-      </c>
+      <c r="M110" s="4"/>
       <c r="N110" s="4">
         <v>0</v>
       </c>
       <c r="O110" s="4">
         <v>0</v>
       </c>
-      <c r="P110" s="5">
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>3</v>
       </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
       <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="T110">
+      <c r="U110">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
         <v>35</v>
@@ -6723,35 +6771,35 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4">
-        <v>0</v>
-      </c>
+      <c r="M111" s="4"/>
       <c r="N111" s="4">
         <v>0</v>
       </c>
       <c r="O111" s="4">
         <v>0</v>
       </c>
-      <c r="P111" s="5">
+      <c r="P111" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="5">
         <v>12</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>2</v>
       </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
       <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T111">
+      <c r="U111">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>35</v>
@@ -6777,35 +6825,35 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4">
-        <v>0</v>
-      </c>
+      <c r="M112" s="4"/>
       <c r="N112" s="4">
         <v>0</v>
       </c>
       <c r="O112" s="4">
         <v>0</v>
       </c>
-      <c r="P112" s="5">
+      <c r="P112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="5">
         <v>12</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>2</v>
       </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
       <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T112">
+      <c r="U112">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>35</v>
@@ -6831,35 +6879,35 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
+      <c r="M113" s="4"/>
       <c r="N113" s="4">
         <v>0</v>
       </c>
       <c r="O113" s="4">
         <v>0</v>
       </c>
-      <c r="P113" s="5">
+      <c r="P113" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="5">
         <v>12</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>2</v>
       </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
       <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T113">
+      <c r="U113">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
         <v>35</v>
@@ -6885,35 +6933,35 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4">
-        <v>0</v>
-      </c>
+      <c r="M114" s="4"/>
       <c r="N114" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" s="4">
-        <v>0</v>
-      </c>
-      <c r="P114" s="5">
+        <v>1</v>
+      </c>
+      <c r="P114" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="5">
         <v>12</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>2</v>
       </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
       <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T114">
+      <c r="U114">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
         <v>35</v>
@@ -6943,35 +6991,35 @@
         <v>1</v>
       </c>
       <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4">
-        <v>0</v>
-      </c>
+      <c r="M115" s="4"/>
       <c r="N115" s="4">
         <v>0</v>
       </c>
       <c r="O115" s="4">
         <v>0</v>
       </c>
-      <c r="P115" s="5">
+      <c r="P115" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="5">
         <v>19.439999999999998</v>
       </c>
-      <c r="Q115">
+      <c r="R115">
         <v>2</v>
       </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
       <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T115">
+      <c r="U115">
         <f t="shared" si="4"/>
         <v>177.16481999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>35</v>
@@ -6997,35 +7045,35 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4">
-        <v>0</v>
-      </c>
+      <c r="M116" s="4"/>
       <c r="N116" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" s="4">
-        <v>0</v>
-      </c>
-      <c r="P116" s="5">
+        <v>1</v>
+      </c>
+      <c r="P116" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="5">
         <v>12</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <v>2</v>
       </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
       <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T116">
+      <c r="U116">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>35</v>
@@ -7051,35 +7099,35 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4">
-        <v>0</v>
-      </c>
+      <c r="M117" s="4"/>
       <c r="N117" s="4">
         <v>0</v>
       </c>
       <c r="O117" s="4">
         <v>0</v>
       </c>
-      <c r="P117" s="5">
+      <c r="P117" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="5">
         <v>12</v>
       </c>
-      <c r="Q117">
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
       <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="T117">
+      <c r="U117">
         <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>36</v>
@@ -7105,35 +7153,35 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4">
-        <v>0</v>
-      </c>
+      <c r="M118" s="4"/>
       <c r="N118" s="4">
         <v>0</v>
       </c>
       <c r="O118" s="4">
         <v>0</v>
       </c>
-      <c r="P118" s="5">
+      <c r="P118" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="5">
         <v>12</v>
       </c>
-      <c r="Q118">
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
       <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="T118">
+      <c r="U118">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>36</v>
@@ -7159,35 +7207,35 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4">
-        <v>0</v>
-      </c>
+      <c r="M119" s="4"/>
       <c r="N119" s="4">
         <v>0</v>
       </c>
       <c r="O119" s="4">
         <v>0</v>
       </c>
-      <c r="P119" s="5">
+      <c r="P119" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="5">
         <v>12</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <v>2</v>
       </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
       <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="T119">
+      <c r="U119">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>36</v>
@@ -7213,35 +7261,35 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4">
-        <v>0</v>
-      </c>
+      <c r="M120" s="4"/>
       <c r="N120" s="4">
         <v>0</v>
       </c>
       <c r="O120" s="4">
         <v>0</v>
       </c>
-      <c r="P120" s="5">
+      <c r="P120" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="5">
         <v>9.6</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <v>2</v>
       </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
       <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="T120">
+      <c r="U120">
         <f t="shared" si="4"/>
         <v>43.744399999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
         <v>36</v>
@@ -7267,35 +7315,35 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4">
-        <v>0</v>
-      </c>
+      <c r="M121" s="4"/>
       <c r="N121" s="4">
         <v>0</v>
       </c>
       <c r="O121" s="4">
         <v>0</v>
       </c>
-      <c r="P121" s="5">
+      <c r="P121" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="5">
         <v>12</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <v>2</v>
       </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
       <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="T121">
+      <c r="U121">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>36</v>
@@ -7321,35 +7369,35 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4">
-        <v>0</v>
-      </c>
+      <c r="M122" s="4"/>
       <c r="N122" s="4">
         <v>0</v>
       </c>
       <c r="O122" s="4">
         <v>0</v>
       </c>
-      <c r="P122" s="5">
+      <c r="P122" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="5">
         <v>12</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <v>2</v>
       </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
       <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="T122">
+      <c r="U122">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>37</v>
@@ -7375,35 +7423,35 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4">
-        <v>0</v>
-      </c>
+      <c r="M123" s="4"/>
       <c r="N123" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" s="4">
         <v>1</v>
       </c>
-      <c r="P123" s="5">
+      <c r="P123" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="5">
         <v>9</v>
       </c>
-      <c r="Q123">
+      <c r="R123">
         <v>2</v>
       </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
       <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T123">
+      <c r="U123">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>37</v>
@@ -7433,35 +7481,35 @@
         <v>1</v>
       </c>
       <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4">
-        <v>0</v>
-      </c>
+      <c r="M124" s="4"/>
       <c r="N124" s="4">
         <v>0</v>
       </c>
       <c r="O124" s="4">
-        <v>1</v>
-      </c>
-      <c r="P124" s="5">
+        <v>0</v>
+      </c>
+      <c r="P124" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="5">
         <v>9</v>
       </c>
-      <c r="Q124">
+      <c r="R124">
         <v>2</v>
       </c>
-      <c r="R124">
-        <v>0</v>
-      </c>
       <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T124">
+      <c r="U124">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>37</v>
@@ -7487,35 +7535,35 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4">
-        <v>0</v>
-      </c>
+      <c r="M125" s="4"/>
       <c r="N125" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" s="4">
         <v>1</v>
       </c>
-      <c r="P125" s="5">
+      <c r="P125" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="5">
         <v>9</v>
       </c>
-      <c r="Q125">
+      <c r="R125">
         <v>2</v>
       </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
       <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T125">
+      <c r="U125">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>37</v>
@@ -7541,35 +7589,35 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4">
-        <v>0</v>
-      </c>
+      <c r="M126" s="4"/>
       <c r="N126" s="4">
         <v>0</v>
       </c>
       <c r="O126" s="4">
-        <v>1</v>
-      </c>
-      <c r="P126" s="5">
+        <v>0</v>
+      </c>
+      <c r="P126" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="5">
         <v>9</v>
       </c>
-      <c r="Q126">
+      <c r="R126">
         <v>2</v>
       </c>
-      <c r="R126">
-        <v>0</v>
-      </c>
       <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T126">
+      <c r="U126">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>37</v>
@@ -7595,35 +7643,35 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4">
-        <v>0</v>
-      </c>
+      <c r="M127" s="4"/>
       <c r="N127" s="4">
         <v>0</v>
       </c>
       <c r="O127" s="4">
-        <v>1</v>
-      </c>
-      <c r="P127" s="5">
+        <v>0</v>
+      </c>
+      <c r="P127" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="5">
         <v>9</v>
       </c>
-      <c r="Q127">
+      <c r="R127">
         <v>2</v>
       </c>
-      <c r="R127">
-        <v>0</v>
-      </c>
       <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T127">
+      <c r="U127">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>37</v>
@@ -7649,35 +7697,35 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4">
-        <v>0</v>
-      </c>
+      <c r="M128" s="4"/>
       <c r="N128" s="4">
         <v>0</v>
       </c>
       <c r="O128" s="4">
-        <v>1</v>
-      </c>
-      <c r="P128" s="5">
+        <v>0</v>
+      </c>
+      <c r="P128" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="5">
         <v>9</v>
       </c>
-      <c r="Q128">
+      <c r="R128">
         <v>2</v>
       </c>
-      <c r="R128">
-        <v>0</v>
-      </c>
       <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T128">
+      <c r="U128">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>37</v>
@@ -7703,35 +7751,35 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4">
-        <v>0</v>
-      </c>
+      <c r="M129" s="4"/>
       <c r="N129" s="4">
         <v>0</v>
       </c>
       <c r="O129" s="4">
-        <v>1</v>
-      </c>
-      <c r="P129" s="5">
+        <v>0</v>
+      </c>
+      <c r="P129" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="5">
         <v>9</v>
       </c>
-      <c r="Q129">
+      <c r="R129">
         <v>2</v>
       </c>
-      <c r="R129">
-        <v>0</v>
-      </c>
       <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T129">
+      <c r="U129">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>37</v>
@@ -7757,35 +7805,35 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4">
-        <v>0</v>
-      </c>
+      <c r="M130" s="4"/>
       <c r="N130" s="4">
         <v>0</v>
       </c>
       <c r="O130" s="4">
-        <v>1</v>
-      </c>
-      <c r="P130" s="5">
+        <v>0</v>
+      </c>
+      <c r="P130" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="5">
         <v>9</v>
       </c>
-      <c r="Q130">
+      <c r="R130">
         <v>2</v>
       </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
       <c r="S130">
-        <f t="shared" ref="S130:S151" si="6">_xlfn.FLOOR.MATH(F130*0.621371)</f>
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <f t="shared" ref="T130:T151" si="6">_xlfn.FLOOR.MATH(F130*0.621371)</f>
         <v>12</v>
       </c>
-      <c r="T130">
+      <c r="U130">
         <f t="shared" si="4"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>37</v>
@@ -7811,35 +7859,35 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4">
-        <v>0</v>
-      </c>
+      <c r="M131" s="4"/>
       <c r="N131" s="4">
         <v>0</v>
       </c>
       <c r="O131" s="4">
-        <v>1</v>
-      </c>
-      <c r="P131" s="5">
+        <v>0</v>
+      </c>
+      <c r="P131" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="5">
         <v>9</v>
       </c>
-      <c r="Q131">
+      <c r="R131">
         <v>2</v>
       </c>
-      <c r="R131">
-        <v>0</v>
-      </c>
       <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T131">
-        <f t="shared" ref="T131:T151" si="7">D131 * 1.09361</f>
+      <c r="U131">
+        <f t="shared" ref="U131:U151" si="7">D131 * 1.09361</f>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>37</v>
@@ -7865,35 +7913,35 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4">
-        <v>0</v>
-      </c>
+      <c r="M132" s="4"/>
       <c r="N132" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132" s="4">
         <v>1</v>
       </c>
-      <c r="P132" s="5">
+      <c r="P132" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="5">
         <v>9</v>
       </c>
-      <c r="Q132">
+      <c r="R132">
         <v>2</v>
       </c>
-      <c r="R132">
-        <v>0</v>
-      </c>
       <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T132">
+      <c r="U132">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>37</v>
@@ -7923,35 +7971,35 @@
         <v>0</v>
       </c>
       <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4">
-        <v>0</v>
-      </c>
+      <c r="M133" s="4"/>
       <c r="N133" s="4">
         <v>0</v>
       </c>
       <c r="O133" s="4">
-        <v>1</v>
-      </c>
-      <c r="P133" s="5">
+        <v>0</v>
+      </c>
+      <c r="P133" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="5">
         <v>9</v>
       </c>
-      <c r="Q133">
+      <c r="R133">
         <v>2</v>
       </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
       <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T133">
+      <c r="U133">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>37</v>
@@ -7977,35 +8025,35 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4">
-        <v>0</v>
-      </c>
+      <c r="M134" s="4"/>
       <c r="N134" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" s="4">
         <v>1</v>
       </c>
-      <c r="P134" s="5">
+      <c r="P134" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="5">
         <v>9</v>
       </c>
-      <c r="Q134">
+      <c r="R134">
         <v>2</v>
       </c>
-      <c r="R134">
-        <v>0</v>
-      </c>
       <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T134">
+      <c r="U134">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>37</v>
@@ -8031,35 +8079,35 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4">
-        <v>0</v>
-      </c>
+      <c r="M135" s="4"/>
       <c r="N135" s="4">
         <v>0</v>
       </c>
       <c r="O135" s="4">
-        <v>1</v>
-      </c>
-      <c r="P135" s="5">
+        <v>0</v>
+      </c>
+      <c r="P135" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="5">
         <v>9</v>
       </c>
-      <c r="Q135">
+      <c r="R135">
         <v>2</v>
       </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
       <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T135">
+      <c r="U135">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>37</v>
@@ -8085,35 +8133,35 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4">
-        <v>0</v>
-      </c>
+      <c r="M136" s="4"/>
       <c r="N136" s="4">
         <v>0</v>
       </c>
       <c r="O136" s="4">
-        <v>1</v>
-      </c>
-      <c r="P136" s="5">
+        <v>0</v>
+      </c>
+      <c r="P136" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="5">
         <v>9</v>
       </c>
-      <c r="Q136">
-        <v>1</v>
-      </c>
       <c r="R136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T136">
+      <c r="U136">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>37</v>
@@ -8139,35 +8187,35 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4">
-        <v>0</v>
-      </c>
+      <c r="M137" s="4"/>
       <c r="N137" s="4">
         <v>0</v>
       </c>
       <c r="O137" s="4">
-        <v>1</v>
-      </c>
-      <c r="P137" s="5">
+        <v>0</v>
+      </c>
+      <c r="P137" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="5">
         <v>9</v>
       </c>
-      <c r="Q137">
-        <v>1</v>
-      </c>
       <c r="R137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T137">
+      <c r="U137">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>37</v>
@@ -8193,35 +8241,35 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4">
-        <v>0</v>
-      </c>
+      <c r="M138" s="4"/>
       <c r="N138" s="4">
         <v>0</v>
       </c>
       <c r="O138" s="4">
-        <v>1</v>
-      </c>
-      <c r="P138" s="5">
+        <v>0</v>
+      </c>
+      <c r="P138" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="5">
         <v>9</v>
       </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
       <c r="R138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T138">
+      <c r="U138">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>37</v>
@@ -8247,35 +8295,35 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4">
-        <v>0</v>
-      </c>
+      <c r="M139" s="4"/>
       <c r="N139" s="4">
         <v>0</v>
       </c>
       <c r="O139" s="4">
-        <v>1</v>
-      </c>
-      <c r="P139" s="5">
+        <v>0</v>
+      </c>
+      <c r="P139" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="5">
         <v>9</v>
       </c>
-      <c r="Q139">
-        <v>1</v>
-      </c>
       <c r="R139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T139">
+      <c r="U139">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>37</v>
@@ -8301,35 +8349,35 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4">
-        <v>0</v>
-      </c>
+      <c r="M140" s="4"/>
       <c r="N140" s="4">
         <v>0</v>
       </c>
       <c r="O140" s="4">
-        <v>1</v>
-      </c>
-      <c r="P140" s="5">
+        <v>0</v>
+      </c>
+      <c r="P140" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="5">
         <v>9</v>
       </c>
-      <c r="Q140">
-        <v>1</v>
-      </c>
       <c r="R140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T140">
+      <c r="U140">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>37</v>
@@ -8355,35 +8403,35 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4">
-        <v>0</v>
-      </c>
+      <c r="M141" s="4"/>
       <c r="N141" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141" s="4">
         <v>1</v>
       </c>
-      <c r="P141" s="5">
+      <c r="P141" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="5">
         <v>9</v>
       </c>
-      <c r="Q141">
-        <v>1</v>
-      </c>
       <c r="R141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T141">
+      <c r="U141">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>37</v>
@@ -8413,35 +8461,35 @@
         <v>1</v>
       </c>
       <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4">
-        <v>0</v>
-      </c>
+      <c r="M142" s="4"/>
       <c r="N142" s="4">
         <v>0</v>
       </c>
       <c r="O142" s="4">
-        <v>1</v>
-      </c>
-      <c r="P142" s="5">
+        <v>0</v>
+      </c>
+      <c r="P142" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="5">
         <v>9</v>
       </c>
-      <c r="Q142">
-        <v>1</v>
-      </c>
       <c r="R142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T142">
+      <c r="U142">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>37</v>
@@ -8467,35 +8515,35 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4">
-        <v>0</v>
-      </c>
+      <c r="M143" s="4"/>
       <c r="N143" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O143" s="4">
         <v>1</v>
       </c>
-      <c r="P143" s="5">
+      <c r="P143" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="5">
         <v>9</v>
       </c>
-      <c r="Q143">
-        <v>1</v>
-      </c>
       <c r="R143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T143">
+      <c r="U143">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>37</v>
@@ -8521,35 +8569,35 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4">
-        <v>0</v>
-      </c>
+      <c r="M144" s="4"/>
       <c r="N144" s="4">
         <v>0</v>
       </c>
       <c r="O144" s="4">
-        <v>1</v>
-      </c>
-      <c r="P144" s="5">
+        <v>0</v>
+      </c>
+      <c r="P144" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="5">
         <v>9</v>
       </c>
-      <c r="Q144">
-        <v>1</v>
-      </c>
       <c r="R144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T144">
+      <c r="U144">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
         <v>38</v>
@@ -8575,35 +8623,35 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4">
-        <v>0</v>
-      </c>
+      <c r="M145" s="4"/>
       <c r="N145" s="4">
         <v>0</v>
       </c>
       <c r="O145" s="4">
         <v>0</v>
       </c>
-      <c r="P145" s="5">
+      <c r="P145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="5">
         <v>9</v>
       </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
       <c r="R145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T145">
+      <c r="U145">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>38</v>
@@ -8629,35 +8677,35 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4">
-        <v>0</v>
-      </c>
+      <c r="M146" s="4"/>
       <c r="N146" s="4">
         <v>0</v>
       </c>
       <c r="O146" s="4">
         <v>0</v>
       </c>
-      <c r="P146" s="5">
+      <c r="P146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="5">
         <v>9</v>
       </c>
-      <c r="Q146">
-        <v>1</v>
-      </c>
       <c r="R146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T146">
+      <c r="U146">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>38</v>
@@ -8683,35 +8731,35 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4">
-        <v>0</v>
-      </c>
+      <c r="M147" s="4"/>
       <c r="N147" s="4">
         <v>0</v>
       </c>
       <c r="O147" s="4">
         <v>0</v>
       </c>
-      <c r="P147" s="5">
+      <c r="P147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="5">
         <v>9</v>
       </c>
-      <c r="Q147">
-        <v>1</v>
-      </c>
       <c r="R147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T147">
+      <c r="U147">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>39</v>
@@ -8737,35 +8785,35 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4">
-        <v>0</v>
-      </c>
+      <c r="M148" s="4"/>
       <c r="N148" s="4">
         <v>0</v>
       </c>
       <c r="O148" s="4">
         <v>0</v>
       </c>
-      <c r="P148" s="5">
+      <c r="P148" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="5">
         <v>9</v>
       </c>
-      <c r="Q148">
-        <v>1</v>
-      </c>
       <c r="R148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T148">
+      <c r="U148">
         <f t="shared" si="7"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
         <v>39</v>
@@ -8791,35 +8839,35 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4">
-        <v>0</v>
-      </c>
+      <c r="M149" s="4"/>
       <c r="N149" s="4">
         <v>0</v>
       </c>
       <c r="O149" s="4">
         <v>0</v>
       </c>
-      <c r="P149" s="5">
+      <c r="P149" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="5">
         <v>33.119999999999997</v>
       </c>
-      <c r="Q149">
-        <v>1</v>
-      </c>
       <c r="R149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T149">
+      <c r="U149">
         <f t="shared" si="7"/>
         <v>201.22424000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
         <v>39</v>
@@ -8845,35 +8893,35 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4">
-        <v>0</v>
-      </c>
+      <c r="M150" s="4"/>
       <c r="N150" s="4">
         <v>0</v>
       </c>
       <c r="O150" s="4">
         <v>0</v>
       </c>
-      <c r="P150" s="5">
+      <c r="P150" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="5">
         <v>7.1999999999999993</v>
       </c>
-      <c r="Q150">
-        <v>1</v>
-      </c>
       <c r="R150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T150">
+      <c r="U150">
         <f t="shared" si="7"/>
         <v>43.744399999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
         <v>40</v>
@@ -8899,11 +8947,11 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-      <c r="L151" s="4">
-        <v>1</v>
+      <c r="L151" t="s">
+        <v>64</v>
       </c>
       <c r="M151" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" s="4">
         <v>0</v>
@@ -8911,20 +8959,23 @@
       <c r="O151" s="4">
         <v>0</v>
       </c>
-      <c r="P151" s="5">
+      <c r="P151" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="5">
         <v>6.3</v>
       </c>
-      <c r="Q151">
-        <v>1</v>
-      </c>
       <c r="R151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="T151">
+      <c r="U151">
         <f t="shared" si="7"/>
         <v>38.276350000000001</v>
       </c>
@@ -8938,7 +8989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88653644-AF3E-4625-A5A7-2FF88949AA53}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -8952,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21C716-6F80-4E82-9830-5228AB87C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871962D1-91EE-4376-8696-15B94404946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="1920" yWindow="1656" windowWidth="17280" windowHeight="11304" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Connor M</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{AB36E1A5-B427-40C4-84DD-4DFE4F4A8164}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Connor M:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+For switch exit column, if the corresponding block has a value in the column it is a switch exit and the corresponding value in the column is the switch entrance</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -265,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +322,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -663,11 +710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8982,6 +9029,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871962D1-91EE-4376-8696-15B94404946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D3714A-BCE0-4196-BBA1-DC6935A7F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1656" windowWidth="17280" windowHeight="11304" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
   <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4953,7 +4953,9 @@
       <c r="L77" t="s">
         <v>67</v>
       </c>
-      <c r="M77" s="4"/>
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
       <c r="N77" s="4">
         <v>0</v>
       </c>
@@ -5504,7 +5506,9 @@
       <c r="L87" t="s">
         <v>68</v>
       </c>
-      <c r="M87" s="4"/>
+      <c r="M87" s="4">
+        <v>1</v>
+      </c>
       <c r="N87" s="4">
         <v>0</v>
       </c>
@@ -6271,7 +6275,9 @@
       <c r="L101" t="s">
         <v>68</v>
       </c>
-      <c r="M101" s="4"/>
+      <c r="M101" s="4">
+        <v>1</v>
+      </c>
       <c r="N101" s="4">
         <v>0</v>
       </c>
@@ -6328,7 +6334,9 @@
       <c r="L102" t="s">
         <v>67</v>
       </c>
-      <c r="M102" s="4"/>
+      <c r="M102" s="4">
+        <v>1</v>
+      </c>
       <c r="N102" s="4">
         <v>0</v>
       </c>
@@ -9037,7 +9045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88653644-AF3E-4625-A5A7-2FF88949AA53}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21C716-6F80-4E82-9830-5228AB87C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF479C6-9868-4B95-B399-AE9122ECF2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="Y143" sqref="Y143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,8 +809,8 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T33" si="0">_xlfn.FLOOR.MATH(F2*0.621371)</f>
-        <v>27</v>
+        <f>F2*0.621371</f>
+        <v>27.961694999999999</v>
       </c>
       <c r="U2">
         <f>D2 * 1.09361</f>
@@ -867,8 +867,8 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" ref="T3:T66" si="0">F3*0.621371</f>
+        <v>27.961694999999999</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="1">D3 * 1.09361</f>
@@ -922,7 +922,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
@@ -976,7 +976,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.961694999999999</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>37.282260000000001</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>37.282260000000001</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>37.282260000000001</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="T21">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>37.282260000000001</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="T23">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>43.49597</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>18.64113</v>
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>18.64113</v>
       </c>
       <c r="U29">
         <f t="shared" si="1"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>18.64113</v>
       </c>
       <c r="U30">
         <f t="shared" si="1"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>18.64113</v>
       </c>
       <c r="U31">
         <f t="shared" si="1"/>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>18.64113</v>
       </c>
       <c r="U32">
         <f t="shared" si="1"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>18.64113</v>
       </c>
       <c r="U33">
         <f t="shared" si="1"/>
@@ -2570,8 +2570,8 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="shared" ref="T34:T65" si="2">_xlfn.FLOOR.MATH(F34*0.621371)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U34">
         <f t="shared" si="1"/>
@@ -2624,8 +2624,8 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U35">
         <f t="shared" si="1"/>
@@ -2678,8 +2678,8 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U36">
         <f t="shared" si="1"/>
@@ -2732,8 +2732,8 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U37">
         <f t="shared" si="1"/>
@@ -2786,8 +2786,8 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U38">
         <f t="shared" si="1"/>
@@ -2840,8 +2840,8 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U39">
         <f t="shared" si="1"/>
@@ -2898,8 +2898,8 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U40">
         <f t="shared" si="1"/>
@@ -2952,8 +2952,8 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U41">
         <f t="shared" si="1"/>
@@ -3006,8 +3006,8 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U42">
         <f t="shared" si="1"/>
@@ -3060,8 +3060,8 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U43">
         <f t="shared" si="1"/>
@@ -3114,8 +3114,8 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U44">
         <f t="shared" si="1"/>
@@ -3168,8 +3168,8 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U45">
         <f t="shared" si="1"/>
@@ -3222,8 +3222,8 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U46">
         <f t="shared" si="1"/>
@@ -3276,8 +3276,8 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U47">
         <f t="shared" si="1"/>
@@ -3330,8 +3330,8 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U48">
         <f t="shared" si="1"/>
@@ -3388,8 +3388,8 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U49">
         <f t="shared" si="1"/>
@@ -3442,8 +3442,8 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U50">
         <f t="shared" si="1"/>
@@ -3496,8 +3496,8 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U51">
         <f t="shared" si="1"/>
@@ -3550,8 +3550,8 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U52">
         <f t="shared" si="1"/>
@@ -3604,8 +3604,8 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U53">
         <f t="shared" si="1"/>
@@ -3658,8 +3658,8 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U54">
         <f t="shared" si="1"/>
@@ -3712,8 +3712,8 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U55">
         <f t="shared" si="1"/>
@@ -3766,8 +3766,8 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U56">
         <f t="shared" si="1"/>
@@ -3820,8 +3820,8 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U57">
         <f t="shared" si="1"/>
@@ -3880,8 +3880,8 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U58">
         <f t="shared" si="1"/>
@@ -3938,8 +3938,8 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U59">
         <f t="shared" si="1"/>
@@ -3992,8 +3992,8 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U60">
         <f t="shared" si="1"/>
@@ -4046,8 +4046,8 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U61">
         <f t="shared" si="1"/>
@@ -4100,8 +4100,8 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U62">
         <f t="shared" si="1"/>
@@ -4158,8 +4158,8 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
       </c>
       <c r="U63">
         <f t="shared" si="1"/>
@@ -4214,8 +4214,8 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>43.49597</v>
       </c>
       <c r="U64">
         <f t="shared" si="1"/>
@@ -4268,8 +4268,8 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>43.49597</v>
       </c>
       <c r="U65">
         <f t="shared" si="1"/>
@@ -4326,8 +4326,8 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <f t="shared" ref="T66:T97" si="3">_xlfn.FLOOR.MATH(F66*0.621371)</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>43.49597</v>
       </c>
       <c r="U66">
         <f t="shared" si="1"/>
@@ -4380,11 +4380,11 @@
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f t="shared" ref="T67:T130" si="2">F67*0.621371</f>
+        <v>43.49597</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U130" si="4">D67 * 1.09361</f>
+        <f t="shared" ref="U67:U130" si="3">D67 * 1.09361</f>
         <v>218.72199999999998</v>
       </c>
     </row>
@@ -4434,11 +4434,11 @@
         <v>0</v>
       </c>
       <c r="T68">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U68">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4488,11 +4488,11 @@
         <v>0</v>
       </c>
       <c r="T69">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U69">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4542,11 +4542,11 @@
         <v>0</v>
       </c>
       <c r="T70">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4596,11 +4596,11 @@
         <v>0</v>
       </c>
       <c r="T71">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4650,11 +4650,11 @@
         <v>0</v>
       </c>
       <c r="T72">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4704,11 +4704,11 @@
         <v>0</v>
       </c>
       <c r="T73">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U73">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4762,11 +4762,11 @@
         <v>0</v>
       </c>
       <c r="T74">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U74">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4816,11 +4816,11 @@
         <v>0</v>
       </c>
       <c r="T75">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U75">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4870,11 +4870,11 @@
         <v>0</v>
       </c>
       <c r="T76">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U76">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4926,11 +4926,11 @@
         <v>0</v>
       </c>
       <c r="T77">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U77">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -4986,11 +4986,11 @@
         <v>0</v>
       </c>
       <c r="T78">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U78">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="T79">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U79">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5094,11 +5094,11 @@
         <v>0</v>
       </c>
       <c r="T80">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U80">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5148,11 +5148,11 @@
         <v>0</v>
       </c>
       <c r="T81">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U81">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5202,11 +5202,11 @@
         <v>0</v>
       </c>
       <c r="T82">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U82">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5256,11 +5256,11 @@
         <v>0</v>
       </c>
       <c r="T83">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U83">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5310,11 +5310,11 @@
         <v>0</v>
       </c>
       <c r="T84">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U84">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5364,11 +5364,11 @@
         <v>0</v>
       </c>
       <c r="T85">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U85">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5420,11 +5420,11 @@
         <v>0</v>
       </c>
       <c r="T86">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U86">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
@@ -5477,11 +5477,11 @@
         <v>0</v>
       </c>
       <c r="T87">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U87">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -5531,11 +5531,11 @@
         <v>0</v>
       </c>
       <c r="T88">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U88">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="4"/>
         <v>94.706625999999986</v>
       </c>
     </row>
@@ -5589,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="T89">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U89">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -5643,11 +5643,11 @@
         <v>0</v>
       </c>
       <c r="T90">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U90">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5697,11 +5697,11 @@
         <v>0</v>
       </c>
       <c r="T91">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U91">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5751,11 +5751,11 @@
         <v>0</v>
       </c>
       <c r="T92">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U92">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5805,11 +5805,11 @@
         <v>0</v>
       </c>
       <c r="T93">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U93">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5859,11 +5859,11 @@
         <v>0</v>
       </c>
       <c r="T94">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U94">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5913,11 +5913,11 @@
         <v>0</v>
       </c>
       <c r="T95">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U95">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -5967,11 +5967,11 @@
         <v>0</v>
       </c>
       <c r="T96">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U96">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6025,11 +6025,11 @@
         <v>0</v>
       </c>
       <c r="T97">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U97">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6079,11 +6079,11 @@
         <v>0</v>
       </c>
       <c r="T98">
-        <f t="shared" ref="T98:T129" si="5">_xlfn.FLOOR.MATH(F98*0.621371)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
       </c>
       <c r="U98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6133,11 +6133,11 @@
         <v>0</v>
       </c>
       <c r="T99">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
       </c>
       <c r="U99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6187,11 +6187,11 @@
         <v>0</v>
       </c>
       <c r="T100">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
       </c>
       <c r="U100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6244,11 +6244,11 @@
         <v>0</v>
       </c>
       <c r="T101">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
       </c>
       <c r="U101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
@@ -6301,11 +6301,11 @@
         <v>0</v>
       </c>
       <c r="T102">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>16.155646000000001</v>
       </c>
       <c r="U102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38.276350000000001</v>
       </c>
     </row>
@@ -6355,11 +6355,11 @@
         <v>0</v>
       </c>
       <c r="T103">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
       </c>
       <c r="U103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6409,11 +6409,11 @@
         <v>0</v>
       </c>
       <c r="T104">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
       </c>
       <c r="U104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6463,11 +6463,11 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
       </c>
       <c r="U105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>87.488799999999998</v>
       </c>
     </row>
@@ -6521,11 +6521,11 @@
         <v>0</v>
       </c>
       <c r="T106">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
       </c>
       <c r="U106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6575,11 +6575,11 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
       </c>
       <c r="U107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6629,11 +6629,11 @@
         <v>0</v>
       </c>
       <c r="T108">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
       </c>
       <c r="U108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>98.424899999999994</v>
       </c>
     </row>
@@ -6683,11 +6683,11 @@
         <v>0</v>
       </c>
       <c r="T109">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
       </c>
       <c r="U109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6737,11 +6737,11 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
       </c>
       <c r="U110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6791,11 +6791,11 @@
         <v>0</v>
       </c>
       <c r="T111">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
       </c>
       <c r="U111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6845,11 +6845,11 @@
         <v>0</v>
       </c>
       <c r="T112">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
       </c>
       <c r="U112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6899,11 +6899,11 @@
         <v>0</v>
       </c>
       <c r="T113">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
       </c>
       <c r="U113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -6953,11 +6953,11 @@
         <v>0</v>
       </c>
       <c r="T114">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
       </c>
       <c r="U114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -7011,11 +7011,11 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
       </c>
       <c r="U115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>177.16481999999999</v>
       </c>
     </row>
@@ -7065,11 +7065,11 @@
         <v>0</v>
       </c>
       <c r="T116">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
       </c>
       <c r="U116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -7119,11 +7119,11 @@
         <v>0</v>
       </c>
       <c r="T117">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
       </c>
       <c r="U117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
@@ -7173,11 +7173,11 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
       </c>
       <c r="U118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7227,11 +7227,11 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
       </c>
       <c r="U119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7281,11 +7281,11 @@
         <v>0</v>
       </c>
       <c r="T120">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
       </c>
       <c r="U120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43.744399999999999</v>
       </c>
     </row>
@@ -7335,11 +7335,11 @@
         <v>0</v>
       </c>
       <c r="T121">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
       </c>
       <c r="U121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7389,11 +7389,11 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
       </c>
       <c r="U122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7443,11 +7443,11 @@
         <v>0</v>
       </c>
       <c r="T123">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
       </c>
       <c r="U123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7501,11 +7501,11 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
       </c>
       <c r="U124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7555,11 +7555,11 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
       </c>
       <c r="U125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
       </c>
       <c r="U126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7663,11 +7663,11 @@
         <v>0</v>
       </c>
       <c r="T127">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
       </c>
       <c r="U127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7717,11 +7717,11 @@
         <v>0</v>
       </c>
       <c r="T128">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
       </c>
       <c r="U128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7771,11 +7771,11 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
       </c>
       <c r="U129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7825,11 +7825,11 @@
         <v>0</v>
       </c>
       <c r="T130">
-        <f t="shared" ref="T130:T151" si="6">_xlfn.FLOOR.MATH(F130*0.621371)</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
       </c>
       <c r="U130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7879,11 +7879,11 @@
         <v>0</v>
       </c>
       <c r="T131">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" ref="T131:T151" si="4">F131*0.621371</f>
+        <v>12.42742</v>
       </c>
       <c r="U131">
-        <f t="shared" ref="U131:U151" si="7">D131 * 1.09361</f>
+        <f t="shared" ref="U131:U151" si="5">D131 * 1.09361</f>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7933,11 +7933,11 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -7991,11 +7991,11 @@
         <v>0</v>
       </c>
       <c r="T133">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8045,11 +8045,11 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8099,11 +8099,11 @@
         <v>0</v>
       </c>
       <c r="T135">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8153,11 +8153,11 @@
         <v>0</v>
       </c>
       <c r="T136">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8207,11 +8207,11 @@
         <v>0</v>
       </c>
       <c r="T137">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8261,11 +8261,11 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8315,11 +8315,11 @@
         <v>0</v>
       </c>
       <c r="T139">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8369,11 +8369,11 @@
         <v>0</v>
       </c>
       <c r="T140">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8423,11 +8423,11 @@
         <v>0</v>
       </c>
       <c r="T141">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8481,11 +8481,11 @@
         <v>0</v>
       </c>
       <c r="T142">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8535,11 +8535,11 @@
         <v>0</v>
       </c>
       <c r="T143">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8589,11 +8589,11 @@
         <v>0</v>
       </c>
       <c r="T144">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8643,11 +8643,11 @@
         <v>0</v>
       </c>
       <c r="T145">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8697,11 +8697,11 @@
         <v>0</v>
       </c>
       <c r="T146">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8751,11 +8751,11 @@
         <v>0</v>
       </c>
       <c r="T147">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8805,11 +8805,11 @@
         <v>0</v>
       </c>
       <c r="T148">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -8859,11 +8859,11 @@
         <v>0</v>
       </c>
       <c r="T149">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>201.22424000000001</v>
       </c>
     </row>
@@ -8913,11 +8913,11 @@
         <v>0</v>
       </c>
       <c r="T150">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>43.744399999999999</v>
       </c>
     </row>
@@ -8972,11 +8972,11 @@
         <v>0</v>
       </c>
       <c r="T151">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
       </c>
       <c r="U151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38.276350000000001</v>
       </c>
     </row>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cjame\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70F400-791D-4721-AFC1-AF13C9A34895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF479C6-9868-4B95-B399-AE9122ECF2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2700" windowWidth="29040" windowHeight="15840" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
   <si>
     <t>Section</t>
   </si>
@@ -206,18 +207,6 @@
     <t>Castle Shannon</t>
   </si>
   <si>
-    <t>12-13,1-13</t>
-  </si>
-  <si>
-    <t>28-29,150-28</t>
-  </si>
-  <si>
-    <t>76-77,77-101</t>
-  </si>
-  <si>
-    <t>85-86,100-85</t>
-  </si>
-  <si>
     <t>Territory</t>
   </si>
   <si>
@@ -227,13 +216,49 @@
     <t>57-Yard, 57-58</t>
   </si>
   <si>
-    <t>Yard-63, 62-63</t>
-  </si>
-  <si>
     <t>Speed Limit (MPH)</t>
   </si>
   <si>
     <t>Block Length (y)</t>
+  </si>
+  <si>
+    <t>Increasing</t>
+  </si>
+  <si>
+    <t>Switch Exit</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>I57</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>N77</t>
+  </si>
+  <si>
+    <t>N85</t>
+  </si>
+  <si>
+    <t>13-12,13-1</t>
+  </si>
+  <si>
+    <t>28-29,28-150</t>
+  </si>
+  <si>
+    <t>63-Yard, 63-62</t>
+  </si>
+  <si>
+    <t>77-76,77-101</t>
+  </si>
+  <si>
+    <t>85-86,85-100</t>
   </si>
 </sst>
 </file>
@@ -639,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
-  <dimension ref="A1:T151"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="Y143" sqref="Y143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,17 +681,17 @@
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -700,35 +725,38 @@
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -756,37 +784,40 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>1</v>
+      <c r="L2" t="s">
+        <v>63</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
         <v>8</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S33" si="0">_xlfn.FLOOR.MATH(F2*0.621371)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="T2">
+        <f>F2*0.621371</f>
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U2">
         <f>D2 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -816,35 +847,35 @@
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
         <v>8</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="1">D3 * 1.09361</f>
+        <f t="shared" ref="T3:T66" si="0">F3*0.621371</f>
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="1">D3 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -870,35 +901,35 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>8</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T4">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -924,35 +955,35 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
+      <c r="M5" s="4"/>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>8</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T5">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -978,35 +1009,35 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>8</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T6">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -1032,35 +1063,35 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>8</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T7">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -1086,35 +1117,35 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>8</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T8">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -1140,35 +1171,35 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
+      <c r="M9" s="4"/>
       <c r="N9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>8</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T9">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1198,35 +1229,35 @@
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>8</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T10">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -1252,35 +1283,35 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>8</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T11">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -1306,35 +1337,35 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>8</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T12">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -1359,14 +1390,11 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1</v>
+      <c r="L13" t="s">
+        <v>63</v>
       </c>
       <c r="M13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
@@ -1374,25 +1402,28 @@
       <c r="O13" s="4">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>8</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T13">
+        <v>27.961694999999999</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -1417,36 +1448,38 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
+      <c r="K14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T14">
+        <v>43.49597</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -1472,35 +1505,35 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T15">
+        <v>43.49597</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
@@ -1526,35 +1559,35 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T16">
+        <v>43.49597</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
@@ -1584,35 +1617,35 @@
         <v>2</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T17">
+        <v>43.49597</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -1638,35 +1671,35 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
         <v>9</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="T18">
+        <v>37.282260000000001</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -1692,35 +1725,35 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
         <v>9</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="T19">
+        <v>37.282260000000001</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -1746,35 +1779,35 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
         <v>9</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="T20">
+        <v>37.282260000000001</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
@@ -1800,35 +1833,35 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
         <v>9</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="T21">
+        <v>37.282260000000001</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
@@ -1854,35 +1887,35 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T22">
+        <v>43.49597</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>20</v>
@@ -1912,35 +1945,35 @@
         <v>2</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <v>0</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T23">
+        <v>43.49597</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>20</v>
@@ -1966,35 +1999,35 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T24">
+        <v>43.49597</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>20</v>
@@ -2020,35 +2053,35 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
         <v>0</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T25">
+        <v>43.49597</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -2074,35 +2107,35 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
+      <c r="M26" s="4"/>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <v>0</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T26">
+        <v>43.49597</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>20</v>
@@ -2128,35 +2161,35 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
+      <c r="M27" s="4"/>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T27">
+        <v>43.49597</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>20</v>
@@ -2182,35 +2215,35 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
+      <c r="M28" s="4"/>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <v>0</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
         <v>6</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="T28">
+        <v>18.64113</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>20</v>
@@ -2236,37 +2269,37 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M29" s="4"/>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
         <v>6</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="T29">
+        <v>18.64113</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>21</v>
@@ -2292,11 +2325,11 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4">
-        <v>1</v>
+      <c r="L30" t="s">
+        <v>64</v>
       </c>
       <c r="M30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
@@ -2304,25 +2337,28 @@
       <c r="O30" s="4">
         <v>0</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
         <v>6</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="T30">
+        <v>18.64113</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>21</v>
@@ -2348,35 +2384,35 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
+      <c r="M31" s="4"/>
       <c r="N31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
         <v>6</v>
       </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="T31">
+        <v>18.64113</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>21</v>
@@ -2406,35 +2442,35 @@
         <v>0</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
+      <c r="M32" s="4"/>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
         <v>6</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="T32">
+        <v>18.64113</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>21</v>
@@ -2460,35 +2496,35 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="4">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
         <v>6</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="T33">
+        <v>18.64113</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>22</v>
@@ -2514,35 +2550,35 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
+      <c r="M34" s="4"/>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
         <v>6</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34:S65" si="2">_xlfn.FLOOR.MATH(F34*0.621371)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T34">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>22</v>
@@ -2568,35 +2604,35 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
+      <c r="M35" s="4"/>
       <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="O35" s="4">
         <v>0</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
         <v>6</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T35">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>22</v>
@@ -2622,35 +2658,35 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
+      <c r="M36" s="4"/>
       <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
         <v>6</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T36">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>23</v>
@@ -2676,35 +2712,35 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="4">
         <v>0</v>
       </c>
       <c r="O37" s="4">
-        <v>1</v>
-      </c>
-      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="5">
         <v>6</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
       <c r="S37">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T37">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>23</v>
@@ -2730,35 +2766,35 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4">
-        <v>0</v>
-      </c>
+      <c r="M38" s="4"/>
       <c r="N38" s="4">
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <v>1</v>
-      </c>
-      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="5">
         <v>6</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
       <c r="S38">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T38">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>23</v>
@@ -2784,35 +2820,35 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="4">
         <v>1</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="5">
         <v>6</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>2</v>
       </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
       <c r="S39">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T39">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U39">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>23</v>
@@ -2842,35 +2878,35 @@
         <v>1</v>
       </c>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
+      <c r="M40" s="4"/>
       <c r="N40" s="4">
         <v>0</v>
       </c>
       <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="5">
         <v>6</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
       <c r="S40">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T40">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U40">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>23</v>
@@ -2896,35 +2932,35 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="4">
         <v>1</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="5">
         <v>6</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T41">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U41">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>23</v>
@@ -2950,35 +2986,35 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
+      <c r="M42" s="4"/>
       <c r="N42" s="4">
         <v>0</v>
       </c>
       <c r="O42" s="4">
-        <v>1</v>
-      </c>
-      <c r="P42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="5">
         <v>6</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T42">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U42">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>23</v>
@@ -3004,35 +3040,35 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="4">
         <v>0</v>
       </c>
       <c r="O43" s="4">
-        <v>1</v>
-      </c>
-      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="5">
         <v>6</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>2</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
       <c r="S43">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T43">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U43">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>23</v>
@@ -3058,35 +3094,35 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4">
-        <v>0</v>
-      </c>
+      <c r="M44" s="4"/>
       <c r="N44" s="4">
         <v>0</v>
       </c>
       <c r="O44" s="4">
-        <v>1</v>
-      </c>
-      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="5">
         <v>6</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>2</v>
       </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
       <c r="S44">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T44">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U44">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>23</v>
@@ -3112,35 +3148,35 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="4">
         <v>0</v>
       </c>
       <c r="O45" s="4">
-        <v>1</v>
-      </c>
-      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="5">
         <v>6</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>2</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T45">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U45">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>23</v>
@@ -3166,35 +3202,35 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4">
-        <v>0</v>
-      </c>
+      <c r="M46" s="4"/>
       <c r="N46" s="4">
         <v>0</v>
       </c>
       <c r="O46" s="4">
-        <v>1</v>
-      </c>
-      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="5">
         <v>6</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>2</v>
       </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
       <c r="S46">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T46">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U46">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>23</v>
@@ -3220,35 +3256,35 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>0</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="4">
         <v>0</v>
       </c>
       <c r="O47" s="4">
-        <v>1</v>
-      </c>
-      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="5">
         <v>6</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>2</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
       <c r="S47">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T47">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U47">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>23</v>
@@ -3274,35 +3310,35 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
+      <c r="M48" s="4"/>
       <c r="N48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="4">
         <v>1</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="5">
         <v>6</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
       <c r="S48">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T48">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U48">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>23</v>
@@ -3332,35 +3368,35 @@
         <v>1</v>
       </c>
       <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4">
-        <v>0</v>
-      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="4">
         <v>0</v>
       </c>
       <c r="O49" s="4">
-        <v>1</v>
-      </c>
-      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="5">
         <v>6</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>2</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
       <c r="S49">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T49">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U49">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>23</v>
@@ -3386,35 +3422,35 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4">
-        <v>0</v>
-      </c>
+      <c r="M50" s="4"/>
       <c r="N50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="4">
         <v>1</v>
       </c>
-      <c r="P50" s="5">
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="5">
         <v>6</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>2</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
       <c r="S50">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T50">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U50">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>23</v>
@@ -3440,35 +3476,35 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
+      <c r="M51" s="4"/>
       <c r="N51" s="4">
         <v>0</v>
       </c>
       <c r="O51" s="4">
-        <v>1</v>
-      </c>
-      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="5">
         <v>6</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>2</v>
       </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
       <c r="S51">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T51">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U51">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>23</v>
@@ -3494,35 +3530,35 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4">
-        <v>0</v>
-      </c>
+      <c r="M52" s="4"/>
       <c r="N52" s="4">
         <v>0</v>
       </c>
       <c r="O52" s="4">
-        <v>1</v>
-      </c>
-      <c r="P52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="5">
         <v>6</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>2</v>
       </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
       <c r="S52">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T52">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U52">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>23</v>
@@ -3548,35 +3584,35 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4">
-        <v>0</v>
-      </c>
+      <c r="M53" s="4"/>
       <c r="N53" s="4">
         <v>0</v>
       </c>
       <c r="O53" s="4">
-        <v>1</v>
-      </c>
-      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="5">
         <v>6</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>2</v>
       </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
       <c r="S53">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T53">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U53">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>23</v>
@@ -3602,35 +3638,35 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4">
-        <v>0</v>
-      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="4">
         <v>0</v>
       </c>
       <c r="O54" s="4">
-        <v>1</v>
-      </c>
-      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="5">
         <v>6</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>2</v>
       </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
       <c r="S54">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T54">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U54">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>23</v>
@@ -3656,35 +3692,35 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4">
-        <v>0</v>
-      </c>
+      <c r="M55" s="4"/>
       <c r="N55" s="4">
         <v>0</v>
       </c>
       <c r="O55" s="4">
-        <v>1</v>
-      </c>
-      <c r="P55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="5">
         <v>6</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>2</v>
       </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
       <c r="S55">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T55">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U55">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>23</v>
@@ -3710,35 +3746,35 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4">
-        <v>0</v>
-      </c>
+      <c r="M56" s="4"/>
       <c r="N56" s="4">
         <v>0</v>
       </c>
       <c r="O56" s="4">
-        <v>1</v>
-      </c>
-      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="5">
         <v>6</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>2</v>
       </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
       <c r="S56">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T56">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U56">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>23</v>
@@ -3764,35 +3800,35 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="4">
         <v>1</v>
       </c>
-      <c r="P57" s="5">
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="5">
         <v>6</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>2</v>
       </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
       <c r="S57">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T57">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U57">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>23</v>
@@ -3822,37 +3858,37 @@
         <v>1</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="4">
         <v>0</v>
       </c>
       <c r="O58" s="4">
-        <v>1</v>
-      </c>
-      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="5">
         <v>6</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>2</v>
       </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
       <c r="S58">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T58">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U58">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3877,37 +3913,40 @@
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="L59" s="4">
-        <v>1</v>
+      <c r="L59" t="s">
+        <v>65</v>
       </c>
       <c r="M59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="4">
-        <v>0</v>
-      </c>
-      <c r="P59" s="5">
+        <v>1</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
         <v>6</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>2</v>
       </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
       <c r="S59">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T59">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U59">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3933,35 +3972,35 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4">
-        <v>0</v>
-      </c>
+      <c r="M60" s="4"/>
       <c r="N60" s="4">
         <v>0</v>
       </c>
       <c r="O60" s="4">
         <v>0</v>
       </c>
-      <c r="P60" s="5">
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
         <v>6</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
       <c r="S60">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T60">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U60">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3987,35 +4026,35 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4">
-        <v>0</v>
-      </c>
+      <c r="M61" s="4"/>
       <c r="N61" s="4">
         <v>0</v>
       </c>
       <c r="O61" s="4">
         <v>0</v>
       </c>
-      <c r="P61" s="5">
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
         <v>6</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>2</v>
       </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
       <c r="S61">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T61">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U61">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -4041,35 +4080,35 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4">
-        <v>0</v>
-      </c>
+      <c r="M62" s="4"/>
       <c r="N62" s="4">
         <v>0</v>
       </c>
       <c r="O62" s="4">
         <v>0</v>
       </c>
-      <c r="P62" s="5">
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
         <v>6</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>2</v>
       </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
       <c r="S62">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T62">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U62">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -4094,14 +4133,11 @@
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L63" s="4">
-        <v>1</v>
+      <c r="L63" t="s">
+        <v>66</v>
       </c>
       <c r="M63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="4">
         <v>0</v>
@@ -4109,25 +4145,28 @@
       <c r="O63" s="4">
         <v>0</v>
       </c>
-      <c r="P63" s="5">
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
         <v>6</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>2</v>
       </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
       <c r="S63">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T63">
+        <f t="shared" si="0"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U63">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>25</v>
@@ -4152,36 +4191,38 @@
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4">
-        <v>0</v>
-      </c>
+      <c r="K64" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" s="4"/>
       <c r="N64" s="4">
         <v>0</v>
       </c>
       <c r="O64" s="4">
         <v>0</v>
       </c>
-      <c r="P64" s="5">
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>2</v>
       </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
       <c r="S64">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="T64">
+        <f t="shared" si="0"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U64">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>25</v>
@@ -4207,35 +4248,35 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4">
-        <v>0</v>
-      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="4">
-        <v>0</v>
-      </c>
-      <c r="P65" s="5">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>2</v>
       </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
       <c r="S65">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="T65">
+        <f t="shared" si="0"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U65">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>25</v>
@@ -4265,35 +4306,35 @@
         <v>1</v>
       </c>
       <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
+      <c r="M66" s="4"/>
       <c r="N66" s="4">
         <v>0</v>
       </c>
       <c r="O66" s="4">
         <v>0</v>
       </c>
-      <c r="P66" s="5">
+      <c r="P66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>2</v>
       </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
       <c r="S66">
-        <f t="shared" ref="S66:S97" si="3">_xlfn.FLOOR.MATH(F66*0.621371)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="T66">
+        <f t="shared" si="0"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U66">
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>25</v>
@@ -4319,35 +4360,35 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
+      <c r="M67" s="4"/>
       <c r="N67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="4">
-        <v>0</v>
-      </c>
-      <c r="P67" s="5">
+        <v>1</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>2</v>
       </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
       <c r="S67">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T130" si="4">D67 * 1.09361</f>
+        <f t="shared" ref="T67:T130" si="2">F67*0.621371</f>
+        <v>43.49597</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="3">D67 * 1.09361</f>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>25</v>
@@ -4373,35 +4414,35 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4">
-        <v>0</v>
-      </c>
+      <c r="M68" s="4"/>
       <c r="N68" s="4">
         <v>0</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
       </c>
-      <c r="P68" s="5">
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5">
         <v>9</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>2</v>
       </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
       <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U68">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>25</v>
@@ -4427,35 +4468,35 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4">
-        <v>0</v>
-      </c>
+      <c r="M69" s="4"/>
       <c r="N69" s="4">
         <v>0</v>
       </c>
       <c r="O69" s="4">
         <v>0</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="5">
         <v>9</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>2</v>
       </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
       <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U69">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T69">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>26</v>
@@ -4481,35 +4522,35 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4">
-        <v>0</v>
-      </c>
+      <c r="M70" s="4"/>
       <c r="N70" s="4">
         <v>0</v>
       </c>
       <c r="O70" s="4">
         <v>0</v>
       </c>
-      <c r="P70" s="5">
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="5">
         <v>9</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>3</v>
       </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
       <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>26</v>
@@ -4535,35 +4576,35 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4">
-        <v>0</v>
-      </c>
+      <c r="M71" s="4"/>
       <c r="N71" s="4">
         <v>0</v>
       </c>
       <c r="O71" s="4">
         <v>0</v>
       </c>
-      <c r="P71" s="5">
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="5">
         <v>9</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>3</v>
       </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
       <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>26</v>
@@ -4589,35 +4630,35 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
+      <c r="M72" s="4"/>
       <c r="N72" s="4">
         <v>0</v>
       </c>
       <c r="O72" s="4">
         <v>0</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="5">
         <v>9</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>3</v>
       </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
       <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T72">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>26</v>
@@ -4643,35 +4684,35 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
+      <c r="M73" s="4"/>
       <c r="N73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="4">
-        <v>0</v>
-      </c>
-      <c r="P73" s="5">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="5">
         <v>9</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>3</v>
       </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
       <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U73">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>26</v>
@@ -4701,35 +4742,35 @@
         <v>1</v>
       </c>
       <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4">
-        <v>0</v>
-      </c>
+      <c r="M74" s="4"/>
       <c r="N74" s="4">
         <v>0</v>
       </c>
       <c r="O74" s="4">
         <v>0</v>
       </c>
-      <c r="P74" s="5">
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="5">
         <v>9</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>3</v>
       </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
       <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U74">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T74">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>27</v>
@@ -4755,35 +4796,35 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4">
-        <v>0</v>
-      </c>
+      <c r="M75" s="4"/>
       <c r="N75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="4">
-        <v>0</v>
-      </c>
-      <c r="P75" s="5">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="5">
         <v>9</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>3</v>
       </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
       <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U75">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>27</v>
@@ -4809,35 +4850,35 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4">
-        <v>0</v>
-      </c>
+      <c r="M76" s="4"/>
       <c r="N76" s="4">
         <v>0</v>
       </c>
       <c r="O76" s="4">
         <v>0</v>
       </c>
-      <c r="P76" s="5">
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="5">
         <v>9</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>3</v>
       </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
       <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U76">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>27</v>
@@ -4862,38 +4903,38 @@
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4">
-        <v>0</v>
-      </c>
+      <c r="L77" t="s">
+        <v>67</v>
+      </c>
+      <c r="M77" s="4"/>
       <c r="N77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" s="4">
-        <v>0</v>
-      </c>
-      <c r="P77" s="5">
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="5">
         <v>9</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>3</v>
       </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
       <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="2"/>
+        <v>24.854839999999999</v>
+      </c>
+      <c r="U77">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>28</v>
@@ -4922,36 +4963,38 @@
       <c r="J78" s="4">
         <v>2</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4">
-        <v>0</v>
-      </c>
+      <c r="K78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M78" s="4"/>
       <c r="N78" s="4">
         <v>0</v>
       </c>
       <c r="O78" s="4">
         <v>0</v>
       </c>
-      <c r="P78" s="5">
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>3</v>
       </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
       <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U78">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>28</v>
@@ -4977,35 +5020,35 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4">
-        <v>0</v>
-      </c>
+      <c r="M79" s="4"/>
       <c r="N79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" s="4">
-        <v>0</v>
-      </c>
-      <c r="P79" s="5">
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>3</v>
       </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
       <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U79">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>28</v>
@@ -5031,35 +5074,35 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4">
-        <v>0</v>
-      </c>
+      <c r="M80" s="4"/>
       <c r="N80" s="4">
         <v>0</v>
       </c>
       <c r="O80" s="4">
         <v>0</v>
       </c>
-      <c r="P80" s="5">
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>3</v>
       </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
       <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U80">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>28</v>
@@ -5085,35 +5128,35 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4">
-        <v>0</v>
-      </c>
+      <c r="M81" s="4"/>
       <c r="N81" s="4">
         <v>0</v>
       </c>
       <c r="O81" s="4">
         <v>0</v>
       </c>
-      <c r="P81" s="5">
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>3</v>
       </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
       <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U81">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>28</v>
@@ -5139,35 +5182,35 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
+      <c r="M82" s="4"/>
       <c r="N82" s="4">
         <v>0</v>
       </c>
       <c r="O82" s="4">
         <v>0</v>
       </c>
-      <c r="P82" s="5">
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>3</v>
       </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
       <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U82">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T82">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>28</v>
@@ -5193,35 +5236,35 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4">
-        <v>0</v>
-      </c>
+      <c r="M83" s="4"/>
       <c r="N83" s="4">
         <v>0</v>
       </c>
       <c r="O83" s="4">
         <v>0</v>
       </c>
-      <c r="P83" s="5">
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>3</v>
       </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
       <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U83">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T83">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>28</v>
@@ -5247,35 +5290,35 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4">
-        <v>0</v>
-      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="4">
         <v>0</v>
       </c>
       <c r="O84" s="4">
         <v>0</v>
       </c>
-      <c r="P84" s="5">
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>3</v>
       </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
       <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U84">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T84">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>28</v>
@@ -5301,35 +5344,35 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4">
-        <v>0</v>
-      </c>
+      <c r="M85" s="4"/>
       <c r="N85" s="4">
         <v>0</v>
       </c>
       <c r="O85" s="4">
         <v>0</v>
       </c>
-      <c r="P85" s="5">
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>3</v>
       </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
       <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U85">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T85">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>28</v>
@@ -5355,37 +5398,37 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M86" s="4"/>
       <c r="N86" s="4">
         <v>0</v>
       </c>
       <c r="O86" s="4">
         <v>0</v>
       </c>
-      <c r="P86" s="5">
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>3</v>
       </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
       <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="2"/>
+        <v>43.49597</v>
+      </c>
+      <c r="U86">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="T86">
-        <f t="shared" si="4"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>29</v>
@@ -5411,35 +5454,38 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4">
-        <v>0</v>
-      </c>
+      <c r="L87" t="s">
+        <v>68</v>
+      </c>
+      <c r="M87" s="4"/>
       <c r="N87" s="4">
         <v>0</v>
       </c>
       <c r="O87" s="4">
         <v>0</v>
       </c>
-      <c r="P87" s="5">
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="5">
         <v>14.399999999999999</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>3</v>
       </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
       <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U87">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>29</v>
@@ -5465,35 +5511,35 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4">
-        <v>0</v>
-      </c>
+      <c r="M88" s="4"/>
       <c r="N88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" s="4">
-        <v>0</v>
-      </c>
-      <c r="P88" s="5">
+        <v>1</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="5">
         <v>12.470399999999998</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>3</v>
       </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
       <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U88">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="4"/>
         <v>94.706625999999986</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>29</v>
@@ -5523,35 +5569,35 @@
         <v>0</v>
       </c>
       <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4">
-        <v>0</v>
-      </c>
+      <c r="M89" s="4"/>
       <c r="N89" s="4">
         <v>0</v>
       </c>
       <c r="O89" s="4">
         <v>0</v>
       </c>
-      <c r="P89" s="5">
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="5">
         <v>14.399999999999999</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>3</v>
       </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
       <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U89">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="4"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>30</v>
@@ -5577,35 +5623,35 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4">
-        <v>0</v>
-      </c>
+      <c r="M90" s="4"/>
       <c r="N90" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" s="4">
-        <v>0</v>
-      </c>
-      <c r="P90" s="5">
+        <v>1</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>3</v>
       </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
       <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U90">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>30</v>
@@ -5631,35 +5677,35 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4">
-        <v>0</v>
-      </c>
+      <c r="M91" s="4"/>
       <c r="N91" s="4">
         <v>0</v>
       </c>
       <c r="O91" s="4">
         <v>0</v>
       </c>
-      <c r="P91" s="5">
+      <c r="P91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>3</v>
       </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
       <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U91">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>30</v>
@@ -5685,35 +5731,35 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4">
-        <v>0</v>
-      </c>
+      <c r="M92" s="4"/>
       <c r="N92" s="4">
         <v>0</v>
       </c>
       <c r="O92" s="4">
         <v>0</v>
       </c>
-      <c r="P92" s="5">
+      <c r="P92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>3</v>
       </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
       <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U92">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>30</v>
@@ -5739,35 +5785,35 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4">
-        <v>0</v>
-      </c>
+      <c r="M93" s="4"/>
       <c r="N93" s="4">
         <v>0</v>
       </c>
       <c r="O93" s="4">
         <v>0</v>
       </c>
-      <c r="P93" s="5">
+      <c r="P93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>3</v>
       </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
       <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U93">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>30</v>
@@ -5793,35 +5839,35 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4">
-        <v>0</v>
-      </c>
+      <c r="M94" s="4"/>
       <c r="N94" s="4">
         <v>0</v>
       </c>
       <c r="O94" s="4">
         <v>0</v>
       </c>
-      <c r="P94" s="5">
+      <c r="P94" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>3</v>
       </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
       <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U94">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
         <v>30</v>
@@ -5847,35 +5893,35 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4">
-        <v>0</v>
-      </c>
+      <c r="M95" s="4"/>
       <c r="N95" s="4">
         <v>0</v>
       </c>
       <c r="O95" s="4">
         <v>0</v>
       </c>
-      <c r="P95" s="5">
+      <c r="P95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>3</v>
       </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
       <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U95">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T95">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>30</v>
@@ -5901,35 +5947,35 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4">
-        <v>0</v>
-      </c>
+      <c r="M96" s="4"/>
       <c r="N96" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" s="4">
-        <v>0</v>
-      </c>
-      <c r="P96" s="5">
+        <v>1</v>
+      </c>
+      <c r="P96" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>3</v>
       </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
       <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U96">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T96">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>30</v>
@@ -5959,35 +6005,35 @@
         <v>0</v>
       </c>
       <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4">
-        <v>0</v>
-      </c>
+      <c r="M97" s="4"/>
       <c r="N97" s="4">
         <v>0</v>
       </c>
       <c r="O97" s="4">
         <v>0</v>
       </c>
-      <c r="P97" s="5">
+      <c r="P97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>3</v>
       </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
       <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U97">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T97">
-        <f t="shared" si="4"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>30</v>
@@ -6013,35 +6059,35 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4">
-        <v>0</v>
-      </c>
+      <c r="M98" s="4"/>
       <c r="N98" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" s="4">
-        <v>0</v>
-      </c>
-      <c r="P98" s="5">
+        <v>1</v>
+      </c>
+      <c r="P98" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>3</v>
       </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
       <c r="S98">
-        <f t="shared" ref="S98:S129" si="5">_xlfn.FLOOR.MATH(F98*0.621371)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>31</v>
@@ -6067,35 +6113,35 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4">
-        <v>0</v>
-      </c>
+      <c r="M99" s="4"/>
       <c r="N99" s="4">
         <v>0</v>
       </c>
       <c r="O99" s="4">
         <v>0</v>
       </c>
-      <c r="P99" s="5">
+      <c r="P99" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>3</v>
       </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
       <c r="S99">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>31</v>
@@ -6121,35 +6167,35 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4">
-        <v>0</v>
-      </c>
+      <c r="M100" s="4"/>
       <c r="N100" s="4">
         <v>0</v>
       </c>
       <c r="O100" s="4">
         <v>0</v>
       </c>
-      <c r="P100" s="5">
+      <c r="P100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>3</v>
       </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
       <c r="S100">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>31</v>
@@ -6175,35 +6221,38 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4">
-        <v>0</v>
-      </c>
+      <c r="L101" t="s">
+        <v>68</v>
+      </c>
+      <c r="M101" s="4"/>
       <c r="N101" s="4">
         <v>0</v>
       </c>
       <c r="O101" s="4">
         <v>0</v>
       </c>
-      <c r="P101" s="5">
+      <c r="P101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>3</v>
       </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
       <c r="S101">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>15.534275000000001</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>32</v>
@@ -6229,35 +6278,38 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4">
-        <v>0</v>
-      </c>
+      <c r="L102" t="s">
+        <v>67</v>
+      </c>
+      <c r="M102" s="4"/>
       <c r="N102" s="4">
         <v>0</v>
       </c>
       <c r="O102" s="4">
         <v>0</v>
       </c>
-      <c r="P102" s="5">
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="5">
         <v>4.8461538461538467</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>3</v>
       </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
       <c r="S102">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>16.155646000000001</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="3"/>
         <v>38.276350000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
         <v>33</v>
@@ -6283,35 +6335,35 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4">
-        <v>0</v>
-      </c>
+      <c r="M103" s="4"/>
       <c r="N103" s="4">
         <v>0</v>
       </c>
       <c r="O103" s="4">
         <v>0</v>
       </c>
-      <c r="P103" s="5">
+      <c r="P103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>3</v>
       </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
       <c r="S103">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>33</v>
@@ -6337,35 +6389,35 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4">
-        <v>0</v>
-      </c>
+      <c r="M104" s="4"/>
       <c r="N104" s="4">
         <v>0</v>
       </c>
       <c r="O104" s="4">
         <v>0</v>
       </c>
-      <c r="P104" s="5">
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <v>3</v>
       </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
       <c r="S104">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>33</v>
@@ -6391,35 +6443,35 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4">
-        <v>0</v>
-      </c>
+      <c r="M105" s="4"/>
       <c r="N105" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" s="4">
-        <v>0</v>
-      </c>
-      <c r="P105" s="5">
+        <v>1</v>
+      </c>
+      <c r="P105" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>3</v>
       </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
       <c r="S105">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="3"/>
         <v>87.488799999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>34</v>
@@ -6449,35 +6501,35 @@
         <v>1</v>
       </c>
       <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4">
-        <v>0</v>
-      </c>
+      <c r="M106" s="4"/>
       <c r="N106" s="4">
         <v>0</v>
       </c>
       <c r="O106" s="4">
         <v>0</v>
       </c>
-      <c r="P106" s="5">
+      <c r="P106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>3</v>
       </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
       <c r="S106">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>34</v>
@@ -6503,35 +6555,35 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
+      <c r="M107" s="4"/>
       <c r="N107" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" s="4">
-        <v>0</v>
-      </c>
-      <c r="P107" s="5">
+        <v>1</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>3</v>
       </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
       <c r="S107">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>34</v>
@@ -6557,35 +6609,35 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4">
-        <v>0</v>
-      </c>
+      <c r="M108" s="4"/>
       <c r="N108" s="4">
         <v>0</v>
       </c>
       <c r="O108" s="4">
         <v>0</v>
       </c>
-      <c r="P108" s="5">
+      <c r="P108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="5">
         <v>11.571428571428573</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>3</v>
       </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
       <c r="S108">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="3"/>
         <v>98.424899999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
         <v>34</v>
@@ -6611,35 +6663,35 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4">
-        <v>1</v>
-      </c>
+      <c r="M109" s="4"/>
       <c r="N109" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" s="4">
         <v>0</v>
       </c>
-      <c r="P109" s="5">
+      <c r="P109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>3</v>
       </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
       <c r="S109">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
         <v>34</v>
@@ -6665,35 +6717,35 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4">
-        <v>0</v>
-      </c>
+      <c r="M110" s="4"/>
       <c r="N110" s="4">
         <v>0</v>
       </c>
       <c r="O110" s="4">
         <v>0</v>
       </c>
-      <c r="P110" s="5">
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>3</v>
       </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
       <c r="S110">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>17.398388000000001</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
         <v>35</v>
@@ -6719,35 +6771,35 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4">
-        <v>0</v>
-      </c>
+      <c r="M111" s="4"/>
       <c r="N111" s="4">
         <v>0</v>
       </c>
       <c r="O111" s="4">
         <v>0</v>
       </c>
-      <c r="P111" s="5">
+      <c r="P111" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="5">
         <v>12</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>2</v>
       </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
       <c r="S111">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>35</v>
@@ -6773,35 +6825,35 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4">
-        <v>0</v>
-      </c>
+      <c r="M112" s="4"/>
       <c r="N112" s="4">
         <v>0</v>
       </c>
       <c r="O112" s="4">
         <v>0</v>
       </c>
-      <c r="P112" s="5">
+      <c r="P112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="5">
         <v>12</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>2</v>
       </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
       <c r="S112">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>35</v>
@@ -6827,35 +6879,35 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
+      <c r="M113" s="4"/>
       <c r="N113" s="4">
         <v>0</v>
       </c>
       <c r="O113" s="4">
         <v>0</v>
       </c>
-      <c r="P113" s="5">
+      <c r="P113" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="5">
         <v>12</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>2</v>
       </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
       <c r="S113">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
         <v>35</v>
@@ -6881,35 +6933,35 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4">
-        <v>0</v>
-      </c>
+      <c r="M114" s="4"/>
       <c r="N114" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" s="4">
-        <v>0</v>
-      </c>
-      <c r="P114" s="5">
+        <v>1</v>
+      </c>
+      <c r="P114" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="5">
         <v>12</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>2</v>
       </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
       <c r="S114">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
         <v>35</v>
@@ -6939,35 +6991,35 @@
         <v>1</v>
       </c>
       <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4">
-        <v>0</v>
-      </c>
+      <c r="M115" s="4"/>
       <c r="N115" s="4">
         <v>0</v>
       </c>
       <c r="O115" s="4">
         <v>0</v>
       </c>
-      <c r="P115" s="5">
+      <c r="P115" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="5">
         <v>19.439999999999998</v>
       </c>
-      <c r="Q115">
+      <c r="R115">
         <v>2</v>
       </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
       <c r="S115">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="3"/>
         <v>177.16481999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>35</v>
@@ -6993,35 +7045,35 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4">
-        <v>0</v>
-      </c>
+      <c r="M116" s="4"/>
       <c r="N116" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" s="4">
-        <v>0</v>
-      </c>
-      <c r="P116" s="5">
+        <v>1</v>
+      </c>
+      <c r="P116" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="5">
         <v>12</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <v>2</v>
       </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
       <c r="S116">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>35</v>
@@ -7047,35 +7099,35 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4">
-        <v>0</v>
-      </c>
+      <c r="M117" s="4"/>
       <c r="N117" s="4">
         <v>0</v>
       </c>
       <c r="O117" s="4">
         <v>0</v>
       </c>
-      <c r="P117" s="5">
+      <c r="P117" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="5">
         <v>12</v>
       </c>
-      <c r="Q117">
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
       <c r="S117">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>18.64113</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>36</v>
@@ -7101,35 +7153,35 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4">
-        <v>0</v>
-      </c>
+      <c r="M118" s="4"/>
       <c r="N118" s="4">
         <v>0</v>
       </c>
       <c r="O118" s="4">
         <v>0</v>
       </c>
-      <c r="P118" s="5">
+      <c r="P118" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="5">
         <v>12</v>
       </c>
-      <c r="Q118">
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
       <c r="S118">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>36</v>
@@ -7155,35 +7207,35 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4">
-        <v>0</v>
-      </c>
+      <c r="M119" s="4"/>
       <c r="N119" s="4">
         <v>0</v>
       </c>
       <c r="O119" s="4">
         <v>0</v>
       </c>
-      <c r="P119" s="5">
+      <c r="P119" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="5">
         <v>12</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <v>2</v>
       </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
       <c r="S119">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>36</v>
@@ -7209,35 +7261,35 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4">
-        <v>0</v>
-      </c>
+      <c r="M120" s="4"/>
       <c r="N120" s="4">
         <v>0</v>
       </c>
       <c r="O120" s="4">
         <v>0</v>
       </c>
-      <c r="P120" s="5">
+      <c r="P120" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="5">
         <v>9.6</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <v>2</v>
       </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
       <c r="S120">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="3"/>
         <v>43.744399999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
         <v>36</v>
@@ -7263,35 +7315,35 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4">
-        <v>0</v>
-      </c>
+      <c r="M121" s="4"/>
       <c r="N121" s="4">
         <v>0</v>
       </c>
       <c r="O121" s="4">
         <v>0</v>
       </c>
-      <c r="P121" s="5">
+      <c r="P121" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="5">
         <v>12</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <v>2</v>
       </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
       <c r="S121">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>36</v>
@@ -7317,35 +7369,35 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4">
-        <v>0</v>
-      </c>
+      <c r="M122" s="4"/>
       <c r="N122" s="4">
         <v>0</v>
       </c>
       <c r="O122" s="4">
         <v>0</v>
       </c>
-      <c r="P122" s="5">
+      <c r="P122" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="5">
         <v>12</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <v>2</v>
       </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
       <c r="S122">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>9.3205650000000002</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>37</v>
@@ -7371,35 +7423,35 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4">
-        <v>0</v>
-      </c>
+      <c r="M123" s="4"/>
       <c r="N123" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" s="4">
         <v>1</v>
       </c>
-      <c r="P123" s="5">
+      <c r="P123" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="5">
         <v>9</v>
       </c>
-      <c r="Q123">
+      <c r="R123">
         <v>2</v>
       </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
       <c r="S123">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>37</v>
@@ -7429,35 +7481,35 @@
         <v>1</v>
       </c>
       <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4">
-        <v>0</v>
-      </c>
+      <c r="M124" s="4"/>
       <c r="N124" s="4">
         <v>0</v>
       </c>
       <c r="O124" s="4">
-        <v>1</v>
-      </c>
-      <c r="P124" s="5">
+        <v>0</v>
+      </c>
+      <c r="P124" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="5">
         <v>9</v>
       </c>
-      <c r="Q124">
+      <c r="R124">
         <v>2</v>
       </c>
-      <c r="R124">
-        <v>0</v>
-      </c>
       <c r="S124">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>37</v>
@@ -7483,35 +7535,35 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4">
-        <v>0</v>
-      </c>
+      <c r="M125" s="4"/>
       <c r="N125" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" s="4">
         <v>1</v>
       </c>
-      <c r="P125" s="5">
+      <c r="P125" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="5">
         <v>9</v>
       </c>
-      <c r="Q125">
+      <c r="R125">
         <v>2</v>
       </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
       <c r="S125">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>37</v>
@@ -7537,35 +7589,35 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4">
-        <v>0</v>
-      </c>
+      <c r="M126" s="4"/>
       <c r="N126" s="4">
         <v>0</v>
       </c>
       <c r="O126" s="4">
-        <v>1</v>
-      </c>
-      <c r="P126" s="5">
+        <v>0</v>
+      </c>
+      <c r="P126" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="5">
         <v>9</v>
       </c>
-      <c r="Q126">
+      <c r="R126">
         <v>2</v>
       </c>
-      <c r="R126">
-        <v>0</v>
-      </c>
       <c r="S126">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>37</v>
@@ -7591,35 +7643,35 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4">
-        <v>0</v>
-      </c>
+      <c r="M127" s="4"/>
       <c r="N127" s="4">
         <v>0</v>
       </c>
       <c r="O127" s="4">
-        <v>1</v>
-      </c>
-      <c r="P127" s="5">
+        <v>0</v>
+      </c>
+      <c r="P127" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="5">
         <v>9</v>
       </c>
-      <c r="Q127">
+      <c r="R127">
         <v>2</v>
       </c>
-      <c r="R127">
-        <v>0</v>
-      </c>
       <c r="S127">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>37</v>
@@ -7645,35 +7697,35 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4">
-        <v>0</v>
-      </c>
+      <c r="M128" s="4"/>
       <c r="N128" s="4">
         <v>0</v>
       </c>
       <c r="O128" s="4">
-        <v>1</v>
-      </c>
-      <c r="P128" s="5">
+        <v>0</v>
+      </c>
+      <c r="P128" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="5">
         <v>9</v>
       </c>
-      <c r="Q128">
+      <c r="R128">
         <v>2</v>
       </c>
-      <c r="R128">
-        <v>0</v>
-      </c>
       <c r="S128">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>37</v>
@@ -7699,35 +7751,35 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4">
-        <v>0</v>
-      </c>
+      <c r="M129" s="4"/>
       <c r="N129" s="4">
         <v>0</v>
       </c>
       <c r="O129" s="4">
-        <v>1</v>
-      </c>
-      <c r="P129" s="5">
+        <v>0</v>
+      </c>
+      <c r="P129" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="5">
         <v>9</v>
       </c>
-      <c r="Q129">
+      <c r="R129">
         <v>2</v>
       </c>
-      <c r="R129">
-        <v>0</v>
-      </c>
       <c r="S129">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>37</v>
@@ -7753,35 +7805,35 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4">
-        <v>0</v>
-      </c>
+      <c r="M130" s="4"/>
       <c r="N130" s="4">
         <v>0</v>
       </c>
       <c r="O130" s="4">
-        <v>1</v>
-      </c>
-      <c r="P130" s="5">
+        <v>0</v>
+      </c>
+      <c r="P130" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="5">
         <v>9</v>
       </c>
-      <c r="Q130">
+      <c r="R130">
         <v>2</v>
       </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
       <c r="S130">
-        <f t="shared" ref="S130:S151" si="6">_xlfn.FLOOR.MATH(F130*0.621371)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>37</v>
@@ -7807,35 +7859,35 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4">
-        <v>0</v>
-      </c>
+      <c r="M131" s="4"/>
       <c r="N131" s="4">
         <v>0</v>
       </c>
       <c r="O131" s="4">
-        <v>1</v>
-      </c>
-      <c r="P131" s="5">
+        <v>0</v>
+      </c>
+      <c r="P131" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="5">
         <v>9</v>
       </c>
-      <c r="Q131">
+      <c r="R131">
         <v>2</v>
       </c>
-      <c r="R131">
-        <v>0</v>
-      </c>
       <c r="S131">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T131">
-        <f t="shared" ref="T131:T151" si="7">D131 * 1.09361</f>
+        <f t="shared" ref="T131:T151" si="4">F131*0.621371</f>
+        <v>12.42742</v>
+      </c>
+      <c r="U131">
+        <f t="shared" ref="U131:U151" si="5">D131 * 1.09361</f>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>37</v>
@@ -7861,35 +7913,35 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4">
-        <v>0</v>
-      </c>
+      <c r="M132" s="4"/>
       <c r="N132" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132" s="4">
         <v>1</v>
       </c>
-      <c r="P132" s="5">
+      <c r="P132" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="5">
         <v>9</v>
       </c>
-      <c r="Q132">
+      <c r="R132">
         <v>2</v>
       </c>
-      <c r="R132">
-        <v>0</v>
-      </c>
       <c r="S132">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>37</v>
@@ -7919,35 +7971,35 @@
         <v>0</v>
       </c>
       <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4">
-        <v>0</v>
-      </c>
+      <c r="M133" s="4"/>
       <c r="N133" s="4">
         <v>0</v>
       </c>
       <c r="O133" s="4">
-        <v>1</v>
-      </c>
-      <c r="P133" s="5">
+        <v>0</v>
+      </c>
+      <c r="P133" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="5">
         <v>9</v>
       </c>
-      <c r="Q133">
+      <c r="R133">
         <v>2</v>
       </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
       <c r="S133">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>37</v>
@@ -7973,35 +8025,35 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4">
-        <v>0</v>
-      </c>
+      <c r="M134" s="4"/>
       <c r="N134" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" s="4">
         <v>1</v>
       </c>
-      <c r="P134" s="5">
+      <c r="P134" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="5">
         <v>9</v>
       </c>
-      <c r="Q134">
+      <c r="R134">
         <v>2</v>
       </c>
-      <c r="R134">
-        <v>0</v>
-      </c>
       <c r="S134">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>37</v>
@@ -8027,35 +8079,35 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4">
-        <v>0</v>
-      </c>
+      <c r="M135" s="4"/>
       <c r="N135" s="4">
         <v>0</v>
       </c>
       <c r="O135" s="4">
-        <v>1</v>
-      </c>
-      <c r="P135" s="5">
+        <v>0</v>
+      </c>
+      <c r="P135" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="5">
         <v>9</v>
       </c>
-      <c r="Q135">
+      <c r="R135">
         <v>2</v>
       </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
       <c r="S135">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>37</v>
@@ -8081,35 +8133,35 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4">
-        <v>0</v>
-      </c>
+      <c r="M136" s="4"/>
       <c r="N136" s="4">
         <v>0</v>
       </c>
       <c r="O136" s="4">
-        <v>1</v>
-      </c>
-      <c r="P136" s="5">
+        <v>0</v>
+      </c>
+      <c r="P136" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="5">
         <v>9</v>
       </c>
-      <c r="Q136">
-        <v>1</v>
-      </c>
       <c r="R136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S136">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>37</v>
@@ -8135,35 +8187,35 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4">
-        <v>0</v>
-      </c>
+      <c r="M137" s="4"/>
       <c r="N137" s="4">
         <v>0</v>
       </c>
       <c r="O137" s="4">
-        <v>1</v>
-      </c>
-      <c r="P137" s="5">
+        <v>0</v>
+      </c>
+      <c r="P137" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="5">
         <v>9</v>
       </c>
-      <c r="Q137">
-        <v>1</v>
-      </c>
       <c r="R137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S137">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>37</v>
@@ -8189,35 +8241,35 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4">
-        <v>0</v>
-      </c>
+      <c r="M138" s="4"/>
       <c r="N138" s="4">
         <v>0</v>
       </c>
       <c r="O138" s="4">
-        <v>1</v>
-      </c>
-      <c r="P138" s="5">
+        <v>0</v>
+      </c>
+      <c r="P138" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="5">
         <v>9</v>
       </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
       <c r="R138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S138">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>37</v>
@@ -8243,35 +8295,35 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4">
-        <v>0</v>
-      </c>
+      <c r="M139" s="4"/>
       <c r="N139" s="4">
         <v>0</v>
       </c>
       <c r="O139" s="4">
-        <v>1</v>
-      </c>
-      <c r="P139" s="5">
+        <v>0</v>
+      </c>
+      <c r="P139" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="5">
         <v>9</v>
       </c>
-      <c r="Q139">
-        <v>1</v>
-      </c>
       <c r="R139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S139">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>37</v>
@@ -8297,35 +8349,35 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4">
-        <v>0</v>
-      </c>
+      <c r="M140" s="4"/>
       <c r="N140" s="4">
         <v>0</v>
       </c>
       <c r="O140" s="4">
-        <v>1</v>
-      </c>
-      <c r="P140" s="5">
+        <v>0</v>
+      </c>
+      <c r="P140" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="5">
         <v>9</v>
       </c>
-      <c r="Q140">
-        <v>1</v>
-      </c>
       <c r="R140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>37</v>
@@ -8351,35 +8403,35 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4">
-        <v>0</v>
-      </c>
+      <c r="M141" s="4"/>
       <c r="N141" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141" s="4">
         <v>1</v>
       </c>
-      <c r="P141" s="5">
+      <c r="P141" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="5">
         <v>9</v>
       </c>
-      <c r="Q141">
-        <v>1</v>
-      </c>
       <c r="R141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S141">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>37</v>
@@ -8409,35 +8461,35 @@
         <v>1</v>
       </c>
       <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4">
-        <v>0</v>
-      </c>
+      <c r="M142" s="4"/>
       <c r="N142" s="4">
         <v>0</v>
       </c>
       <c r="O142" s="4">
-        <v>1</v>
-      </c>
-      <c r="P142" s="5">
+        <v>0</v>
+      </c>
+      <c r="P142" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="5">
         <v>9</v>
       </c>
-      <c r="Q142">
-        <v>1</v>
-      </c>
       <c r="R142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S142">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>37</v>
@@ -8463,35 +8515,35 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4">
-        <v>0</v>
-      </c>
+      <c r="M143" s="4"/>
       <c r="N143" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O143" s="4">
         <v>1</v>
       </c>
-      <c r="P143" s="5">
+      <c r="P143" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="5">
         <v>9</v>
       </c>
-      <c r="Q143">
-        <v>1</v>
-      </c>
       <c r="R143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S143">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>37</v>
@@ -8517,35 +8569,35 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4">
-        <v>0</v>
-      </c>
+      <c r="M144" s="4"/>
       <c r="N144" s="4">
         <v>0</v>
       </c>
       <c r="O144" s="4">
-        <v>1</v>
-      </c>
-      <c r="P144" s="5">
+        <v>0</v>
+      </c>
+      <c r="P144" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="5">
         <v>9</v>
       </c>
-      <c r="Q144">
-        <v>1</v>
-      </c>
       <c r="R144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S144">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
         <v>38</v>
@@ -8571,35 +8623,35 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4">
-        <v>0</v>
-      </c>
+      <c r="M145" s="4"/>
       <c r="N145" s="4">
         <v>0</v>
       </c>
       <c r="O145" s="4">
         <v>0</v>
       </c>
-      <c r="P145" s="5">
+      <c r="P145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="5">
         <v>9</v>
       </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
       <c r="R145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S145">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>38</v>
@@ -8625,35 +8677,35 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4">
-        <v>0</v>
-      </c>
+      <c r="M146" s="4"/>
       <c r="N146" s="4">
         <v>0</v>
       </c>
       <c r="O146" s="4">
         <v>0</v>
       </c>
-      <c r="P146" s="5">
+      <c r="P146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="5">
         <v>9</v>
       </c>
-      <c r="Q146">
-        <v>1</v>
-      </c>
       <c r="R146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S146">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>38</v>
@@ -8679,35 +8731,35 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4">
-        <v>0</v>
-      </c>
+      <c r="M147" s="4"/>
       <c r="N147" s="4">
         <v>0</v>
       </c>
       <c r="O147" s="4">
         <v>0</v>
       </c>
-      <c r="P147" s="5">
+      <c r="P147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="5">
         <v>9</v>
       </c>
-      <c r="Q147">
-        <v>1</v>
-      </c>
       <c r="R147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S147">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>39</v>
@@ -8733,35 +8785,35 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4">
-        <v>0</v>
-      </c>
+      <c r="M148" s="4"/>
       <c r="N148" s="4">
         <v>0</v>
       </c>
       <c r="O148" s="4">
         <v>0</v>
       </c>
-      <c r="P148" s="5">
+      <c r="P148" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="5">
         <v>9</v>
       </c>
-      <c r="Q148">
-        <v>1</v>
-      </c>
       <c r="R148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S148">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
         <v>39</v>
@@ -8787,35 +8839,35 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4">
-        <v>0</v>
-      </c>
+      <c r="M149" s="4"/>
       <c r="N149" s="4">
         <v>0</v>
       </c>
       <c r="O149" s="4">
         <v>0</v>
       </c>
-      <c r="P149" s="5">
+      <c r="P149" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="5">
         <v>33.119999999999997</v>
       </c>
-      <c r="Q149">
-        <v>1</v>
-      </c>
       <c r="R149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S149">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="5"/>
         <v>201.22424000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
         <v>39</v>
@@ -8841,35 +8893,35 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4">
-        <v>0</v>
-      </c>
+      <c r="M150" s="4"/>
       <c r="N150" s="4">
         <v>0</v>
       </c>
       <c r="O150" s="4">
         <v>0</v>
       </c>
-      <c r="P150" s="5">
+      <c r="P150" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="5">
         <v>7.1999999999999993</v>
       </c>
-      <c r="Q150">
-        <v>1</v>
-      </c>
       <c r="R150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S150">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="5"/>
         <v>43.744399999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
         <v>40</v>
@@ -8895,11 +8947,11 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-      <c r="L151" s="4">
-        <v>1</v>
+      <c r="L151" t="s">
+        <v>64</v>
       </c>
       <c r="M151" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" s="4">
         <v>0</v>
@@ -8907,22 +8959,259 @@
       <c r="O151" s="4">
         <v>0</v>
       </c>
-      <c r="P151" s="5">
+      <c r="P151" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="5">
         <v>6.3</v>
       </c>
-      <c r="Q151">
-        <v>1</v>
-      </c>
       <c r="R151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S151">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>12.42742</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="5"/>
         <v>38.276350000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88653644-AF3E-4625-A5A7-2FF88949AA53}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF479C6-9868-4B95-B399-AE9122ECF2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5C206C-0D8C-4628-922D-2EE9B585A0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="81">
   <si>
     <t>Section</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Speed Limit (Km/Hr)</t>
-  </si>
-  <si>
-    <t>Transponder</t>
   </si>
   <si>
     <t>B</t>
@@ -259,6 +256,30 @@
   </si>
   <si>
     <t>85-86,85-100</t>
+  </si>
+  <si>
+    <t>Beacon Data</t>
+  </si>
+  <si>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>O86</t>
+  </si>
+  <si>
+    <t>R101</t>
+  </si>
+  <si>
+    <t>J58</t>
+  </si>
+  <si>
+    <t>K62</t>
   </si>
 </sst>
 </file>
@@ -664,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
-  <dimension ref="A1:U151"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="Y143" sqref="Y143"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="74" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,16 +703,17 @@
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" customWidth="1"/>
     <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -711,54 +733,57 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -785,7 +810,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
@@ -794,30 +819,31 @@
         <v>0</v>
       </c>
       <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
         <v>8</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <f>F2*0.621371</f>
         <v>27.961694999999999</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <f>D2 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -841,41 +867,44 @@
         <v>1.5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
       </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
         <v>8</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="0">F3*0.621371</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0">F3*0.621371</f>
         <v>27.961694999999999</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U66" si="1">D3 * 1.09361</f>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1">D3 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -901,38 +930,41 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
         <v>8</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -955,38 +987,41 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
         <v>8</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -1009,38 +1044,41 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
         <v>8</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -1063,38 +1101,41 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
         <v>8</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -1117,38 +1158,41 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
         <v>8</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -1171,38 +1215,41 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -1223,44 +1270,47 @@
         <v>12</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
         <v>8</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -1283,38 +1333,41 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
         <v>8</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -1337,38 +1390,41 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
       </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
         <v>8</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -1391,7 +1447,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="4">
         <v>1</v>
@@ -1400,33 +1456,36 @@
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
         <v>8</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="0"/>
         <v>27.961694999999999</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -1449,40 +1508,43 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
       </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -1505,38 +1567,41 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
       </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
@@ -1559,38 +1624,41 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -1611,44 +1679,47 @@
         <v>0.5</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="4">
         <v>2</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
         <v>7.7142857142857153</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -1671,38 +1742,41 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
         <v>9</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="0"/>
         <v>37.282260000000001</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -1725,38 +1799,41 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
         <v>9</v>
       </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="0"/>
         <v>37.282260000000001</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -1779,38 +1856,41 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
       <c r="N20" s="4">
         <v>1</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
         <v>9</v>
       </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="0"/>
         <v>37.282260000000001</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -1833,38 +1913,41 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
         <v>9</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="0"/>
         <v>37.282260000000001</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1887,38 +1970,41 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -1939,44 +2025,47 @@
         <v>0.5</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" s="4">
         <v>2</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <v>0</v>
       </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
@@ -1999,38 +2088,41 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
@@ -2053,38 +2145,41 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
         <v>0</v>
       </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -2107,38 +2202,41 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <v>0</v>
       </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -2161,38 +2259,41 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
       </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="5">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4">
         <v>27</v>
@@ -2215,38 +2316,41 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <v>0</v>
       </c>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="5">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
         <v>6</v>
       </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="4">
         <v>28</v>
@@ -2269,40 +2373,43 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
       </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
         <v>6</v>
       </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4">
         <v>29</v>
@@ -2326,7 +2433,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M30" s="4">
         <v>1</v>
@@ -2335,33 +2442,36 @@
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
         <v>6</v>
       </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="4">
         <v>30</v>
@@ -2384,38 +2494,41 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
       <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
         <v>6</v>
       </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4">
         <v>31</v>
@@ -2436,44 +2549,47 @@
         <v>0.5</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J32" s="4">
         <v>0</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <v>0</v>
       </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
         <v>6</v>
       </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4">
         <v>32</v>
@@ -2496,38 +2612,41 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
         <v>6</v>
       </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="4">
         <v>33</v>
@@ -2550,38 +2669,41 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
       </c>
-      <c r="P34" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="5">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
         <v>6</v>
       </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4">
         <v>34</v>
@@ -2604,38 +2726,41 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
       <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="O35" s="4">
         <v>0</v>
       </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="5">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
         <v>6</v>
       </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
@@ -2658,38 +2783,41 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
       <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
       </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
         <v>6</v>
       </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4">
         <v>36</v>
@@ -2712,38 +2840,41 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
       <c r="N37" s="4">
         <v>0</v>
       </c>
       <c r="O37" s="4">
         <v>0</v>
       </c>
-      <c r="P37" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="5">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4">
+        <v>1</v>
+      </c>
+      <c r="R37" s="5">
         <v>6</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
       <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="4">
         <v>37</v>
@@ -2766,38 +2897,41 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
       <c r="N38" s="4">
         <v>0</v>
       </c>
       <c r="O38" s="4">
         <v>0</v>
       </c>
-      <c r="P38" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="5">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4">
+        <v>1</v>
+      </c>
+      <c r="R38" s="5">
         <v>6</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>2</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="4">
         <v>38</v>
@@ -2820,38 +2954,41 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
       <c r="N39" s="4">
         <v>0</v>
       </c>
       <c r="O39" s="4">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="5">
         <v>6</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>2</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
       <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4">
         <v>39</v>
@@ -2872,44 +3009,47 @@
         <v>0.5</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
       </c>
       <c r="K40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
       <c r="N40" s="4">
         <v>0</v>
       </c>
       <c r="O40" s="4">
         <v>0</v>
       </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="5">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="5">
         <v>6</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
       <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4">
         <v>40</v>
@@ -2932,38 +3072,41 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
       <c r="N41" s="4">
         <v>0</v>
       </c>
       <c r="O41" s="4">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="5">
         <v>6</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>2</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="4">
         <v>41</v>
@@ -2986,38 +3129,41 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
       <c r="N42" s="4">
         <v>0</v>
       </c>
       <c r="O42" s="4">
         <v>0</v>
       </c>
-      <c r="P42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="5">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4">
+        <v>1</v>
+      </c>
+      <c r="R42" s="5">
         <v>6</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>2</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4">
         <v>42</v>
@@ -3040,38 +3186,41 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
       <c r="N43" s="4">
         <v>0</v>
       </c>
       <c r="O43" s="4">
         <v>0</v>
       </c>
-      <c r="P43" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="5">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4">
+        <v>1</v>
+      </c>
+      <c r="R43" s="5">
         <v>6</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>2</v>
       </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
       <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="4">
         <v>43</v>
@@ -3094,38 +3243,41 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
       <c r="N44" s="4">
         <v>0</v>
       </c>
       <c r="O44" s="4">
         <v>0</v>
       </c>
-      <c r="P44" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="5">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4">
+        <v>1</v>
+      </c>
+      <c r="R44" s="5">
         <v>6</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>2</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
       <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4">
         <v>44</v>
@@ -3148,38 +3300,41 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
       <c r="N45" s="4">
         <v>0</v>
       </c>
       <c r="O45" s="4">
         <v>0</v>
       </c>
-      <c r="P45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="5">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4">
+        <v>1</v>
+      </c>
+      <c r="R45" s="5">
         <v>6</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>2</v>
       </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
       <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4">
         <v>45</v>
@@ -3202,38 +3357,41 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
       <c r="N46" s="4">
         <v>0</v>
       </c>
       <c r="O46" s="4">
         <v>0</v>
       </c>
-      <c r="P46" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="5">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4">
+        <v>1</v>
+      </c>
+      <c r="R46" s="5">
         <v>6</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>2</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
       <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4">
         <v>46</v>
@@ -3256,38 +3414,41 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
       <c r="N47" s="4">
         <v>0</v>
       </c>
       <c r="O47" s="4">
         <v>0</v>
       </c>
-      <c r="P47" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="5">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4">
+        <v>1</v>
+      </c>
+      <c r="R47" s="5">
         <v>6</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>2</v>
       </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
       <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="4">
         <v>47</v>
@@ -3310,38 +3471,41 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
       <c r="N48" s="4">
         <v>0</v>
       </c>
       <c r="O48" s="4">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4">
+        <v>1</v>
+      </c>
+      <c r="R48" s="5">
         <v>6</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>2</v>
       </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
       <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="4">
         <v>48</v>
@@ -3362,44 +3526,47 @@
         <v>0.5</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J49" s="4">
         <v>1</v>
       </c>
       <c r="K49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
       <c r="N49" s="4">
         <v>0</v>
       </c>
       <c r="O49" s="4">
         <v>0</v>
       </c>
-      <c r="P49" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="5">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4">
+        <v>1</v>
+      </c>
+      <c r="R49" s="5">
         <v>6</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>2</v>
       </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
       <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="4">
         <v>49</v>
@@ -3422,38 +3589,41 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
       <c r="N50" s="4">
         <v>0</v>
       </c>
       <c r="O50" s="4">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4">
+        <v>1</v>
+      </c>
+      <c r="R50" s="5">
         <v>6</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>2</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
       <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="4">
         <v>50</v>
@@ -3476,38 +3646,41 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
       <c r="N51" s="4">
         <v>0</v>
       </c>
       <c r="O51" s="4">
         <v>0</v>
       </c>
-      <c r="P51" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="5">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4">
+        <v>1</v>
+      </c>
+      <c r="R51" s="5">
         <v>6</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>2</v>
       </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
       <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="4">
         <v>51</v>
@@ -3530,38 +3703,41 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="M52" s="4"/>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
       <c r="N52" s="4">
         <v>0</v>
       </c>
       <c r="O52" s="4">
         <v>0</v>
       </c>
-      <c r="P52" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="5">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4">
+        <v>1</v>
+      </c>
+      <c r="R52" s="5">
         <v>6</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>2</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
       <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="4">
         <v>52</v>
@@ -3584,38 +3760,41 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="M53" s="4"/>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
       <c r="N53" s="4">
         <v>0</v>
       </c>
       <c r="O53" s="4">
         <v>0</v>
       </c>
-      <c r="P53" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="5">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4">
+        <v>1</v>
+      </c>
+      <c r="R53" s="5">
         <v>6</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>2</v>
       </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
       <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="4">
         <v>53</v>
@@ -3638,38 +3817,41 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="M54" s="4"/>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
       <c r="N54" s="4">
         <v>0</v>
       </c>
       <c r="O54" s="4">
         <v>0</v>
       </c>
-      <c r="P54" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="5">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4">
+        <v>1</v>
+      </c>
+      <c r="R54" s="5">
         <v>6</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>2</v>
       </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
       <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="4">
         <v>54</v>
@@ -3692,38 +3874,41 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="M55" s="4"/>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
       <c r="N55" s="4">
         <v>0</v>
       </c>
       <c r="O55" s="4">
         <v>0</v>
       </c>
-      <c r="P55" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="5">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4">
+        <v>1</v>
+      </c>
+      <c r="R55" s="5">
         <v>6</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>2</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
       <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="4">
         <v>55</v>
@@ -3746,38 +3931,41 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
       <c r="N56" s="4">
         <v>0</v>
       </c>
       <c r="O56" s="4">
         <v>0</v>
       </c>
-      <c r="P56" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="5">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4">
+        <v>1</v>
+      </c>
+      <c r="R56" s="5">
         <v>6</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>2</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
       <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4">
         <v>56</v>
@@ -3800,38 +3988,41 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="M57" s="4"/>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
       <c r="N57" s="4">
         <v>0</v>
       </c>
       <c r="O57" s="4">
-        <v>1</v>
-      </c>
-      <c r="P57" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4">
+        <v>1</v>
+      </c>
+      <c r="R57" s="5">
         <v>6</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>2</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
       <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="4">
         <v>57</v>
@@ -3852,46 +4043,49 @@
         <v>0.5</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M58" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
       <c r="N58" s="4">
         <v>0</v>
       </c>
       <c r="O58" s="4">
         <v>0</v>
       </c>
-      <c r="P58" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="5">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4">
+        <v>1</v>
+      </c>
+      <c r="R58" s="5">
         <v>6</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>2</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
       <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" s="4">
         <v>58</v>
@@ -3914,7 +4108,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="L59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M59" s="4">
         <v>1</v>
@@ -3925,31 +4119,34 @@
       <c r="O59" s="4">
         <v>1</v>
       </c>
-      <c r="P59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="5">
+      <c r="P59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>0</v>
+      </c>
+      <c r="R59" s="5">
         <v>6</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>2</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="4">
         <v>59</v>
@@ -3972,38 +4169,41 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
       <c r="N60" s="4">
         <v>0</v>
       </c>
       <c r="O60" s="4">
         <v>0</v>
       </c>
-      <c r="P60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="5">
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="5">
         <v>6</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>2</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
       <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="4">
         <v>60</v>
@@ -4026,38 +4226,41 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
       <c r="N61" s="4">
         <v>0</v>
       </c>
       <c r="O61" s="4">
         <v>0</v>
       </c>
-      <c r="P61" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="5">
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4">
+        <v>0</v>
+      </c>
+      <c r="R61" s="5">
         <v>6</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>2</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
       <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" s="4">
         <v>61</v>
@@ -4080,38 +4283,41 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
       <c r="N62" s="4">
         <v>0</v>
       </c>
       <c r="O62" s="4">
         <v>0</v>
       </c>
-      <c r="P62" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="5">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4">
+        <v>0</v>
+      </c>
+      <c r="R62" s="5">
         <v>6</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>2</v>
       </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
       <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="4">
         <v>62</v>
@@ -4134,7 +4340,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="L63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M63" s="4">
         <v>1</v>
@@ -4143,33 +4349,36 @@
         <v>0</v>
       </c>
       <c r="O63" s="4">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="5">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>0</v>
+      </c>
+      <c r="R63" s="5">
         <v>6</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>2</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
         <f t="shared" si="0"/>
         <v>18.64113</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4">
         <v>63</v>
@@ -4192,40 +4401,43 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M64" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0</v>
+      </c>
       <c r="N64" s="4">
         <v>0</v>
       </c>
       <c r="O64" s="4">
         <v>0</v>
       </c>
-      <c r="P64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="5">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4">
+        <v>0</v>
+      </c>
+      <c r="R64" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>2</v>
       </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
       <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="4">
         <v>64</v>
@@ -4248,38 +4460,41 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
       <c r="N65" s="4">
         <v>0</v>
       </c>
       <c r="O65" s="4">
-        <v>1</v>
-      </c>
-      <c r="P65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="5">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4">
+        <v>0</v>
+      </c>
+      <c r="R65" s="5">
         <v>5.1428571428571432</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>2</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" s="4">
         <v>65</v>
@@ -4300,44 +4515,47 @@
         <v>0.5</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J66" s="4">
         <v>1</v>
       </c>
       <c r="K66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
       <c r="N66" s="4">
         <v>0</v>
       </c>
       <c r="O66" s="4">
         <v>0</v>
       </c>
-      <c r="P66" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="5">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
+      <c r="R66" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>2</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
         <f t="shared" si="0"/>
         <v>43.49597</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="4">
         <v>66</v>
@@ -4360,38 +4578,41 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
       <c r="N67" s="4">
         <v>0</v>
       </c>
       <c r="O67" s="4">
-        <v>1</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="5">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>2</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
       <c r="T67">
-        <f t="shared" ref="T67:T130" si="2">F67*0.621371</f>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="2">F67*0.621371</f>
         <v>43.49597</v>
       </c>
-      <c r="U67">
-        <f t="shared" ref="U67:U130" si="3">D67 * 1.09361</f>
+      <c r="V67">
+        <f t="shared" ref="V67:V130" si="3">D67 * 1.09361</f>
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="4">
         <v>67</v>
@@ -4414,38 +4635,41 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="M68" s="4"/>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
       <c r="N68" s="4">
         <v>0</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
       </c>
-      <c r="P68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="5">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4">
+        <v>0</v>
+      </c>
+      <c r="R68" s="5">
         <v>9</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>2</v>
       </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
       <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="4">
         <v>68</v>
@@ -4468,38 +4692,41 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
       <c r="N69" s="4">
         <v>0</v>
       </c>
       <c r="O69" s="4">
         <v>0</v>
       </c>
-      <c r="P69" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="5">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
+      <c r="R69" s="5">
         <v>9</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>2</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
       <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="4">
         <v>69</v>
@@ -4522,38 +4749,41 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
       <c r="N70" s="4">
         <v>0</v>
       </c>
       <c r="O70" s="4">
         <v>0</v>
       </c>
-      <c r="P70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="5">
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4">
+        <v>0</v>
+      </c>
+      <c r="R70" s="5">
         <v>9</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>3</v>
       </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
       <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4">
         <v>70</v>
@@ -4576,38 +4806,41 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
       <c r="N71" s="4">
         <v>0</v>
       </c>
       <c r="O71" s="4">
         <v>0</v>
       </c>
-      <c r="P71" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="5">
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="5">
         <v>9</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>3</v>
       </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
       <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" s="4">
         <v>71</v>
@@ -4630,38 +4863,41 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
       <c r="N72" s="4">
         <v>0</v>
       </c>
       <c r="O72" s="4">
         <v>0</v>
       </c>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="5">
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
+      <c r="R72" s="5">
         <v>9</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>3</v>
       </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
       <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73" s="4">
         <v>72</v>
@@ -4684,38 +4920,41 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
       <c r="N73" s="4">
         <v>0</v>
       </c>
       <c r="O73" s="4">
-        <v>1</v>
-      </c>
-      <c r="P73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="5">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
+      <c r="R73" s="5">
         <v>9</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>3</v>
       </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
       <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74" s="4">
         <v>73</v>
@@ -4736,44 +4975,47 @@
         <v>0.5</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J74" s="4">
         <v>1</v>
       </c>
       <c r="K74" s="4"/>
-      <c r="M74" s="4"/>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
       <c r="N74" s="4">
         <v>0</v>
       </c>
       <c r="O74" s="4">
         <v>0</v>
       </c>
-      <c r="P74" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="5">
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4">
+        <v>0</v>
+      </c>
+      <c r="R74" s="5">
         <v>9</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>3</v>
       </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
       <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75" s="4">
         <v>74</v>
@@ -4796,38 +5038,41 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="M75" s="4"/>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
       <c r="N75" s="4">
         <v>0</v>
       </c>
       <c r="O75" s="4">
-        <v>1</v>
-      </c>
-      <c r="P75" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="5">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+      <c r="R75" s="5">
         <v>9</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>3</v>
       </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
       <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76" s="4">
         <v>75</v>
@@ -4850,38 +5095,41 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="M76" s="4"/>
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
       <c r="N76" s="4">
         <v>0</v>
       </c>
       <c r="O76" s="4">
         <v>0</v>
       </c>
-      <c r="P76" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="5">
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4">
+        <v>0</v>
+      </c>
+      <c r="R76" s="5">
         <v>9</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>3</v>
       </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
       <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -4904,40 +5152,43 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="L77" t="s">
-        <v>67</v>
-      </c>
-      <c r="M77" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
       <c r="N77" s="4">
         <v>0</v>
       </c>
       <c r="O77" s="4">
-        <v>1</v>
-      </c>
-      <c r="P77" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="5">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="5">
         <v>9</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>3</v>
       </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
       <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
         <f t="shared" si="2"/>
         <v>24.854839999999999</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" s="4">
         <v>77</v>
@@ -4958,46 +5209,49 @@
         <v>0.5</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J78" s="4">
         <v>2</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M78" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
       <c r="N78" s="4">
         <v>0</v>
       </c>
       <c r="O78" s="4">
         <v>0</v>
       </c>
-      <c r="P78" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="5">
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
+      <c r="R78" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>3</v>
       </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
       <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="4">
         <v>78</v>
@@ -5020,38 +5274,41 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="M79" s="4"/>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
       <c r="N79" s="4">
         <v>0</v>
       </c>
       <c r="O79" s="4">
-        <v>1</v>
-      </c>
-      <c r="P79" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="5">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4">
+        <v>0</v>
+      </c>
+      <c r="R79" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>3</v>
       </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
       <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" s="4">
         <v>79</v>
@@ -5074,38 +5331,41 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
       <c r="N80" s="4">
         <v>0</v>
       </c>
       <c r="O80" s="4">
         <v>0</v>
       </c>
-      <c r="P80" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="5">
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
+      <c r="R80" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>3</v>
       </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
       <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="4">
         <v>80</v>
@@ -5128,38 +5388,41 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="M81" s="4"/>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
       <c r="N81" s="4">
         <v>0</v>
       </c>
       <c r="O81" s="4">
         <v>0</v>
       </c>
-      <c r="P81" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="5">
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+      <c r="R81" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>3</v>
       </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
       <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" s="4">
         <v>81</v>
@@ -5182,38 +5445,41 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="M82" s="4"/>
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
       <c r="N82" s="4">
         <v>0</v>
       </c>
       <c r="O82" s="4">
         <v>0</v>
       </c>
-      <c r="P82" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="5">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4">
+        <v>0</v>
+      </c>
+      <c r="R82" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <v>3</v>
       </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
       <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="4">
         <v>82</v>
@@ -5236,38 +5502,41 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
       <c r="N83" s="4">
         <v>0</v>
       </c>
       <c r="O83" s="4">
         <v>0</v>
       </c>
-      <c r="P83" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="5">
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4">
+        <v>0</v>
+      </c>
+      <c r="R83" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>3</v>
       </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
       <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84" s="4">
         <v>83</v>
@@ -5290,38 +5559,41 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="M84" s="4"/>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
       <c r="N84" s="4">
         <v>0</v>
       </c>
       <c r="O84" s="4">
         <v>0</v>
       </c>
-      <c r="P84" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="5">
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4">
+        <v>0</v>
+      </c>
+      <c r="R84" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <v>3</v>
       </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
       <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C85" s="4">
         <v>84</v>
@@ -5344,38 +5616,41 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="M85" s="4"/>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
       <c r="N85" s="4">
         <v>0</v>
       </c>
       <c r="O85" s="4">
         <v>0</v>
       </c>
-      <c r="P85" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="5">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+      <c r="R85" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <v>3</v>
       </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
       <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" s="4">
         <v>85</v>
@@ -5398,40 +5673,43 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M86" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
       <c r="N86" s="4">
         <v>0</v>
       </c>
       <c r="O86" s="4">
         <v>0</v>
       </c>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="5">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4">
+        <v>0</v>
+      </c>
+      <c r="R86" s="5">
         <v>15.428571428571431</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <v>3</v>
       </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
       <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
         <f t="shared" si="2"/>
         <v>43.49597</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C87" s="4">
         <v>86</v>
@@ -5455,40 +5733,45 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" t="s">
-        <v>68</v>
-      </c>
-      <c r="M87" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="M87" s="4">
+        <v>1</v>
+      </c>
       <c r="N87" s="4">
         <v>0</v>
       </c>
       <c r="O87" s="4">
-        <v>0</v>
-      </c>
-      <c r="P87" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="5">
+        <v>1</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+      <c r="R87" s="5">
         <v>14.399999999999999</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <v>3</v>
       </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
       <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C88" s="4">
         <v>87</v>
@@ -5511,38 +5794,41 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="M88" s="4"/>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
       <c r="N88" s="4">
         <v>0</v>
       </c>
       <c r="O88" s="4">
-        <v>1</v>
-      </c>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="5">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
+      <c r="R88" s="5">
         <v>12.470399999999998</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <v>3</v>
       </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
       <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <f t="shared" si="3"/>
         <v>94.706625999999986</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89" s="4">
         <v>88</v>
@@ -5563,44 +5849,47 @@
         <v>0.5</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J89" s="4">
         <v>0</v>
       </c>
       <c r="K89" s="4"/>
-      <c r="M89" s="4"/>
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
       <c r="N89" s="4">
         <v>0</v>
       </c>
       <c r="O89" s="4">
         <v>0</v>
       </c>
-      <c r="P89" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="5">
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+      <c r="R89" s="5">
         <v>14.399999999999999</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <v>3</v>
       </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
       <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" s="4">
         <v>89</v>
@@ -5623,38 +5912,41 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="M90" s="4"/>
+      <c r="M90" s="4">
+        <v>0</v>
+      </c>
       <c r="N90" s="4">
         <v>0</v>
       </c>
       <c r="O90" s="4">
-        <v>1</v>
-      </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="5">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+      <c r="R90" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>3</v>
       </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
       <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="4">
         <v>90</v>
@@ -5677,38 +5969,41 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="M91" s="4"/>
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
       <c r="N91" s="4">
         <v>0</v>
       </c>
       <c r="O91" s="4">
         <v>0</v>
       </c>
-      <c r="P91" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="5">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>3</v>
       </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
       <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" s="4">
         <v>91</v>
@@ -5731,38 +6026,41 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="M92" s="4"/>
+      <c r="M92" s="4">
+        <v>0</v>
+      </c>
       <c r="N92" s="4">
         <v>0</v>
       </c>
       <c r="O92" s="4">
         <v>0</v>
       </c>
-      <c r="P92" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="5">
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4">
+        <v>0</v>
+      </c>
+      <c r="R92" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>3</v>
       </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
       <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="4">
         <v>92</v>
@@ -5785,38 +6083,41 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="M93" s="4"/>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
       <c r="N93" s="4">
         <v>0</v>
       </c>
       <c r="O93" s="4">
         <v>0</v>
       </c>
-      <c r="P93" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="5">
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <v>3</v>
       </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
       <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" s="4">
         <v>93</v>
@@ -5839,38 +6140,41 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="M94" s="4"/>
+      <c r="M94" s="4">
+        <v>0</v>
+      </c>
       <c r="N94" s="4">
         <v>0</v>
       </c>
       <c r="O94" s="4">
         <v>0</v>
       </c>
-      <c r="P94" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="5">
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4">
+        <v>0</v>
+      </c>
+      <c r="R94" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <v>3</v>
       </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
       <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95" s="4">
         <v>94</v>
@@ -5893,38 +6197,41 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="M95" s="4"/>
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
       <c r="N95" s="4">
         <v>0</v>
       </c>
       <c r="O95" s="4">
         <v>0</v>
       </c>
-      <c r="P95" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="5">
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4">
+        <v>0</v>
+      </c>
+      <c r="R95" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <v>3</v>
       </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
       <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C96" s="4">
         <v>95</v>
@@ -5947,38 +6254,41 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="M96" s="4">
+        <v>0</v>
+      </c>
       <c r="N96" s="4">
         <v>0</v>
       </c>
       <c r="O96" s="4">
-        <v>1</v>
-      </c>
-      <c r="P96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="5">
+        <v>0</v>
+      </c>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4">
+        <v>0</v>
+      </c>
+      <c r="R96" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <v>3</v>
       </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
       <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" s="4">
         <v>96</v>
@@ -5999,44 +6309,47 @@
         <v>0.5</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
       </c>
       <c r="K97" s="4"/>
-      <c r="M97" s="4"/>
+      <c r="M97" s="4">
+        <v>0</v>
+      </c>
       <c r="N97" s="4">
         <v>0</v>
       </c>
       <c r="O97" s="4">
         <v>0</v>
       </c>
-      <c r="P97" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="5">
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4">
+        <v>0</v>
+      </c>
+      <c r="R97" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <v>3</v>
       </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
       <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C98" s="4">
         <v>97</v>
@@ -6059,38 +6372,41 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="M98" s="4"/>
+      <c r="M98" s="4">
+        <v>0</v>
+      </c>
       <c r="N98" s="4">
         <v>0</v>
       </c>
       <c r="O98" s="4">
-        <v>1</v>
-      </c>
-      <c r="P98" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="5">
+        <v>0</v>
+      </c>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4">
+        <v>0</v>
+      </c>
+      <c r="R98" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <v>3</v>
       </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
       <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" s="4">
         <v>98</v>
@@ -6113,38 +6429,41 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="M99" s="4">
+        <v>0</v>
+      </c>
       <c r="N99" s="4">
         <v>0</v>
       </c>
       <c r="O99" s="4">
         <v>0</v>
       </c>
-      <c r="P99" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="5">
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4">
+        <v>0</v>
+      </c>
+      <c r="R99" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <v>3</v>
       </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
       <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" s="4">
         <v>99</v>
@@ -6167,38 +6486,41 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="M100" s="4"/>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
       <c r="N100" s="4">
         <v>0</v>
       </c>
       <c r="O100" s="4">
         <v>0</v>
       </c>
-      <c r="P100" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="5">
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4">
+        <v>0</v>
+      </c>
+      <c r="R100" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <v>3</v>
       </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
       <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C101" s="4">
         <v>100</v>
@@ -6222,40 +6544,43 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" t="s">
-        <v>68</v>
-      </c>
-      <c r="M101" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="M101" s="4">
+        <v>1</v>
+      </c>
       <c r="N101" s="4">
         <v>0</v>
       </c>
       <c r="O101" s="4">
         <v>0</v>
       </c>
-      <c r="P101" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="5">
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4">
+        <v>0</v>
+      </c>
+      <c r="R101" s="5">
         <v>10.799999999999999</v>
       </c>
-      <c r="R101">
+      <c r="S101">
         <v>3</v>
       </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
       <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
         <f t="shared" si="2"/>
         <v>15.534275000000001</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C102" s="4">
         <v>101</v>
@@ -6279,40 +6604,45 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" t="s">
-        <v>67</v>
-      </c>
-      <c r="M102" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="M102" s="4">
+        <v>1</v>
+      </c>
       <c r="N102" s="4">
         <v>0</v>
       </c>
       <c r="O102" s="4">
-        <v>0</v>
-      </c>
-      <c r="P102" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="5">
+        <v>1</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>0</v>
+      </c>
+      <c r="R102" s="5">
         <v>4.8461538461538467</v>
       </c>
-      <c r="R102">
+      <c r="S102">
         <v>3</v>
       </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
       <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
         <f t="shared" si="2"/>
         <v>16.155646000000001</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <f t="shared" si="3"/>
         <v>38.276350000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" s="4">
         <v>102</v>
@@ -6335,38 +6665,41 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="M103" s="4"/>
+      <c r="M103" s="4">
+        <v>0</v>
+      </c>
       <c r="N103" s="4">
         <v>0</v>
       </c>
       <c r="O103" s="4">
         <v>0</v>
       </c>
-      <c r="P103" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="5">
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4">
+        <v>0</v>
+      </c>
+      <c r="R103" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="R103">
+      <c r="S103">
         <v>3</v>
       </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
       <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
         <f t="shared" si="2"/>
         <v>17.398388000000001</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="4">
         <v>103</v>
@@ -6389,38 +6722,41 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="M104" s="4"/>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
       <c r="N104" s="4">
         <v>0</v>
       </c>
       <c r="O104" s="4">
         <v>0</v>
       </c>
-      <c r="P104" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="5">
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4">
+        <v>0</v>
+      </c>
+      <c r="R104" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="R104">
+      <c r="S104">
         <v>3</v>
       </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
       <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
         <f t="shared" si="2"/>
         <v>17.398388000000001</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" s="4">
         <v>104</v>
@@ -6443,38 +6779,41 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="M105" s="4"/>
+      <c r="M105" s="4">
+        <v>0</v>
+      </c>
       <c r="N105" s="4">
         <v>0</v>
       </c>
       <c r="O105" s="4">
-        <v>1</v>
-      </c>
-      <c r="P105" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="5">
+        <v>0</v>
+      </c>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4">
+        <v>0</v>
+      </c>
+      <c r="R105" s="5">
         <v>10.285714285714286</v>
       </c>
-      <c r="R105">
+      <c r="S105">
         <v>3</v>
       </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
       <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
         <f t="shared" si="2"/>
         <v>17.398388000000001</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <f t="shared" si="3"/>
         <v>87.488799999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C106" s="4">
         <v>105</v>
@@ -6495,44 +6834,47 @@
         <v>0.5</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J106" s="4">
         <v>1</v>
       </c>
       <c r="K106" s="4"/>
-      <c r="M106" s="4"/>
+      <c r="M106" s="4">
+        <v>0</v>
+      </c>
       <c r="N106" s="4">
         <v>0</v>
       </c>
       <c r="O106" s="4">
         <v>0</v>
       </c>
-      <c r="P106" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="5">
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4">
+        <v>0</v>
+      </c>
+      <c r="R106" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="R106">
+      <c r="S106">
         <v>3</v>
       </c>
-      <c r="S106">
-        <v>0</v>
-      </c>
       <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
         <f t="shared" si="2"/>
         <v>17.398388000000001</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C107" s="4">
         <v>106</v>
@@ -6555,38 +6897,41 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="M107" s="4"/>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
       <c r="N107" s="4">
         <v>0</v>
       </c>
       <c r="O107" s="4">
-        <v>1</v>
-      </c>
-      <c r="P107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="5">
+        <v>0</v>
+      </c>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4">
+        <v>0</v>
+      </c>
+      <c r="R107" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="R107">
+      <c r="S107">
         <v>3</v>
       </c>
-      <c r="S107">
-        <v>0</v>
-      </c>
       <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
         <f t="shared" si="2"/>
         <v>17.398388000000001</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C108" s="4">
         <v>107</v>
@@ -6609,38 +6954,41 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="M108" s="4"/>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
       <c r="N108" s="4">
         <v>0</v>
       </c>
       <c r="O108" s="4">
         <v>0</v>
       </c>
-      <c r="P108" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="5">
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4">
+        <v>0</v>
+      </c>
+      <c r="R108" s="5">
         <v>11.571428571428573</v>
       </c>
-      <c r="R108">
+      <c r="S108">
         <v>3</v>
       </c>
-      <c r="S108">
-        <v>0</v>
-      </c>
       <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
         <f t="shared" si="2"/>
         <v>17.398388000000001</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <f t="shared" si="3"/>
         <v>98.424899999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C109" s="4">
         <v>108</v>
@@ -6663,38 +7011,41 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="M109" s="4"/>
+      <c r="M109" s="4">
+        <v>0</v>
+      </c>
       <c r="N109" s="4">
         <v>1</v>
       </c>
       <c r="O109" s="4">
         <v>0</v>
       </c>
-      <c r="P109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="5">
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4">
+        <v>0</v>
+      </c>
+      <c r="R109" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="R109">
+      <c r="S109">
         <v>3</v>
       </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
       <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
         <f t="shared" si="2"/>
         <v>17.398388000000001</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C110" s="4">
         <v>109</v>
@@ -6717,38 +7068,41 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="M110" s="4"/>
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
       <c r="N110" s="4">
         <v>0</v>
       </c>
       <c r="O110" s="4">
         <v>0</v>
       </c>
-      <c r="P110" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="5">
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4">
+        <v>0</v>
+      </c>
+      <c r="R110" s="5">
         <v>12.857142857142859</v>
       </c>
-      <c r="R110">
+      <c r="S110">
         <v>3</v>
       </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
       <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
         <f t="shared" si="2"/>
         <v>17.398388000000001</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="4">
         <v>110</v>
@@ -6771,38 +7125,41 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-      <c r="M111" s="4"/>
+      <c r="M111" s="4">
+        <v>0</v>
+      </c>
       <c r="N111" s="4">
         <v>0</v>
       </c>
       <c r="O111" s="4">
         <v>0</v>
       </c>
-      <c r="P111" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="5">
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4">
+        <v>0</v>
+      </c>
+      <c r="R111" s="5">
         <v>12</v>
       </c>
-      <c r="R111">
+      <c r="S111">
         <v>2</v>
       </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
       <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
         <f t="shared" si="2"/>
         <v>18.64113</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C112" s="4">
         <v>111</v>
@@ -6825,38 +7182,41 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="M112" s="4"/>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
       <c r="N112" s="4">
         <v>0</v>
       </c>
       <c r="O112" s="4">
         <v>0</v>
       </c>
-      <c r="P112" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="5">
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4">
+        <v>0</v>
+      </c>
+      <c r="R112" s="5">
         <v>12</v>
       </c>
-      <c r="R112">
+      <c r="S112">
         <v>2</v>
       </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
       <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
         <f t="shared" si="2"/>
         <v>18.64113</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113" s="4">
         <v>112</v>
@@ -6879,38 +7239,41 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-      <c r="M113" s="4"/>
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
       <c r="N113" s="4">
         <v>0</v>
       </c>
       <c r="O113" s="4">
         <v>0</v>
       </c>
-      <c r="P113" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="5">
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4">
+        <v>0</v>
+      </c>
+      <c r="R113" s="5">
         <v>12</v>
       </c>
-      <c r="R113">
+      <c r="S113">
         <v>2</v>
       </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
       <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
         <f t="shared" si="2"/>
         <v>18.64113</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C114" s="4">
         <v>113</v>
@@ -6933,38 +7296,41 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="M114" s="4"/>
+      <c r="M114" s="4">
+        <v>0</v>
+      </c>
       <c r="N114" s="4">
         <v>0</v>
       </c>
       <c r="O114" s="4">
-        <v>1</v>
-      </c>
-      <c r="P114" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="5">
+        <v>0</v>
+      </c>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4">
+        <v>0</v>
+      </c>
+      <c r="R114" s="5">
         <v>12</v>
       </c>
-      <c r="R114">
+      <c r="S114">
         <v>2</v>
       </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
       <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
         <f t="shared" si="2"/>
         <v>18.64113</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C115" s="4">
         <v>114</v>
@@ -6985,44 +7351,47 @@
         <v>0.5</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J115" s="4">
         <v>1</v>
       </c>
       <c r="K115" s="4"/>
-      <c r="M115" s="4"/>
+      <c r="M115" s="4">
+        <v>0</v>
+      </c>
       <c r="N115" s="4">
         <v>0</v>
       </c>
       <c r="O115" s="4">
         <v>0</v>
       </c>
-      <c r="P115" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="5">
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4">
+        <v>0</v>
+      </c>
+      <c r="R115" s="5">
         <v>19.439999999999998</v>
       </c>
-      <c r="R115">
+      <c r="S115">
         <v>2</v>
       </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
       <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
         <f t="shared" si="2"/>
         <v>18.64113</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <f t="shared" si="3"/>
         <v>177.16481999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="4">
         <v>115</v>
@@ -7045,38 +7414,41 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-      <c r="M116" s="4"/>
+      <c r="M116" s="4">
+        <v>0</v>
+      </c>
       <c r="N116" s="4">
         <v>0</v>
       </c>
       <c r="O116" s="4">
-        <v>1</v>
-      </c>
-      <c r="P116" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="5">
+        <v>0</v>
+      </c>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4">
+        <v>0</v>
+      </c>
+      <c r="R116" s="5">
         <v>12</v>
       </c>
-      <c r="R116">
+      <c r="S116">
         <v>2</v>
       </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
       <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
         <f t="shared" si="2"/>
         <v>18.64113</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C117" s="4">
         <v>116</v>
@@ -7099,38 +7471,41 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-      <c r="M117" s="4"/>
+      <c r="M117" s="4">
+        <v>0</v>
+      </c>
       <c r="N117" s="4">
         <v>0</v>
       </c>
       <c r="O117" s="4">
         <v>0</v>
       </c>
-      <c r="P117" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="5">
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4">
+        <v>0</v>
+      </c>
+      <c r="R117" s="5">
         <v>12</v>
       </c>
-      <c r="R117">
+      <c r="S117">
         <v>2</v>
       </c>
-      <c r="S117">
-        <v>0</v>
-      </c>
       <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
         <f t="shared" si="2"/>
         <v>18.64113</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" s="4">
         <v>117</v>
@@ -7153,38 +7528,41 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="M118" s="4"/>
+      <c r="M118" s="4">
+        <v>0</v>
+      </c>
       <c r="N118" s="4">
         <v>0</v>
       </c>
       <c r="O118" s="4">
         <v>0</v>
       </c>
-      <c r="P118" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="5">
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4">
+        <v>0</v>
+      </c>
+      <c r="R118" s="5">
         <v>12</v>
       </c>
-      <c r="R118">
+      <c r="S118">
         <v>2</v>
       </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
       <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
         <f t="shared" si="2"/>
         <v>9.3205650000000002</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C119" s="4">
         <v>118</v>
@@ -7207,38 +7585,41 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-      <c r="M119" s="4"/>
+      <c r="M119" s="4">
+        <v>0</v>
+      </c>
       <c r="N119" s="4">
         <v>0</v>
       </c>
       <c r="O119" s="4">
         <v>0</v>
       </c>
-      <c r="P119" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="5">
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4">
+        <v>0</v>
+      </c>
+      <c r="R119" s="5">
         <v>12</v>
       </c>
-      <c r="R119">
+      <c r="S119">
         <v>2</v>
       </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
       <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
         <f t="shared" si="2"/>
         <v>9.3205650000000002</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C120" s="4">
         <v>119</v>
@@ -7261,38 +7642,41 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-      <c r="M120" s="4"/>
+      <c r="M120" s="4">
+        <v>0</v>
+      </c>
       <c r="N120" s="4">
         <v>0</v>
       </c>
       <c r="O120" s="4">
         <v>0</v>
       </c>
-      <c r="P120" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="5">
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4">
+        <v>0</v>
+      </c>
+      <c r="R120" s="5">
         <v>9.6</v>
       </c>
-      <c r="R120">
+      <c r="S120">
         <v>2</v>
       </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
       <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
         <f t="shared" si="2"/>
         <v>9.3205650000000002</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <f t="shared" si="3"/>
         <v>43.744399999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C121" s="4">
         <v>120</v>
@@ -7315,38 +7699,41 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="M121" s="4"/>
+      <c r="M121" s="4">
+        <v>0</v>
+      </c>
       <c r="N121" s="4">
         <v>0</v>
       </c>
       <c r="O121" s="4">
         <v>0</v>
       </c>
-      <c r="P121" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="5">
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4">
+        <v>0</v>
+      </c>
+      <c r="R121" s="5">
         <v>12</v>
       </c>
-      <c r="R121">
+      <c r="S121">
         <v>2</v>
       </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
       <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
         <f t="shared" si="2"/>
         <v>9.3205650000000002</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122" s="4">
         <v>121</v>
@@ -7369,38 +7756,41 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-      <c r="M122" s="4"/>
+      <c r="M122" s="4">
+        <v>0</v>
+      </c>
       <c r="N122" s="4">
         <v>0</v>
       </c>
       <c r="O122" s="4">
         <v>0</v>
       </c>
-      <c r="P122" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="5">
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4">
+        <v>0</v>
+      </c>
+      <c r="R122" s="5">
         <v>12</v>
       </c>
-      <c r="R122">
+      <c r="S122">
         <v>2</v>
       </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
       <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
         <f t="shared" si="2"/>
         <v>9.3205650000000002</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C123" s="4">
         <v>122</v>
@@ -7423,38 +7813,41 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="M123" s="4"/>
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
       <c r="N123" s="4">
         <v>0</v>
       </c>
       <c r="O123" s="4">
-        <v>1</v>
-      </c>
-      <c r="P123" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="5">
+        <v>0</v>
+      </c>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4">
+        <v>1</v>
+      </c>
+      <c r="R123" s="5">
         <v>9</v>
       </c>
-      <c r="R123">
+      <c r="S123">
         <v>2</v>
       </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
       <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
         <f t="shared" si="2"/>
         <v>12.42742</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C124" s="4">
         <v>123</v>
@@ -7475,44 +7868,47 @@
         <v>0.5</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J124" s="4">
         <v>1</v>
       </c>
       <c r="K124" s="4"/>
-      <c r="M124" s="4"/>
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
       <c r="N124" s="4">
         <v>0</v>
       </c>
       <c r="O124" s="4">
         <v>0</v>
       </c>
-      <c r="P124" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q124" s="5">
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4">
+        <v>1</v>
+      </c>
+      <c r="R124" s="5">
         <v>9</v>
       </c>
-      <c r="R124">
+      <c r="S124">
         <v>2</v>
       </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
       <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
         <f t="shared" si="2"/>
         <v>12.42742</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C125" s="4">
         <v>124</v>
@@ -7535,38 +7931,41 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-      <c r="M125" s="4"/>
+      <c r="M125" s="4">
+        <v>0</v>
+      </c>
       <c r="N125" s="4">
         <v>0</v>
       </c>
       <c r="O125" s="4">
-        <v>1</v>
-      </c>
-      <c r="P125" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q125" s="5">
+        <v>0</v>
+      </c>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4">
+        <v>1</v>
+      </c>
+      <c r="R125" s="5">
         <v>9</v>
       </c>
-      <c r="R125">
+      <c r="S125">
         <v>2</v>
       </c>
-      <c r="S125">
-        <v>0</v>
-      </c>
       <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
         <f t="shared" si="2"/>
         <v>12.42742</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C126" s="4">
         <v>125</v>
@@ -7589,38 +7988,41 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-      <c r="M126" s="4"/>
+      <c r="M126" s="4">
+        <v>0</v>
+      </c>
       <c r="N126" s="4">
         <v>0</v>
       </c>
       <c r="O126" s="4">
         <v>0</v>
       </c>
-      <c r="P126" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q126" s="5">
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4">
+        <v>1</v>
+      </c>
+      <c r="R126" s="5">
         <v>9</v>
       </c>
-      <c r="R126">
+      <c r="S126">
         <v>2</v>
       </c>
-      <c r="S126">
-        <v>0</v>
-      </c>
       <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
         <f t="shared" si="2"/>
         <v>12.42742</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C127" s="4">
         <v>126</v>
@@ -7643,38 +8045,41 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="M127" s="4"/>
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
       <c r="N127" s="4">
         <v>0</v>
       </c>
       <c r="O127" s="4">
         <v>0</v>
       </c>
-      <c r="P127" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="5">
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4">
+        <v>1</v>
+      </c>
+      <c r="R127" s="5">
         <v>9</v>
       </c>
-      <c r="R127">
+      <c r="S127">
         <v>2</v>
       </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
       <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
         <f t="shared" si="2"/>
         <v>12.42742</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C128" s="4">
         <v>127</v>
@@ -7697,38 +8102,41 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
-      <c r="M128" s="4"/>
+      <c r="M128" s="4">
+        <v>0</v>
+      </c>
       <c r="N128" s="4">
         <v>0</v>
       </c>
       <c r="O128" s="4">
         <v>0</v>
       </c>
-      <c r="P128" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="5">
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4">
+        <v>1</v>
+      </c>
+      <c r="R128" s="5">
         <v>9</v>
       </c>
-      <c r="R128">
+      <c r="S128">
         <v>2</v>
       </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
       <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
         <f t="shared" si="2"/>
         <v>12.42742</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C129" s="4">
         <v>128</v>
@@ -7751,38 +8159,41 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
-      <c r="M129" s="4"/>
+      <c r="M129" s="4">
+        <v>0</v>
+      </c>
       <c r="N129" s="4">
         <v>0</v>
       </c>
       <c r="O129" s="4">
         <v>0</v>
       </c>
-      <c r="P129" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q129" s="5">
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4">
+        <v>1</v>
+      </c>
+      <c r="R129" s="5">
         <v>9</v>
       </c>
-      <c r="R129">
+      <c r="S129">
         <v>2</v>
       </c>
-      <c r="S129">
-        <v>0</v>
-      </c>
       <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
         <f t="shared" si="2"/>
         <v>12.42742</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C130" s="4">
         <v>129</v>
@@ -7805,38 +8216,41 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-      <c r="M130" s="4"/>
+      <c r="M130" s="4">
+        <v>0</v>
+      </c>
       <c r="N130" s="4">
         <v>0</v>
       </c>
       <c r="O130" s="4">
         <v>0</v>
       </c>
-      <c r="P130" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q130" s="5">
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4">
+        <v>1</v>
+      </c>
+      <c r="R130" s="5">
         <v>9</v>
       </c>
-      <c r="R130">
+      <c r="S130">
         <v>2</v>
       </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
       <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
         <f t="shared" si="2"/>
         <v>12.42742</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C131" s="4">
         <v>130</v>
@@ -7859,38 +8273,41 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-      <c r="M131" s="4"/>
+      <c r="M131" s="4">
+        <v>0</v>
+      </c>
       <c r="N131" s="4">
         <v>0</v>
       </c>
       <c r="O131" s="4">
         <v>0</v>
       </c>
-      <c r="P131" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q131" s="5">
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4">
+        <v>1</v>
+      </c>
+      <c r="R131" s="5">
         <v>9</v>
       </c>
-      <c r="R131">
+      <c r="S131">
         <v>2</v>
       </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
       <c r="T131">
-        <f t="shared" ref="T131:T151" si="4">F131*0.621371</f>
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <f t="shared" ref="U131:U151" si="4">F131*0.621371</f>
         <v>12.42742</v>
       </c>
-      <c r="U131">
-        <f t="shared" ref="U131:U151" si="5">D131 * 1.09361</f>
+      <c r="V131">
+        <f t="shared" ref="V131:V151" si="5">D131 * 1.09361</f>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C132" s="4">
         <v>131</v>
@@ -7913,38 +8330,41 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
-      <c r="M132" s="4"/>
+      <c r="M132" s="4">
+        <v>0</v>
+      </c>
       <c r="N132" s="4">
         <v>0</v>
       </c>
       <c r="O132" s="4">
-        <v>1</v>
-      </c>
-      <c r="P132" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q132" s="5">
+        <v>0</v>
+      </c>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4">
+        <v>1</v>
+      </c>
+      <c r="R132" s="5">
         <v>9</v>
       </c>
-      <c r="R132">
+      <c r="S132">
         <v>2</v>
       </c>
-      <c r="S132">
-        <v>0</v>
-      </c>
       <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C133" s="4">
         <v>132</v>
@@ -7965,44 +8385,47 @@
         <v>0.5</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133" s="4">
         <v>0</v>
       </c>
       <c r="K133" s="4"/>
-      <c r="M133" s="4"/>
+      <c r="M133" s="4">
+        <v>0</v>
+      </c>
       <c r="N133" s="4">
         <v>0</v>
       </c>
       <c r="O133" s="4">
         <v>0</v>
       </c>
-      <c r="P133" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="5">
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4">
+        <v>1</v>
+      </c>
+      <c r="R133" s="5">
         <v>9</v>
       </c>
-      <c r="R133">
+      <c r="S133">
         <v>2</v>
       </c>
-      <c r="S133">
-        <v>0</v>
-      </c>
       <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C134" s="4">
         <v>133</v>
@@ -8025,38 +8448,41 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-      <c r="M134" s="4"/>
+      <c r="M134" s="4">
+        <v>0</v>
+      </c>
       <c r="N134" s="4">
         <v>0</v>
       </c>
       <c r="O134" s="4">
-        <v>1</v>
-      </c>
-      <c r="P134" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="5">
+        <v>0</v>
+      </c>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4">
+        <v>1</v>
+      </c>
+      <c r="R134" s="5">
         <v>9</v>
       </c>
-      <c r="R134">
+      <c r="S134">
         <v>2</v>
       </c>
-      <c r="S134">
-        <v>0</v>
-      </c>
       <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C135" s="4">
         <v>134</v>
@@ -8079,38 +8505,41 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="M135" s="4"/>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
       <c r="N135" s="4">
         <v>0</v>
       </c>
       <c r="O135" s="4">
         <v>0</v>
       </c>
-      <c r="P135" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="5">
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4">
+        <v>1</v>
+      </c>
+      <c r="R135" s="5">
         <v>9</v>
       </c>
-      <c r="R135">
+      <c r="S135">
         <v>2</v>
       </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
       <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C136" s="4">
         <v>135</v>
@@ -8133,38 +8562,41 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-      <c r="M136" s="4"/>
+      <c r="M136" s="4">
+        <v>0</v>
+      </c>
       <c r="N136" s="4">
         <v>0</v>
       </c>
       <c r="O136" s="4">
         <v>0</v>
       </c>
-      <c r="P136" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="5">
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4">
+        <v>1</v>
+      </c>
+      <c r="R136" s="5">
         <v>9</v>
       </c>
-      <c r="R136">
-        <v>1</v>
-      </c>
       <c r="S136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C137" s="4">
         <v>136</v>
@@ -8187,38 +8619,41 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-      <c r="M137" s="4"/>
+      <c r="M137" s="4">
+        <v>0</v>
+      </c>
       <c r="N137" s="4">
         <v>0</v>
       </c>
       <c r="O137" s="4">
         <v>0</v>
       </c>
-      <c r="P137" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="5">
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4">
+        <v>1</v>
+      </c>
+      <c r="R137" s="5">
         <v>9</v>
       </c>
-      <c r="R137">
-        <v>1</v>
-      </c>
       <c r="S137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C138" s="4">
         <v>137</v>
@@ -8241,38 +8676,41 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
-      <c r="M138" s="4"/>
+      <c r="M138" s="4">
+        <v>0</v>
+      </c>
       <c r="N138" s="4">
         <v>0</v>
       </c>
       <c r="O138" s="4">
         <v>0</v>
       </c>
-      <c r="P138" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q138" s="5">
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4">
+        <v>1</v>
+      </c>
+      <c r="R138" s="5">
         <v>9</v>
       </c>
-      <c r="R138">
-        <v>1</v>
-      </c>
       <c r="S138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C139" s="4">
         <v>138</v>
@@ -8295,38 +8733,41 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
-      <c r="M139" s="4"/>
+      <c r="M139" s="4">
+        <v>0</v>
+      </c>
       <c r="N139" s="4">
         <v>0</v>
       </c>
       <c r="O139" s="4">
         <v>0</v>
       </c>
-      <c r="P139" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="5">
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4">
+        <v>1</v>
+      </c>
+      <c r="R139" s="5">
         <v>9</v>
       </c>
-      <c r="R139">
-        <v>1</v>
-      </c>
       <c r="S139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C140" s="4">
         <v>139</v>
@@ -8349,38 +8790,41 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-      <c r="M140" s="4"/>
+      <c r="M140" s="4">
+        <v>0</v>
+      </c>
       <c r="N140" s="4">
         <v>0</v>
       </c>
       <c r="O140" s="4">
         <v>0</v>
       </c>
-      <c r="P140" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="5">
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4">
+        <v>1</v>
+      </c>
+      <c r="R140" s="5">
         <v>9</v>
       </c>
-      <c r="R140">
-        <v>1</v>
-      </c>
       <c r="S140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C141" s="4">
         <v>140</v>
@@ -8403,38 +8847,41 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="M141" s="4"/>
+      <c r="M141" s="4">
+        <v>0</v>
+      </c>
       <c r="N141" s="4">
         <v>0</v>
       </c>
       <c r="O141" s="4">
-        <v>1</v>
-      </c>
-      <c r="P141" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="5">
+        <v>0</v>
+      </c>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4">
+        <v>1</v>
+      </c>
+      <c r="R141" s="5">
         <v>9</v>
       </c>
-      <c r="R141">
-        <v>1</v>
-      </c>
       <c r="S141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C142" s="4">
         <v>141</v>
@@ -8455,44 +8902,47 @@
         <v>0.5</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J142" s="4">
         <v>1</v>
       </c>
       <c r="K142" s="4"/>
-      <c r="M142" s="4"/>
+      <c r="M142" s="4">
+        <v>0</v>
+      </c>
       <c r="N142" s="4">
         <v>0</v>
       </c>
       <c r="O142" s="4">
         <v>0</v>
       </c>
-      <c r="P142" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q142" s="5">
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4">
+        <v>1</v>
+      </c>
+      <c r="R142" s="5">
         <v>9</v>
       </c>
-      <c r="R142">
-        <v>1</v>
-      </c>
       <c r="S142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C143" s="4">
         <v>142</v>
@@ -8515,38 +8965,41 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="M143" s="4"/>
+      <c r="M143" s="4">
+        <v>0</v>
+      </c>
       <c r="N143" s="4">
         <v>0</v>
       </c>
       <c r="O143" s="4">
-        <v>1</v>
-      </c>
-      <c r="P143" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q143" s="5">
+        <v>0</v>
+      </c>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4">
+        <v>1</v>
+      </c>
+      <c r="R143" s="5">
         <v>9</v>
       </c>
-      <c r="R143">
-        <v>1</v>
-      </c>
       <c r="S143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C144" s="4">
         <v>143</v>
@@ -8569,38 +9022,41 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
-      <c r="M144" s="4"/>
+      <c r="M144" s="4">
+        <v>0</v>
+      </c>
       <c r="N144" s="4">
         <v>0</v>
       </c>
       <c r="O144" s="4">
         <v>0</v>
       </c>
-      <c r="P144" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="5">
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4">
+        <v>1</v>
+      </c>
+      <c r="R144" s="5">
         <v>9</v>
       </c>
-      <c r="R144">
-        <v>1</v>
-      </c>
       <c r="S144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C145" s="4">
         <v>144</v>
@@ -8623,38 +9079,41 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
-      <c r="M145" s="4"/>
+      <c r="M145" s="4">
+        <v>0</v>
+      </c>
       <c r="N145" s="4">
         <v>0</v>
       </c>
       <c r="O145" s="4">
         <v>0</v>
       </c>
-      <c r="P145" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q145" s="5">
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4">
+        <v>0</v>
+      </c>
+      <c r="R145" s="5">
         <v>9</v>
       </c>
-      <c r="R145">
-        <v>1</v>
-      </c>
       <c r="S145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C146" s="4">
         <v>145</v>
@@ -8677,38 +9136,41 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-      <c r="M146" s="4"/>
+      <c r="M146" s="4">
+        <v>0</v>
+      </c>
       <c r="N146" s="4">
         <v>0</v>
       </c>
       <c r="O146" s="4">
         <v>0</v>
       </c>
-      <c r="P146" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q146" s="5">
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4">
+        <v>0</v>
+      </c>
+      <c r="R146" s="5">
         <v>9</v>
       </c>
-      <c r="R146">
-        <v>1</v>
-      </c>
       <c r="S146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C147" s="4">
         <v>146</v>
@@ -8731,38 +9193,41 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-      <c r="M147" s="4"/>
+      <c r="M147" s="4">
+        <v>0</v>
+      </c>
       <c r="N147" s="4">
         <v>0</v>
       </c>
       <c r="O147" s="4">
         <v>0</v>
       </c>
-      <c r="P147" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="5">
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4">
+        <v>0</v>
+      </c>
+      <c r="R147" s="5">
         <v>9</v>
       </c>
-      <c r="R147">
-        <v>1</v>
-      </c>
       <c r="S147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C148" s="4">
         <v>147</v>
@@ -8785,38 +9250,41 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-      <c r="M148" s="4"/>
+      <c r="M148" s="4">
+        <v>0</v>
+      </c>
       <c r="N148" s="4">
         <v>0</v>
       </c>
       <c r="O148" s="4">
         <v>0</v>
       </c>
-      <c r="P148" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q148" s="5">
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4">
+        <v>0</v>
+      </c>
+      <c r="R148" s="5">
         <v>9</v>
       </c>
-      <c r="R148">
-        <v>1</v>
-      </c>
       <c r="S148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C149" s="4">
         <v>148</v>
@@ -8839,38 +9307,41 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
-      <c r="M149" s="4"/>
+      <c r="M149" s="4">
+        <v>0</v>
+      </c>
       <c r="N149" s="4">
         <v>0</v>
       </c>
       <c r="O149" s="4">
         <v>0</v>
       </c>
-      <c r="P149" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q149" s="5">
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4">
+        <v>0</v>
+      </c>
+      <c r="R149" s="5">
         <v>33.119999999999997</v>
       </c>
-      <c r="R149">
-        <v>1</v>
-      </c>
       <c r="S149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <f t="shared" si="5"/>
         <v>201.22424000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C150" s="4">
         <v>149</v>
@@ -8893,38 +9364,41 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-      <c r="M150" s="4"/>
+      <c r="M150" s="4">
+        <v>0</v>
+      </c>
       <c r="N150" s="4">
         <v>0</v>
       </c>
       <c r="O150" s="4">
         <v>0</v>
       </c>
-      <c r="P150" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q150" s="5">
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4">
+        <v>0</v>
+      </c>
+      <c r="R150" s="5">
         <v>7.1999999999999993</v>
       </c>
-      <c r="R150">
-        <v>1</v>
-      </c>
       <c r="S150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <f t="shared" si="5"/>
         <v>43.744399999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C151" s="4">
         <v>150</v>
@@ -8948,7 +9422,7 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M151" s="4">
         <v>1</v>
@@ -8959,23 +9433,24 @@
       <c r="O151" s="4">
         <v>0</v>
       </c>
-      <c r="P151" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="5">
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4">
+        <v>0</v>
+      </c>
+      <c r="R151" s="5">
         <v>6.3</v>
       </c>
-      <c r="R151">
-        <v>1</v>
-      </c>
       <c r="S151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
         <f t="shared" si="4"/>
         <v>12.42742</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <f t="shared" si="5"/>
         <v>38.276350000000001</v>
       </c>
@@ -9003,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9016,7 +9491,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9024,7 +9499,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9032,7 +9507,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -9040,7 +9515,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -9048,7 +9523,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -9056,7 +9531,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -9064,7 +9539,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -9072,7 +9547,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -9080,7 +9555,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -9088,7 +9563,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -9096,7 +9571,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -9104,7 +9579,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -9112,7 +9587,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -9120,7 +9595,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -9128,7 +9603,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -9136,7 +9611,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -9144,7 +9619,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -9152,7 +9627,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -9160,7 +9635,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -9168,7 +9643,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9176,7 +9651,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -9184,7 +9659,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -9192,7 +9667,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -9200,7 +9675,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -9208,7 +9683,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>1</v>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5C206C-0D8C-4628-922D-2EE9B585A0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DF292D-7AE2-4221-AE48-70914005EA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="83">
   <si>
     <t>Section</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Exit Blocks</t>
   </si>
   <si>
-    <t>57-Yard, 57-58</t>
-  </si>
-  <si>
     <t>Speed Limit (MPH)</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>28-29,28-150</t>
   </si>
   <si>
-    <t>63-Yard, 63-62</t>
-  </si>
-  <si>
     <t>77-76,77-101</t>
   </si>
   <si>
@@ -280,6 +274,18 @@
   </si>
   <si>
     <t>K62</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>57-152, 57-58</t>
+  </si>
+  <si>
+    <t>63-151, 63-62</t>
   </si>
 </sst>
 </file>
@@ -685,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="74" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView tabSelected="1" topLeftCell="E132" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -757,10 +763,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -775,10 +781,10 @@
         <v>56</v>
       </c>
       <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
         <v>58</v>
-      </c>
-      <c r="V1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -810,7 +816,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
@@ -1447,7 +1453,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="4">
         <v>1</v>
@@ -1459,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="4">
         <v>0</v>
@@ -1508,7 +1514,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -2373,7 +2379,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M29" s="4">
         <v>0</v>
@@ -2433,7 +2439,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M30" s="4">
         <v>1</v>
@@ -2445,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="4">
         <v>0</v>
@@ -4049,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
@@ -4108,7 +4114,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="L59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M59" s="4">
         <v>1</v>
@@ -4120,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="4">
         <v>0</v>
@@ -4340,7 +4346,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="L63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M63" s="4">
         <v>1</v>
@@ -4352,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q63" s="4">
         <v>0</v>
@@ -4401,7 +4407,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -5152,7 +5158,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="L77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M77" s="4">
         <v>1</v>
@@ -5215,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
@@ -5673,7 +5679,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -5733,7 +5739,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M87" s="4">
         <v>1</v>
@@ -5745,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q87" s="4">
         <v>0</v>
@@ -6544,7 +6550,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M101" s="4">
         <v>1</v>
@@ -6604,7 +6610,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M102" s="4">
         <v>1</v>
@@ -6616,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q102" s="4">
         <v>0</v>
@@ -8296,11 +8302,11 @@
         <v>0</v>
       </c>
       <c r="U131">
-        <f t="shared" ref="U131:U151" si="4">F131*0.621371</f>
+        <f t="shared" ref="U131:U153" si="4">F131*0.621371</f>
         <v>12.42742</v>
       </c>
       <c r="V131">
-        <f t="shared" ref="V131:V151" si="5">D131 * 1.09361</f>
+        <f t="shared" ref="V131:V153" si="5">D131 * 1.09361</f>
         <v>54.680499999999995</v>
       </c>
     </row>
@@ -9422,7 +9428,7 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M151" s="4">
         <v>1</v>
@@ -9453,6 +9459,116 @@
       <c r="V151">
         <f t="shared" si="5"/>
         <v>38.276350000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B152" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" s="4">
+        <v>151</v>
+      </c>
+      <c r="D152" s="4">
+        <v>100</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0</v>
+      </c>
+      <c r="F152" s="4">
+        <v>15</v>
+      </c>
+      <c r="G152" s="4">
+        <v>0</v>
+      </c>
+      <c r="H152" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L152" t="s">
+        <v>64</v>
+      </c>
+      <c r="M152" s="4">
+        <v>1</v>
+      </c>
+      <c r="N152" s="4">
+        <v>0</v>
+      </c>
+      <c r="O152" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="4">
+        <v>0</v>
+      </c>
+      <c r="R152" s="5">
+        <v>24</v>
+      </c>
+      <c r="S152" s="4">
+        <v>2</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="4"/>
+        <v>9.3205650000000002</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="5"/>
+        <v>109.36099999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B153" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C153" s="4">
+        <v>152</v>
+      </c>
+      <c r="D153" s="4">
+        <v>100</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0</v>
+      </c>
+      <c r="F153" s="4">
+        <v>15</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0</v>
+      </c>
+      <c r="H153" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L153" t="s">
+        <v>63</v>
+      </c>
+      <c r="M153" s="4">
+        <v>1</v>
+      </c>
+      <c r="N153" s="4">
+        <v>0</v>
+      </c>
+      <c r="O153" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="4">
+        <v>0</v>
+      </c>
+      <c r="R153" s="5">
+        <v>24</v>
+      </c>
+      <c r="S153" s="4">
+        <v>2</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="4"/>
+        <v>9.3205650000000002</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="5"/>
+        <v>109.36099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9462,10 +9578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88653644-AF3E-4625-A5A7-2FF88949AA53}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9478,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9686,6 +9802,22 @@
         <v>39</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
         <v>1</v>
       </c>
     </row>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor Marsh\Desktop\Trains\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DF292D-7AE2-4221-AE48-70914005EA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AE713A-14E1-48B8-BE9A-1CBEFE6C6008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="2814" yWindow="978" windowWidth="16902" windowHeight="11262" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="82">
   <si>
     <t>Section</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>K62</t>
-  </si>
-  <si>
-    <t>$</t>
   </si>
   <si>
     <t>y</t>
@@ -693,33 +690,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E132" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="74" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.20703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1015625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.20703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7890625" customWidth="1"/>
+    <col min="13" max="13" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.20703125" customWidth="1"/>
+    <col min="15" max="15" width="8.20703125" customWidth="1"/>
+    <col min="16" max="16" width="12.41796875" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.20703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -787,7 +784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -849,7 +846,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -910,7 +907,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -967,7 +964,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1024,7 +1021,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1081,7 +1078,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1138,7 +1135,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -1195,7 +1192,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -1252,7 +1249,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -1313,7 +1310,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -1370,7 +1367,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -1427,7 +1424,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1488,7 +1485,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -1547,7 +1544,7 @@
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -1604,7 +1601,7 @@
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1661,7 +1658,7 @@
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -1722,7 +1719,7 @@
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -1779,7 +1776,7 @@
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -1836,7 +1833,7 @@
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
@@ -1893,7 +1890,7 @@
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>18</v>
@@ -1950,7 +1947,7 @@
         <v>164.04149999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -2007,7 +2004,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -2068,7 +2065,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -2125,7 +2122,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2182,7 +2179,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>19</v>
@@ -2239,7 +2236,7 @@
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
@@ -2296,7 +2293,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -2353,7 +2350,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>19</v>
@@ -2412,7 +2409,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
@@ -2474,7 +2471,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -2531,7 +2528,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>20</v>
@@ -2592,7 +2589,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
@@ -2649,7 +2646,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>21</v>
@@ -2706,7 +2703,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>21</v>
@@ -2763,7 +2760,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>21</v>
@@ -2820,7 +2817,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>22</v>
@@ -2877,7 +2874,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>22</v>
@@ -2934,7 +2931,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>22</v>
@@ -2991,7 +2988,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>22</v>
@@ -3052,7 +3049,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>22</v>
@@ -3109,7 +3106,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>22</v>
@@ -3166,7 +3163,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>22</v>
@@ -3223,7 +3220,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>22</v>
@@ -3280,7 +3277,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>22</v>
@@ -3337,7 +3334,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>22</v>
@@ -3394,7 +3391,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>22</v>
@@ -3451,7 +3448,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>22</v>
@@ -3508,7 +3505,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>22</v>
@@ -3569,7 +3566,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>22</v>
@@ -3626,7 +3623,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>22</v>
@@ -3683,7 +3680,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>22</v>
@@ -3740,7 +3737,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>22</v>
@@ -3797,7 +3794,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>22</v>
@@ -3854,7 +3851,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>22</v>
@@ -3911,7 +3908,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>22</v>
@@ -3968,7 +3965,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>22</v>
@@ -4025,7 +4022,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>22</v>
@@ -4055,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
@@ -4088,7 +4085,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>23</v>
@@ -4149,7 +4146,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>23</v>
@@ -4206,7 +4203,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>23</v>
@@ -4263,7 +4260,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>23</v>
@@ -4320,7 +4317,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>23</v>
@@ -4381,7 +4378,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -4407,7 +4404,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -4440,7 +4437,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -4497,7 +4494,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>24</v>
@@ -4558,7 +4555,7 @@
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>24</v>
@@ -4615,7 +4612,7 @@
         <v>218.72199999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>24</v>
@@ -4672,7 +4669,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>24</v>
@@ -4729,7 +4726,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>25</v>
@@ -4786,7 +4783,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>25</v>
@@ -4843,7 +4840,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>25</v>
@@ -4900,7 +4897,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>25</v>
@@ -4957,7 +4954,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>25</v>
@@ -5018,7 +5015,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>26</v>
@@ -5075,7 +5072,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>26</v>
@@ -5132,7 +5129,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>26</v>
@@ -5191,7 +5188,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>27</v>
@@ -5254,7 +5251,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>27</v>
@@ -5311,7 +5308,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>27</v>
@@ -5368,7 +5365,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>27</v>
@@ -5425,7 +5422,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>27</v>
@@ -5482,7 +5479,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>27</v>
@@ -5539,7 +5536,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>27</v>
@@ -5596,7 +5593,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>27</v>
@@ -5653,7 +5650,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>27</v>
@@ -5712,7 +5709,7 @@
         <v>328.08299999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>28</v>
@@ -5774,7 +5771,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>28</v>
@@ -5831,7 +5828,7 @@
         <v>94.706625999999986</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>28</v>
@@ -5892,7 +5889,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>29</v>
@@ -5949,7 +5946,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>29</v>
@@ -6006,7 +6003,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>29</v>
@@ -6063,7 +6060,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>29</v>
@@ -6120,7 +6117,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>29</v>
@@ -6177,7 +6174,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
         <v>29</v>
@@ -6234,7 +6231,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>29</v>
@@ -6291,7 +6288,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>29</v>
@@ -6352,7 +6349,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>29</v>
@@ -6409,7 +6406,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>30</v>
@@ -6466,7 +6463,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>30</v>
@@ -6523,7 +6520,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>30</v>
@@ -6583,7 +6580,7 @@
         <v>82.020749999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>31</v>
@@ -6645,7 +6642,7 @@
         <v>38.276350000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
         <v>32</v>
@@ -6702,7 +6699,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>32</v>
@@ -6759,7 +6756,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>32</v>
@@ -6816,7 +6813,7 @@
         <v>87.488799999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>33</v>
@@ -6877,7 +6874,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>33</v>
@@ -6934,7 +6931,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>33</v>
@@ -6991,7 +6988,7 @@
         <v>98.424899999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
         <v>33</v>
@@ -7048,7 +7045,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
         <v>33</v>
@@ -7105,7 +7102,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
         <v>34</v>
@@ -7162,7 +7159,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>34</v>
@@ -7219,7 +7216,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>34</v>
@@ -7276,7 +7273,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
         <v>34</v>
@@ -7333,7 +7330,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
         <v>34</v>
@@ -7394,7 +7391,7 @@
         <v>177.16481999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>34</v>
@@ -7451,7 +7448,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>34</v>
@@ -7508,7 +7505,7 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>35</v>
@@ -7565,7 +7562,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>35</v>
@@ -7622,7 +7619,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>35</v>
@@ -7679,7 +7676,7 @@
         <v>43.744399999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
         <v>35</v>
@@ -7736,7 +7733,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>35</v>
@@ -7793,7 +7790,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>36</v>
@@ -7850,7 +7847,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>36</v>
@@ -7911,7 +7908,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>36</v>
@@ -7968,7 +7965,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>36</v>
@@ -8025,7 +8022,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>36</v>
@@ -8082,7 +8079,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>36</v>
@@ -8139,7 +8136,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>36</v>
@@ -8196,7 +8193,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>36</v>
@@ -8253,7 +8250,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>36</v>
@@ -8310,7 +8307,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>36</v>
@@ -8367,7 +8364,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>36</v>
@@ -8428,7 +8425,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>36</v>
@@ -8485,7 +8482,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>36</v>
@@ -8542,7 +8539,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>36</v>
@@ -8599,7 +8596,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>36</v>
@@ -8656,7 +8653,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>36</v>
@@ -8713,7 +8710,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>36</v>
@@ -8770,7 +8767,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>36</v>
@@ -8827,7 +8824,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>36</v>
@@ -8884,7 +8881,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>36</v>
@@ -8945,7 +8942,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>36</v>
@@ -9002,7 +8999,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>36</v>
@@ -9059,7 +9056,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
         <v>37</v>
@@ -9116,7 +9113,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>37</v>
@@ -9173,7 +9170,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>37</v>
@@ -9230,7 +9227,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>38</v>
@@ -9287,7 +9284,7 @@
         <v>54.680499999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
         <v>38</v>
@@ -9344,7 +9341,7 @@
         <v>201.22424000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
         <v>38</v>
@@ -9401,7 +9398,7 @@
         <v>43.744399999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
         <v>39</v>
@@ -9461,7 +9458,7 @@
         <v>38.276350000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="4" t="s">
         <v>79</v>
       </c>
@@ -9516,9 +9513,9 @@
         <v>109.36099999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C153" s="4">
         <v>152</v>
@@ -9578,18 +9575,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88653644-AF3E-4625-A5A7-2FF88949AA53}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9597,7 +9594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -9605,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -9613,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -9621,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9629,7 +9626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -9637,7 +9634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -9645,7 +9642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -9653,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -9661,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9669,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9677,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -9685,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -9693,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -9701,7 +9698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -9709,7 +9706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9717,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -9725,7 +9722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -9733,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -9741,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -9749,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -9757,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -9765,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -9773,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -9781,7 +9778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -9789,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -9797,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -9805,19 +9802,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>79</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29">
         <v>1</v>
       </c>
     </row>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DF292D-7AE2-4221-AE48-70914005EA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BED2A9D-41D9-4ED2-9C4D-D9819E5549EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
   <si>
     <t>Section</t>
   </si>
@@ -276,9 +276,6 @@
     <t>K62</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -286,6 +283,12 @@
   </si>
   <si>
     <t>63-151, 63-62</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,3</t>
   </si>
 </sst>
 </file>
@@ -693,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E132" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView tabSelected="1" topLeftCell="E130" zoomScale="74" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2862,8 +2865,8 @@
       <c r="R37" s="5">
         <v>6</v>
       </c>
-      <c r="S37">
-        <v>2</v>
+      <c r="S37" t="s">
+        <v>82</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -2919,8 +2922,8 @@
       <c r="R38" s="5">
         <v>6</v>
       </c>
-      <c r="S38">
-        <v>2</v>
+      <c r="S38" t="s">
+        <v>82</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -2959,7 +2962,6 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
       <c r="M39" s="4">
         <v>0</v>
       </c>
@@ -2976,8 +2978,8 @@
       <c r="R39" s="5">
         <v>6</v>
       </c>
-      <c r="S39">
-        <v>2</v>
+      <c r="S39" t="s">
+        <v>82</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -4055,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
@@ -4407,7 +4409,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -4771,8 +4773,8 @@
       <c r="R70" s="5">
         <v>9</v>
       </c>
-      <c r="S70">
-        <v>3</v>
+      <c r="S70" t="s">
+        <v>83</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -4828,8 +4830,8 @@
       <c r="R71" s="5">
         <v>9</v>
       </c>
-      <c r="S71">
-        <v>3</v>
+      <c r="S71" t="s">
+        <v>83</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -4885,8 +4887,8 @@
       <c r="R72" s="5">
         <v>9</v>
       </c>
-      <c r="S72">
-        <v>3</v>
+      <c r="S72" t="s">
+        <v>83</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -7147,8 +7149,8 @@
       <c r="R111" s="5">
         <v>12</v>
       </c>
-      <c r="S111">
-        <v>2</v>
+      <c r="S111" t="s">
+        <v>83</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -7204,8 +7206,8 @@
       <c r="R112" s="5">
         <v>12</v>
       </c>
-      <c r="S112">
-        <v>2</v>
+      <c r="S112" t="s">
+        <v>83</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -7261,8 +7263,8 @@
       <c r="R113" s="5">
         <v>12</v>
       </c>
-      <c r="S113">
-        <v>2</v>
+      <c r="S113" t="s">
+        <v>83</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -8584,8 +8586,8 @@
       <c r="R136" s="5">
         <v>9</v>
       </c>
-      <c r="S136">
-        <v>1</v>
+      <c r="S136" t="s">
+        <v>82</v>
       </c>
       <c r="T136">
         <v>0</v>
@@ -8641,8 +8643,8 @@
       <c r="R137" s="5">
         <v>9</v>
       </c>
-      <c r="S137">
-        <v>1</v>
+      <c r="S137" t="s">
+        <v>82</v>
       </c>
       <c r="T137">
         <v>0</v>
@@ -8698,8 +8700,8 @@
       <c r="R138" s="5">
         <v>9</v>
       </c>
-      <c r="S138">
-        <v>1</v>
+      <c r="S138" t="s">
+        <v>82</v>
       </c>
       <c r="T138">
         <v>0</v>
@@ -9518,7 +9520,7 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C153" s="4">
         <v>152</v>
@@ -9578,10 +9580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88653644-AF3E-4625-A5A7-2FF88949AA53}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9813,14 +9815,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cjame\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BED2A9D-41D9-4ED2-9C4D-D9819E5549EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52F1996-EB88-4377-90CE-CB95DC997355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="38280" yWindow="2700" windowWidth="29040" windowHeight="15840" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E130" zoomScale="74" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:XFD136"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cjame\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52F1996-EB88-4377-90CE-CB95DC997355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1CFB8-7F5D-4A19-8DFD-A54BE9DCF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2700" windowWidth="29040" windowHeight="15840" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="74" workbookViewId="0">
+      <selection activeCell="U116" sqref="U116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69">
         <f t="shared" si="2"/>
@@ -7096,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="T110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110">
         <f t="shared" si="2"/>
@@ -9562,7 +9562,7 @@
         <v>2</v>
       </c>
       <c r="T153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U153">
         <f t="shared" si="4"/>

--- a/src/Track/TrackModel/GreenLine_Layout.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1CFB8-7F5D-4A19-8DFD-A54BE9DCF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E75F4-F29F-4EF8-93B5-ED3742AFB875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="85">
   <si>
     <t>Section</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>2,3</t>
+  </si>
+  <si>
+    <t>Traversal Time</t>
   </si>
 </sst>
 </file>
@@ -694,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:W153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="74" workbookViewId="0">
-      <selection activeCell="U116" sqref="U116"/>
+    <sheetView tabSelected="1" topLeftCell="J19" zoomScale="74" workbookViewId="0">
+      <selection activeCell="W152" sqref="W152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,9 +723,10 @@
     <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="V1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -851,8 +858,11 @@
         <f>D2 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -912,8 +922,11 @@
         <f t="shared" ref="V3:V66" si="1">D3 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -969,8 +982,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1026,8 +1042,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1083,8 +1102,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1140,8 +1162,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -1197,8 +1222,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -1254,8 +1282,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -1315,8 +1346,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -1372,8 +1406,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -1429,8 +1466,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1490,8 +1530,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -1549,8 +1592,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -1606,8 +1652,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1663,8 +1712,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -1724,8 +1776,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -1781,8 +1836,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -1838,8 +1896,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
@@ -1895,8 +1956,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>18</v>
@@ -1952,8 +2016,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -2009,8 +2076,11 @@
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W22">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -2070,8 +2140,11 @@
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -2127,8 +2200,11 @@
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W24">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2184,8 +2260,11 @@
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>19</v>
@@ -2241,8 +2320,11 @@
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W26">
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
@@ -2298,8 +2380,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W27">
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -2355,8 +2440,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>19</v>
@@ -2414,8 +2502,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
@@ -2476,8 +2567,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -2533,8 +2627,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>20</v>
@@ -2594,8 +2691,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
@@ -2651,8 +2751,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>21</v>
@@ -2708,8 +2811,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>21</v>
@@ -2765,8 +2871,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>21</v>
@@ -2822,8 +2931,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>22</v>
@@ -2879,8 +2991,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>22</v>
@@ -2936,8 +3051,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>22</v>
@@ -2992,8 +3110,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>22</v>
@@ -3053,8 +3174,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>22</v>
@@ -3110,8 +3234,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>22</v>
@@ -3167,8 +3294,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>22</v>
@@ -3224,8 +3354,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>22</v>
@@ -3281,8 +3414,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>22</v>
@@ -3338,8 +3474,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>22</v>
@@ -3395,8 +3534,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>22</v>
@@ -3452,8 +3594,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>22</v>
@@ -3509,8 +3654,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>22</v>
@@ -3570,8 +3718,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>22</v>
@@ -3627,8 +3778,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>22</v>
@@ -3684,8 +3838,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>22</v>
@@ -3741,8 +3898,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>22</v>
@@ -3798,8 +3958,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>22</v>
@@ -3855,8 +4018,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>22</v>
@@ -3912,8 +4078,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>22</v>
@@ -3969,8 +4138,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>22</v>
@@ -4026,8 +4198,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>22</v>
@@ -4089,8 +4264,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>23</v>
@@ -4150,8 +4328,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>23</v>
@@ -4207,8 +4388,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>23</v>
@@ -4264,8 +4448,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>23</v>
@@ -4321,8 +4508,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>23</v>
@@ -4382,8 +4572,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -4441,8 +4634,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W64">
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -4498,8 +4694,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W65">
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>24</v>
@@ -4559,8 +4758,11 @@
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W66">
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>24</v>
@@ -4616,8 +4818,11 @@
         <f t="shared" ref="V67:V130" si="3">D67 * 1.09361</f>
         <v>218.72199999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W67">
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>24</v>
@@ -4673,8 +4878,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>24</v>
@@ -4730,8 +4938,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>25</v>
@@ -4787,8 +4998,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>25</v>
@@ -4844,8 +5058,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>25</v>
@@ -4901,8 +5118,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>25</v>
@@ -4958,8 +5178,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>25</v>
@@ -5019,8 +5242,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>26</v>
@@ -5076,8 +5302,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>26</v>
@@ -5133,8 +5362,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>26</v>
@@ -5192,8 +5424,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>27</v>
@@ -5255,8 +5490,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W78">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>27</v>
@@ -5312,8 +5550,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W79">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>27</v>
@@ -5369,8 +5610,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W80">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>27</v>
@@ -5426,8 +5670,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W81">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>27</v>
@@ -5483,8 +5730,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W82">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>27</v>
@@ -5540,8 +5790,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W83">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>27</v>
@@ -5597,8 +5850,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W84">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>27</v>
@@ -5654,8 +5910,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W85">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>27</v>
@@ -5713,8 +5972,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W86">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>28</v>
@@ -5775,8 +6037,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W87">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>28</v>
@@ -5832,8 +6097,11 @@
         <f t="shared" si="3"/>
         <v>94.706625999999986</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W88">
+        <v>12.470399999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>28</v>
@@ -5893,8 +6161,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W89">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>29</v>
@@ -5950,8 +6221,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W90">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>29</v>
@@ -6007,8 +6281,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W91">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>29</v>
@@ -6064,8 +6341,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W92">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>29</v>
@@ -6121,8 +6401,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W93">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>29</v>
@@ -6178,8 +6461,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W94">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
         <v>29</v>
@@ -6235,8 +6521,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W95">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>29</v>
@@ -6292,8 +6581,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W96">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>29</v>
@@ -6353,8 +6645,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W97">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>29</v>
@@ -6410,8 +6705,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W98">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>30</v>
@@ -6467,8 +6765,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W99">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>30</v>
@@ -6524,8 +6825,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W100">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>30</v>
@@ -6584,8 +6888,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W101">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>31</v>
@@ -6646,8 +6953,11 @@
         <f t="shared" si="3"/>
         <v>38.276350000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W102">
+        <v>4.8461538461538467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
         <v>32</v>
@@ -6703,8 +7013,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W103">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>32</v>
@@ -6760,8 +7073,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W104">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>32</v>
@@ -6817,8 +7133,11 @@
         <f t="shared" si="3"/>
         <v>87.488799999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W105">
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>33</v>
@@ -6878,8 +7197,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W106">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>33</v>
@@ -6935,8 +7257,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W107">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>33</v>
@@ -6992,8 +7317,11 @@
         <f t="shared" si="3"/>
         <v>98.424899999999994</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W108">
+        <v>11.571428571428573</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
         <v>33</v>
@@ -7049,8 +7377,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W109">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
         <v>33</v>
@@ -7106,8 +7437,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W110">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
         <v>34</v>
@@ -7163,8 +7497,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>34</v>
@@ -7220,8 +7557,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>34</v>
@@ -7277,8 +7617,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
         <v>34</v>
@@ -7334,8 +7677,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
         <v>34</v>
@@ -7395,8 +7741,11 @@
         <f t="shared" si="3"/>
         <v>177.16481999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W115">
+        <v>19.439999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>34</v>
@@ -7452,8 +7801,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>34</v>
@@ -7509,8 +7861,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>35</v>
@@ -7566,8 +7921,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>35</v>
@@ -7623,8 +7981,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>35</v>
@@ -7680,8 +8041,11 @@
         <f t="shared" si="3"/>
         <v>43.744399999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W120">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
         <v>35</v>
@@ -7737,8 +8101,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>35</v>
@@ -7794,8 +8161,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>36</v>
@@ -7851,8 +8221,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>36</v>
@@ -7912,8 +8285,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>36</v>
@@ -7969,8 +8345,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>36</v>
@@ -8026,8 +8405,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>36</v>
@@ -8083,8 +8465,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>36</v>
@@ -8140,8 +8525,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>36</v>
@@ -8197,8 +8585,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>36</v>
@@ -8254,8 +8645,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>36</v>
@@ -8311,8 +8705,11 @@
         <f t="shared" ref="V131:V153" si="5">D131 * 1.09361</f>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>36</v>
@@ -8368,8 +8765,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>36</v>
@@ -8429,8 +8829,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>36</v>
@@ -8486,8 +8889,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>36</v>
@@ -8543,8 +8949,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>36</v>
@@ -8600,8 +9009,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>36</v>
@@ -8657,8 +9069,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>36</v>
@@ -8714,8 +9129,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>36</v>
@@ -8771,8 +9189,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>36</v>
@@ -8828,8 +9249,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>36</v>
@@ -8885,8 +9309,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>36</v>
@@ -8946,8 +9373,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>36</v>
@@ -9003,8 +9433,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>36</v>
@@ -9060,8 +9493,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
         <v>37</v>
@@ -9117,8 +9553,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>37</v>
@@ -9174,8 +9613,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>37</v>
@@ -9231,8 +9673,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>38</v>
@@ -9288,8 +9733,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
         <v>38</v>
@@ -9345,8 +9793,11 @@
         <f t="shared" si="5"/>
         <v>201.22424000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W149">
+        <v>33.119999999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
         <v>38</v>
@@ -9402,8 +9853,11 @@
         <f t="shared" si="5"/>
         <v>43.744399999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W150">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
         <v>39</v>
@@ -9462,8 +9916,11 @@
         <f t="shared" si="5"/>
         <v>38.276350000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W151">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
         <v>79</v>
       </c>
@@ -9517,8 +9974,12 @@
         <f t="shared" si="5"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W152">
+        <f xml:space="preserve"> V152/(U152*0.488889)</f>
+        <v>23.999929586474448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
         <v>79</v>
       </c>
@@ -9571,6 +10032,10 @@
       <c r="V153">
         <f t="shared" si="5"/>
         <v>109.36099999999999</v>
+      </c>
+      <c r="W153">
+        <f xml:space="preserve"> V153/(U153*0.488889)</f>
+        <v>23.999929586474448</v>
       </c>
     </row>
   </sheetData>
